--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R204"/>
+  <dimension ref="A1:R208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K84" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="L84" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M84" t="n">
-        <v>10500</v>
+        <v>13750</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>583</v>
+        <v>764</v>
       </c>
       <c r="Q84" t="n">
         <v>18</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K85" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L85" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M85" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="Q85" t="n">
         <v>18</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K86" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L86" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M86" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>361</v>
+        <v>542</v>
       </c>
       <c r="Q86" t="n">
         <v>18</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J87" t="n">
         <v>360</v>
       </c>
       <c r="K87" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L87" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M87" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>528</v>
+        <v>375</v>
       </c>
       <c r="Q87" t="n">
         <v>18</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K88" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L88" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M88" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>417</v>
+        <v>583</v>
       </c>
       <c r="Q88" t="n">
         <v>18</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K89" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L89" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M89" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>306</v>
+        <v>472</v>
       </c>
       <c r="Q89" t="n">
         <v>18</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K90" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L90" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M90" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>194</v>
+        <v>361</v>
       </c>
       <c r="Q90" t="n">
         <v>18</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="K91" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L91" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M91" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>708</v>
+        <v>528</v>
       </c>
       <c r="Q91" t="n">
         <v>18</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K92" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L92" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M92" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>597</v>
+        <v>417</v>
       </c>
       <c r="Q92" t="n">
         <v>18</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K93" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L93" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M93" t="n">
-        <v>8750</v>
+        <v>5500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="Q93" t="n">
         <v>18</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K94" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L94" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M94" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q94" t="n">
         <v>18</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44321</v>
+        <v>44377</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K95" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="L95" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M95" t="n">
-        <v>8750</v>
+        <v>12750</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>486</v>
+        <v>708</v>
       </c>
       <c r="Q95" t="n">
         <v>18</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44321</v>
+        <v>44377</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K96" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="L96" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M96" t="n">
-        <v>6750</v>
+        <v>10750</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="Q96" t="n">
         <v>18</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44321</v>
+        <v>44377</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K97" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L97" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M97" t="n">
-        <v>4750</v>
+        <v>8750</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>264</v>
+        <v>486</v>
       </c>
       <c r="Q97" t="n">
         <v>18</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44321</v>
+        <v>44377</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K98" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L98" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M98" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="Q98" t="n">
         <v>18</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7488,13 +7488,13 @@
         <v>200</v>
       </c>
       <c r="K99" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L99" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M99" t="n">
-        <v>13250</v>
+        <v>8750</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>736</v>
+        <v>486</v>
       </c>
       <c r="Q99" t="n">
         <v>18</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K100" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L100" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="M100" t="n">
-        <v>11250</v>
+        <v>6750</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>625</v>
+        <v>375</v>
       </c>
       <c r="Q100" t="n">
         <v>18</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K101" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L101" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M101" t="n">
-        <v>9250</v>
+        <v>4750</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>514</v>
+        <v>264</v>
       </c>
       <c r="Q101" t="n">
         <v>18</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7704,13 +7704,13 @@
         <v>300</v>
       </c>
       <c r="K102" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L102" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M102" t="n">
-        <v>6250</v>
+        <v>2750</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="Q102" t="n">
         <v>18</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K103" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L103" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M103" t="n">
-        <v>11750</v>
+        <v>13250</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>653</v>
+        <v>736</v>
       </c>
       <c r="Q103" t="n">
         <v>18</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K104" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L104" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="M104" t="n">
-        <v>9750</v>
+        <v>11250</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>542</v>
+        <v>625</v>
       </c>
       <c r="Q104" t="n">
         <v>18</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K105" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L105" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M105" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="Q105" t="n">
         <v>18</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K106" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L106" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M106" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="Q106" t="n">
         <v>18</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K107" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L107" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M107" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q107" t="n">
         <v>18</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K108" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L108" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M108" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q108" t="n">
         <v>18</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K109" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L109" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M109" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q109" t="n">
         <v>18</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,7 +8277,7 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K110" t="n">
         <v>3500</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K111" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L111" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M111" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="Q111" t="n">
         <v>18</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K112" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L112" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M112" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q112" t="n">
         <v>18</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K113" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L113" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M113" t="n">
-        <v>8750</v>
+        <v>5750</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="Q113" t="n">
         <v>18</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8568,13 +8568,13 @@
         <v>360</v>
       </c>
       <c r="K114" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L114" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M114" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q114" t="n">
         <v>18</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K115" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L115" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M115" t="n">
-        <v>10500</v>
+        <v>12750</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>583</v>
+        <v>708</v>
       </c>
       <c r="Q115" t="n">
         <v>18</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K116" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L116" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M116" t="n">
-        <v>8500</v>
+        <v>10750</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>472</v>
+        <v>597</v>
       </c>
       <c r="Q116" t="n">
         <v>18</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K117" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L117" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M117" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>361</v>
+        <v>486</v>
       </c>
       <c r="Q117" t="n">
         <v>18</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K118" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L118" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M118" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>528</v>
+        <v>319</v>
       </c>
       <c r="Q118" t="n">
         <v>18</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44314</v>
+        <v>44238</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K119" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L119" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M119" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>417</v>
+        <v>583</v>
       </c>
       <c r="Q119" t="n">
         <v>18</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44314</v>
+        <v>44238</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K120" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L120" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M120" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>306</v>
+        <v>472</v>
       </c>
       <c r="Q120" t="n">
         <v>18</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44314</v>
+        <v>44238</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K121" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L121" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M121" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>194</v>
+        <v>361</v>
       </c>
       <c r="Q121" t="n">
         <v>18</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9144,13 +9144,13 @@
         <v>400</v>
       </c>
       <c r="K122" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L122" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M122" t="n">
-        <v>11750</v>
+        <v>9500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>653</v>
+        <v>528</v>
       </c>
       <c r="Q122" t="n">
         <v>18</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K123" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L123" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M123" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>542</v>
+        <v>417</v>
       </c>
       <c r="Q123" t="n">
         <v>18</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K124" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L124" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M124" t="n">
-        <v>7750</v>
+        <v>5500</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>431</v>
+        <v>306</v>
       </c>
       <c r="Q124" t="n">
         <v>18</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K125" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L125" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M125" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q125" t="n">
         <v>18</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K126" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L126" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M126" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>708</v>
+        <v>653</v>
       </c>
       <c r="Q126" t="n">
         <v>18</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K127" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L127" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M127" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q127" t="n">
         <v>18</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K128" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L128" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M128" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q128" t="n">
         <v>18</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9645,7 +9645,7 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K129" t="n">
         <v>5500</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K130" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L130" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M130" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="Q130" t="n">
         <v>18</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K131" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L131" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M131" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q131" t="n">
         <v>18</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K132" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L132" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M132" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q132" t="n">
         <v>18</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44231</v>
+        <v>44405</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K133" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="L133" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M133" t="n">
-        <v>11750</v>
+        <v>5750</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>653</v>
+        <v>319</v>
       </c>
       <c r="Q133" t="n">
         <v>18</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K134" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L134" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M134" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q134" t="n">
         <v>18</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K135" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L135" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M135" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q135" t="n">
         <v>18</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44391</v>
+        <v>44224</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J136" t="n">
         <v>240</v>
       </c>
       <c r="K136" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L136" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="M136" t="n">
-        <v>13250</v>
+        <v>7750</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>736</v>
+        <v>431</v>
       </c>
       <c r="Q136" t="n">
         <v>18</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44391</v>
+        <v>44231</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K137" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L137" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="M137" t="n">
-        <v>11250</v>
+        <v>11750</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="Q137" t="n">
         <v>18</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44391</v>
+        <v>44231</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J138" t="n">
         <v>360</v>
       </c>
       <c r="K138" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L138" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="M138" t="n">
-        <v>9250</v>
+        <v>9750</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="Q138" t="n">
         <v>18</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44391</v>
+        <v>44231</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K139" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L139" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M139" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="Q139" t="n">
         <v>18</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K140" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L140" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="M140" t="n">
-        <v>12250</v>
+        <v>13250</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>681</v>
+        <v>736</v>
       </c>
       <c r="Q140" t="n">
         <v>18</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K141" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L141" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="M141" t="n">
-        <v>10250</v>
+        <v>11250</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>569</v>
+        <v>625</v>
       </c>
       <c r="Q141" t="n">
         <v>18</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K142" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L142" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="M142" t="n">
-        <v>8250</v>
+        <v>9250</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>458</v>
+        <v>514</v>
       </c>
       <c r="Q142" t="n">
         <v>18</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K143" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L143" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M143" t="n">
-        <v>5500</v>
+        <v>6250</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="Q143" t="n">
         <v>18</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K144" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L144" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="M144" t="n">
-        <v>9500</v>
+        <v>12250</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>528</v>
+        <v>681</v>
       </c>
       <c r="Q144" t="n">
         <v>18</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10800,13 +10800,13 @@
         <v>500</v>
       </c>
       <c r="K145" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L145" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M145" t="n">
-        <v>7500</v>
+        <v>10250</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>417</v>
+        <v>569</v>
       </c>
       <c r="Q145" t="n">
         <v>18</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10872,13 +10872,13 @@
         <v>500</v>
       </c>
       <c r="K146" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L146" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M146" t="n">
-        <v>5500</v>
+        <v>8250</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>306</v>
+        <v>458</v>
       </c>
       <c r="Q146" t="n">
         <v>18</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K147" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L147" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M147" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="Q147" t="n">
         <v>18</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44399</v>
+        <v>44315</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K148" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L148" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M148" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>708</v>
+        <v>528</v>
       </c>
       <c r="Q148" t="n">
         <v>18</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44399</v>
+        <v>44315</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K149" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L149" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M149" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>597</v>
+        <v>417</v>
       </c>
       <c r="Q149" t="n">
         <v>18</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44399</v>
+        <v>44315</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K150" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L150" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M150" t="n">
-        <v>8750</v>
+        <v>5500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="Q150" t="n">
         <v>18</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44399</v>
+        <v>44315</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K151" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L151" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M151" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q151" t="n">
         <v>18</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K152" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L152" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M152" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q152" t="n">
         <v>18</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K153" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L153" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M153" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q153" t="n">
         <v>18</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K154" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L154" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M154" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q154" t="n">
         <v>18</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K155" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L155" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M155" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q155" t="n">
         <v>18</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44294</v>
+        <v>44251</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K156" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L156" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M156" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q156" t="n">
         <v>18</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44294</v>
+        <v>44251</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J157" t="n">
         <v>300</v>
       </c>
       <c r="K157" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L157" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M157" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q157" t="n">
         <v>18</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44294</v>
+        <v>44251</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J158" t="n">
         <v>200</v>
       </c>
       <c r="K158" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L158" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M158" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q158" t="n">
         <v>18</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11805,7 +11805,7 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K159" t="n">
         <v>9500</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11877,7 +11877,7 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K160" t="n">
         <v>7500</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K161" t="n">
         <v>5500</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44307</v>
+        <v>44294</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K162" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="L162" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M162" t="n">
-        <v>9750</v>
+        <v>3750</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>542</v>
+        <v>208</v>
       </c>
       <c r="Q162" t="n">
         <v>18</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44307</v>
+        <v>44245</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K163" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L163" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M163" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q163" t="n">
         <v>18</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44307</v>
+        <v>44245</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K164" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L164" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M164" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="Q164" t="n">
         <v>18</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44307</v>
+        <v>44245</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K165" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L165" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M165" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="Q165" t="n">
         <v>18</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K166" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="L166" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M166" t="n">
-        <v>14750</v>
+        <v>9750</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>819</v>
+        <v>542</v>
       </c>
       <c r="Q166" t="n">
         <v>18</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K167" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="L167" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M167" t="n">
-        <v>12750</v>
+        <v>6750</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>708</v>
+        <v>375</v>
       </c>
       <c r="Q167" t="n">
         <v>18</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K168" t="n">
-        <v>10500</v>
+        <v>4500</v>
       </c>
       <c r="L168" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M168" t="n">
-        <v>10750</v>
+        <v>4750</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>597</v>
+        <v>264</v>
       </c>
       <c r="Q168" t="n">
         <v>18</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44265</v>
+        <v>44307</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K169" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="L169" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="M169" t="n">
-        <v>10500</v>
+        <v>2750</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>583</v>
+        <v>153</v>
       </c>
       <c r="Q169" t="n">
         <v>18</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J170" t="n">
         <v>240</v>
       </c>
       <c r="K170" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="L170" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M170" t="n">
-        <v>8500</v>
+        <v>14750</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>472</v>
+        <v>819</v>
       </c>
       <c r="Q170" t="n">
         <v>18</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K171" t="n">
-        <v>4000</v>
+        <v>12500</v>
       </c>
       <c r="L171" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M171" t="n">
-        <v>4500</v>
+        <v>12750</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>250</v>
+        <v>708</v>
       </c>
       <c r="Q171" t="n">
         <v>18</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44301</v>
+        <v>44161</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K172" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L172" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M172" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="Q172" t="n">
         <v>18</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44301</v>
+        <v>44265</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K173" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L173" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M173" t="n">
-        <v>6750</v>
+        <v>10500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>375</v>
+        <v>583</v>
       </c>
       <c r="Q173" t="n">
         <v>18</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44301</v>
+        <v>44265</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K174" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L174" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M174" t="n">
-        <v>4750</v>
+        <v>8500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>264</v>
+        <v>472</v>
       </c>
       <c r="Q174" t="n">
         <v>18</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44301</v>
+        <v>44265</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J175" t="n">
         <v>300</v>
       </c>
       <c r="K175" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L175" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M175" t="n">
-        <v>2750</v>
+        <v>4500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="Q175" t="n">
         <v>18</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K176" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L176" t="n">
         <v>9000</v>
       </c>
-      <c r="L176" t="n">
-        <v>10000</v>
-      </c>
       <c r="M176" t="n">
-        <v>9500</v>
+        <v>8750</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="Q176" t="n">
         <v>18</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13104,13 +13104,13 @@
         <v>400</v>
       </c>
       <c r="K177" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L177" t="n">
         <v>7000</v>
       </c>
-      <c r="L177" t="n">
-        <v>8000</v>
-      </c>
       <c r="M177" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q177" t="n">
         <v>18</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K178" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L178" t="n">
         <v>5000</v>
       </c>
-      <c r="L178" t="n">
-        <v>6000</v>
-      </c>
       <c r="M178" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q178" t="n">
         <v>18</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K179" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L179" t="n">
         <v>3000</v>
       </c>
-      <c r="L179" t="n">
-        <v>4000</v>
-      </c>
       <c r="M179" t="n">
-        <v>3500</v>
+        <v>2750</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="Q179" t="n">
         <v>18</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="K180" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L180" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M180" t="n">
-        <v>12736</v>
+        <v>9500</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>708</v>
+        <v>528</v>
       </c>
       <c r="Q180" t="n">
         <v>18</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K181" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L181" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M181" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>597</v>
+        <v>417</v>
       </c>
       <c r="Q181" t="n">
         <v>18</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K182" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L182" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M182" t="n">
-        <v>8750</v>
+        <v>5500</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="Q182" t="n">
         <v>18</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K183" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L183" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M183" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q183" t="n">
         <v>18</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="K184" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L184" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M184" t="n">
-        <v>11750</v>
+        <v>12736</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="Q184" t="n">
         <v>18</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K185" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L185" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M185" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q185" t="n">
         <v>18</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K186" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L186" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M186" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q186" t="n">
         <v>18</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K187" t="n">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="L187" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M187" t="n">
-        <v>12750</v>
+        <v>5750</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>708</v>
+        <v>319</v>
       </c>
       <c r="Q187" t="n">
         <v>18</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44398</v>
+        <v>44230</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K188" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L188" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M188" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q188" t="n">
         <v>18</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44398</v>
+        <v>44230</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
         <v>400</v>
       </c>
       <c r="K189" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L189" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M189" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q189" t="n">
         <v>18</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44398</v>
+        <v>44230</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K190" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L190" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M190" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q190" t="n">
         <v>18</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44286</v>
+        <v>44398</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K191" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="L191" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M191" t="n">
-        <v>9500</v>
+        <v>12750</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>528</v>
+        <v>708</v>
       </c>
       <c r="Q191" t="n">
         <v>18</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44286</v>
+        <v>44398</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K192" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="L192" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M192" t="n">
-        <v>7500</v>
+        <v>10750</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>417</v>
+        <v>597</v>
       </c>
       <c r="Q192" t="n">
         <v>18</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44286</v>
+        <v>44398</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K193" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L193" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M193" t="n">
-        <v>5500</v>
+        <v>8750</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>306</v>
+        <v>486</v>
       </c>
       <c r="Q193" t="n">
         <v>18</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44286</v>
+        <v>44398</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K194" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L194" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M194" t="n">
-        <v>3500</v>
+        <v>5750</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="Q194" t="n">
         <v>18</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>240</v>
+        <v>1600</v>
       </c>
       <c r="K195" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L195" t="n">
         <v>10000</v>
       </c>
       <c r="M195" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Q195" t="n">
         <v>18</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>240</v>
+        <v>1500</v>
       </c>
       <c r="K196" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L196" t="n">
         <v>8000</v>
       </c>
       <c r="M196" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="Q196" t="n">
         <v>18</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K197" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L197" t="n">
         <v>6000</v>
       </c>
       <c r="M197" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q197" t="n">
         <v>18</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K198" t="n">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="L198" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M198" t="n">
-        <v>9750</v>
+        <v>3500</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>542</v>
+        <v>194</v>
       </c>
       <c r="Q198" t="n">
         <v>18</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K199" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L199" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M199" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q199" t="n">
         <v>18</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K200" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L200" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M200" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q200" t="n">
         <v>18</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K201" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L201" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M201" t="n">
-        <v>11500</v>
+        <v>5750</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>639</v>
+        <v>319</v>
       </c>
       <c r="Q201" t="n">
         <v>18</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="K202" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L202" t="n">
         <v>10000</v>
       </c>
       <c r="M202" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="Q202" t="n">
         <v>18</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K203" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L203" t="n">
         <v>8000</v>
       </c>
       <c r="M203" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="Q203" t="n">
         <v>18</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15041,38 +15041,326 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K204" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L204" t="n">
         <v>6000</v>
       </c>
       <c r="M204" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P204" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>18</v>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>2</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4</v>
+      </c>
+      <c r="F205" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J205" t="n">
+        <v>400</v>
+      </c>
+      <c r="K205" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L205" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M205" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P205" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>18</v>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>2</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E206" t="n">
+        <v>4</v>
+      </c>
+      <c r="F206" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
+        <v>800</v>
+      </c>
+      <c r="K206" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L206" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M206" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P206" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>18</v>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E207" t="n">
+        <v>4</v>
+      </c>
+      <c r="F207" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>700</v>
+      </c>
+      <c r="K207" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L207" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M207" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P207" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>18</v>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>2</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E208" t="n">
+        <v>4</v>
+      </c>
+      <c r="F208" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>360</v>
+      </c>
+      <c r="K208" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L208" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M208" t="n">
         <v>5500</v>
       </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O204" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P204" t="n">
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
         <v>306</v>
       </c>
-      <c r="Q204" t="n">
-        <v>18</v>
-      </c>
-      <c r="R204" t="inlineStr">
+      <c r="Q208" t="n">
+        <v>18</v>
+      </c>
+      <c r="R208" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R208"/>
+  <dimension ref="A1:R224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K84" t="n">
         <v>13500</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K85" t="n">
         <v>11500</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K86" t="n">
         <v>9500</v>
@@ -6558,7 +6558,7 @@
         <v>10000</v>
       </c>
       <c r="M86" t="n">
-        <v>9750</v>
+        <v>9708</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Q86" t="n">
         <v>18</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K87" t="n">
         <v>6500</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K88" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="L88" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M88" t="n">
-        <v>10500</v>
+        <v>13750</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>583</v>
+        <v>764</v>
       </c>
       <c r="Q88" t="n">
         <v>18</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K89" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L89" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M89" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="Q89" t="n">
         <v>18</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K90" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L90" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M90" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>361</v>
+        <v>542</v>
       </c>
       <c r="Q90" t="n">
         <v>18</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J91" t="n">
         <v>360</v>
       </c>
       <c r="K91" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L91" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M91" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>528</v>
+        <v>375</v>
       </c>
       <c r="Q91" t="n">
         <v>18</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K92" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L92" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M92" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>417</v>
+        <v>583</v>
       </c>
       <c r="Q92" t="n">
         <v>18</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K93" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L93" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M93" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>306</v>
+        <v>472</v>
       </c>
       <c r="Q93" t="n">
         <v>18</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K94" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L94" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M94" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>194</v>
+        <v>361</v>
       </c>
       <c r="Q94" t="n">
         <v>18</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="K95" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L95" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M95" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>708</v>
+        <v>528</v>
       </c>
       <c r="Q95" t="n">
         <v>18</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K96" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L96" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M96" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>597</v>
+        <v>417</v>
       </c>
       <c r="Q96" t="n">
         <v>18</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K97" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L97" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M97" t="n">
-        <v>8750</v>
+        <v>5500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="Q97" t="n">
         <v>18</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K98" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L98" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M98" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q98" t="n">
         <v>18</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44321</v>
+        <v>44377</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K99" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="L99" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M99" t="n">
-        <v>8750</v>
+        <v>12750</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>486</v>
+        <v>708</v>
       </c>
       <c r="Q99" t="n">
         <v>18</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44321</v>
+        <v>44377</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K100" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="L100" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M100" t="n">
-        <v>6750</v>
+        <v>10750</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="Q100" t="n">
         <v>18</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44321</v>
+        <v>44377</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K101" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L101" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M101" t="n">
-        <v>4750</v>
+        <v>8750</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>264</v>
+        <v>486</v>
       </c>
       <c r="Q101" t="n">
         <v>18</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44321</v>
+        <v>44377</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K102" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L102" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M102" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="Q102" t="n">
         <v>18</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44412</v>
+        <v>44426</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K103" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L103" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M103" t="n">
-        <v>13250</v>
+        <v>13750</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="Q103" t="n">
         <v>18</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44412</v>
+        <v>44426</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K104" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L104" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="M104" t="n">
-        <v>11250</v>
+        <v>11750</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="Q104" t="n">
         <v>18</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44412</v>
+        <v>44426</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K105" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L105" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="M105" t="n">
-        <v>9250</v>
+        <v>9750</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="Q105" t="n">
         <v>18</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44412</v>
+        <v>44426</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7992,13 +7992,13 @@
         <v>300</v>
       </c>
       <c r="K106" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L106" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M106" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="Q106" t="n">
         <v>18</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44336</v>
+        <v>44321</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K107" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="L107" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M107" t="n">
-        <v>11750</v>
+        <v>8750</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>653</v>
+        <v>486</v>
       </c>
       <c r="Q107" t="n">
         <v>18</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44336</v>
+        <v>44321</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K108" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L108" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M108" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q108" t="n">
         <v>18</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44336</v>
+        <v>44321</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K109" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L109" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M109" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="Q109" t="n">
         <v>18</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44336</v>
+        <v>44321</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K110" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L110" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M110" t="n">
-        <v>3750</v>
+        <v>2750</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="Q110" t="n">
         <v>18</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K111" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L111" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="M111" t="n">
-        <v>9750</v>
+        <v>13250</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>542</v>
+        <v>736</v>
       </c>
       <c r="Q111" t="n">
         <v>18</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8424,13 +8424,13 @@
         <v>500</v>
       </c>
       <c r="K112" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L112" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="M112" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>431</v>
+        <v>625</v>
       </c>
       <c r="Q112" t="n">
         <v>18</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8496,13 +8496,13 @@
         <v>400</v>
       </c>
       <c r="K113" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L113" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="M113" t="n">
-        <v>5750</v>
+        <v>9250</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>319</v>
+        <v>514</v>
       </c>
       <c r="Q113" t="n">
         <v>18</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K114" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L114" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M114" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="Q114" t="n">
         <v>18</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K115" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L115" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M115" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>708</v>
+        <v>653</v>
       </c>
       <c r="Q115" t="n">
         <v>18</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K116" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L116" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M116" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q116" t="n">
         <v>18</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K117" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L117" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M117" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>486</v>
+        <v>375</v>
       </c>
       <c r="Q117" t="n">
         <v>18</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K118" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L118" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M118" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q118" t="n">
         <v>18</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44238</v>
+        <v>44300</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K119" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L119" t="n">
         <v>10000</v>
       </c>
-      <c r="L119" t="n">
-        <v>11000</v>
-      </c>
       <c r="M119" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="Q119" t="n">
         <v>18</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44238</v>
+        <v>44300</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K120" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L120" t="n">
         <v>8000</v>
       </c>
-      <c r="L120" t="n">
-        <v>9000</v>
-      </c>
       <c r="M120" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="Q120" t="n">
         <v>18</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44238</v>
+        <v>44300</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K121" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L121" t="n">
         <v>6000</v>
       </c>
-      <c r="L121" t="n">
-        <v>7000</v>
-      </c>
       <c r="M121" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="Q121" t="n">
         <v>18</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K122" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L122" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M122" t="n">
-        <v>9500</v>
+        <v>3750</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>528</v>
+        <v>208</v>
       </c>
       <c r="Q122" t="n">
         <v>18</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K123" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="L123" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M123" t="n">
-        <v>7500</v>
+        <v>12750</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>417</v>
+        <v>708</v>
       </c>
       <c r="Q123" t="n">
         <v>18</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K124" t="n">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="L124" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M124" t="n">
-        <v>5500</v>
+        <v>10750</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>306</v>
+        <v>597</v>
       </c>
       <c r="Q124" t="n">
         <v>18</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J125" t="n">
         <v>340</v>
       </c>
       <c r="K125" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="L125" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M125" t="n">
-        <v>3500</v>
+        <v>8750</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>194</v>
+        <v>486</v>
       </c>
       <c r="Q125" t="n">
         <v>18</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K126" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="L126" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M126" t="n">
-        <v>11750</v>
+        <v>5750</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>653</v>
+        <v>319</v>
       </c>
       <c r="Q126" t="n">
         <v>18</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44364</v>
+        <v>44238</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K127" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L127" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M127" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="Q127" t="n">
         <v>18</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44364</v>
+        <v>44238</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K128" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L128" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M128" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q128" t="n">
         <v>18</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44364</v>
+        <v>44238</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K129" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L129" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M129" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="Q129" t="n">
         <v>18</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K130" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L130" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M130" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>708</v>
+        <v>528</v>
       </c>
       <c r="Q130" t="n">
         <v>18</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K131" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L131" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M131" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>597</v>
+        <v>417</v>
       </c>
       <c r="Q131" t="n">
         <v>18</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K132" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L132" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M132" t="n">
-        <v>8750</v>
+        <v>5500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="Q132" t="n">
         <v>18</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K133" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L133" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M133" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q133" t="n">
         <v>18</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10001,11 +10001,11 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K134" t="n">
         <v>11500</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10073,11 +10073,11 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K135" t="n">
         <v>9500</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10145,11 +10145,11 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K136" t="n">
         <v>7500</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44231</v>
+        <v>44364</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K137" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="L137" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M137" t="n">
-        <v>11750</v>
+        <v>5750</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>653</v>
+        <v>319</v>
       </c>
       <c r="Q137" t="n">
         <v>18</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44231</v>
+        <v>44405</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K138" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L138" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M138" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q138" t="n">
         <v>18</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44231</v>
+        <v>44405</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K139" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L139" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M139" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q139" t="n">
         <v>18</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K140" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L140" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M140" t="n">
-        <v>13250</v>
+        <v>8750</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>736</v>
+        <v>486</v>
       </c>
       <c r="Q140" t="n">
         <v>18</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K141" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L141" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="M141" t="n">
-        <v>11250</v>
+        <v>5750</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>625</v>
+        <v>319</v>
       </c>
       <c r="Q141" t="n">
         <v>18</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44391</v>
+        <v>44224</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K142" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L142" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M142" t="n">
-        <v>9250</v>
+        <v>11750</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>514</v>
+        <v>653</v>
       </c>
       <c r="Q142" t="n">
         <v>18</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44391</v>
+        <v>44224</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J143" t="n">
         <v>240</v>
       </c>
       <c r="K143" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L143" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M143" t="n">
-        <v>6250</v>
+        <v>9750</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>347</v>
+        <v>542</v>
       </c>
       <c r="Q143" t="n">
         <v>18</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44350</v>
+        <v>44224</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K144" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L144" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="M144" t="n">
-        <v>12250</v>
+        <v>7750</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>681</v>
+        <v>431</v>
       </c>
       <c r="Q144" t="n">
         <v>18</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44350</v>
+        <v>44231</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J145" t="n">
         <v>500</v>
       </c>
       <c r="K145" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L145" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M145" t="n">
-        <v>10250</v>
+        <v>11750</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="Q145" t="n">
         <v>18</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44350</v>
+        <v>44231</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K146" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L146" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M146" t="n">
-        <v>8250</v>
+        <v>9750</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="Q146" t="n">
         <v>18</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44350</v>
+        <v>44231</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
         <v>360</v>
       </c>
       <c r="K147" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L147" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M147" t="n">
-        <v>5500</v>
+        <v>7750</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="Q147" t="n">
         <v>18</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44315</v>
+        <v>44391</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K148" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L148" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="M148" t="n">
-        <v>9500</v>
+        <v>13250</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>528</v>
+        <v>736</v>
       </c>
       <c r="Q148" t="n">
         <v>18</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44315</v>
+        <v>44391</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K149" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L149" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="M149" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q149" t="n">
         <v>18</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44315</v>
+        <v>44391</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K150" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L150" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="M150" t="n">
-        <v>5500</v>
+        <v>9250</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>306</v>
+        <v>514</v>
       </c>
       <c r="Q150" t="n">
         <v>18</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44315</v>
+        <v>44391</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K151" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L151" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M151" t="n">
-        <v>3500</v>
+        <v>6250</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="Q151" t="n">
         <v>18</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K152" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L152" t="n">
         <v>12500</v>
       </c>
-      <c r="L152" t="n">
-        <v>13000</v>
-      </c>
       <c r="M152" t="n">
-        <v>12750</v>
+        <v>12250</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="Q152" t="n">
         <v>18</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K153" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L153" t="n">
         <v>10500</v>
       </c>
-      <c r="L153" t="n">
-        <v>11000</v>
-      </c>
       <c r="M153" t="n">
-        <v>10750</v>
+        <v>10250</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="Q153" t="n">
         <v>18</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K154" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L154" t="n">
         <v>8500</v>
       </c>
-      <c r="L154" t="n">
-        <v>9000</v>
-      </c>
       <c r="M154" t="n">
-        <v>8750</v>
+        <v>8250</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="Q154" t="n">
         <v>18</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K155" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L155" t="n">
         <v>6000</v>
       </c>
       <c r="M155" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q155" t="n">
         <v>18</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44251</v>
+        <v>44315</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K156" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L156" t="n">
         <v>10000</v>
       </c>
       <c r="M156" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Q156" t="n">
         <v>18</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44251</v>
+        <v>44315</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K157" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L157" t="n">
         <v>8000</v>
       </c>
       <c r="M157" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="Q157" t="n">
         <v>18</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44251</v>
+        <v>44315</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K158" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L158" t="n">
         <v>6000</v>
       </c>
       <c r="M158" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q158" t="n">
         <v>18</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44294</v>
+        <v>44315</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K159" t="n">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="L159" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M159" t="n">
-        <v>9750</v>
+        <v>3500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>542</v>
+        <v>194</v>
       </c>
       <c r="Q159" t="n">
         <v>18</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K160" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="L160" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M160" t="n">
-        <v>7750</v>
+        <v>12750</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>431</v>
+        <v>708</v>
       </c>
       <c r="Q160" t="n">
         <v>18</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K161" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L161" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M161" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q161" t="n">
         <v>18</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K162" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="L162" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M162" t="n">
-        <v>3750</v>
+        <v>8750</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>208</v>
+        <v>486</v>
       </c>
       <c r="Q162" t="n">
         <v>18</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44245</v>
+        <v>44399</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J163" t="n">
         <v>200</v>
       </c>
       <c r="K163" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L163" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M163" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q163" t="n">
         <v>18</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44245</v>
+        <v>44251</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J164" t="n">
         <v>300</v>
       </c>
       <c r="K164" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L164" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M164" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q164" t="n">
         <v>18</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44245</v>
+        <v>44251</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K165" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L165" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M165" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q165" t="n">
         <v>18</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44307</v>
+        <v>44251</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K166" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L166" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M166" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q166" t="n">
         <v>18</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44307</v>
+        <v>44294</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K167" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L167" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M167" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q167" t="n">
         <v>18</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44307</v>
+        <v>44294</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K168" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L168" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M168" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="Q168" t="n">
         <v>18</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44307</v>
+        <v>44294</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K169" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L169" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M169" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="Q169" t="n">
         <v>18</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44161</v>
+        <v>44294</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K170" t="n">
-        <v>14500</v>
+        <v>3500</v>
       </c>
       <c r="L170" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="M170" t="n">
-        <v>14750</v>
+        <v>3750</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>819</v>
+        <v>208</v>
       </c>
       <c r="Q170" t="n">
         <v>18</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44161</v>
+        <v>44419</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J171" t="n">
         <v>200</v>
       </c>
       <c r="K171" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L171" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M171" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="Q171" t="n">
         <v>18</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44161</v>
+        <v>44419</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K172" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L172" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M172" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q172" t="n">
         <v>18</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44265</v>
+        <v>44419</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K173" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L173" t="n">
         <v>10000</v>
       </c>
-      <c r="L173" t="n">
-        <v>11000</v>
-      </c>
       <c r="M173" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="Q173" t="n">
         <v>18</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44265</v>
+        <v>44419</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K174" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L174" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M174" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>472</v>
+        <v>375</v>
       </c>
       <c r="Q174" t="n">
         <v>18</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44265</v>
+        <v>44420</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K175" t="n">
-        <v>4000</v>
+        <v>13500</v>
       </c>
       <c r="L175" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M175" t="n">
-        <v>4500</v>
+        <v>13750</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>250</v>
+        <v>764</v>
       </c>
       <c r="Q175" t="n">
         <v>18</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44301</v>
+        <v>44420</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
         <v>400</v>
       </c>
       <c r="K176" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L176" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M176" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>486</v>
+        <v>653</v>
       </c>
       <c r="Q176" t="n">
         <v>18</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44301</v>
+        <v>44420</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K177" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L177" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M177" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q177" t="n">
         <v>18</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44301</v>
+        <v>44420</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K178" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L178" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M178" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q178" t="n">
         <v>18</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44301</v>
+        <v>44245</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K179" t="n">
-        <v>2500</v>
+        <v>9500</v>
       </c>
       <c r="L179" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="M179" t="n">
-        <v>2750</v>
+        <v>9750</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>153</v>
+        <v>542</v>
       </c>
       <c r="Q179" t="n">
         <v>18</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44272</v>
+        <v>44245</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J180" t="n">
         <v>300</v>
       </c>
       <c r="K180" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L180" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M180" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q180" t="n">
         <v>18</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44272</v>
+        <v>44245</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K181" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L181" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M181" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="Q181" t="n">
         <v>18</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44272</v>
+        <v>44307</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J182" t="n">
         <v>300</v>
       </c>
       <c r="K182" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L182" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M182" t="n">
-        <v>5500</v>
+        <v>9750</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="Q182" t="n">
         <v>18</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44272</v>
+        <v>44307</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K183" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L183" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M183" t="n">
-        <v>3500</v>
+        <v>6750</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>194</v>
+        <v>375</v>
       </c>
       <c r="Q183" t="n">
         <v>18</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44370</v>
+        <v>44307</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>530</v>
+        <v>360</v>
       </c>
       <c r="K184" t="n">
-        <v>12500</v>
+        <v>4500</v>
       </c>
       <c r="L184" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M184" t="n">
-        <v>12736</v>
+        <v>4750</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>708</v>
+        <v>264</v>
       </c>
       <c r="Q184" t="n">
         <v>18</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44370</v>
+        <v>44307</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K185" t="n">
-        <v>10500</v>
+        <v>2500</v>
       </c>
       <c r="L185" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="M185" t="n">
-        <v>10750</v>
+        <v>2750</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>597</v>
+        <v>153</v>
       </c>
       <c r="Q185" t="n">
         <v>18</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44370</v>
+        <v>44161</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K186" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="L186" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M186" t="n">
-        <v>8750</v>
+        <v>14750</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>486</v>
+        <v>819</v>
       </c>
       <c r="Q186" t="n">
         <v>18</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44370</v>
+        <v>44161</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K187" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="L187" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M187" t="n">
-        <v>5750</v>
+        <v>12750</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>319</v>
+        <v>708</v>
       </c>
       <c r="Q187" t="n">
         <v>18</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44230</v>
+        <v>44161</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K188" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L188" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M188" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q188" t="n">
         <v>18</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44230</v>
+        <v>44265</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K189" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L189" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M189" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="Q189" t="n">
         <v>18</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44230</v>
+        <v>44265</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K190" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L190" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M190" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q190" t="n">
         <v>18</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44398</v>
+        <v>44265</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
         <v>300</v>
       </c>
       <c r="K191" t="n">
-        <v>12500</v>
+        <v>4000</v>
       </c>
       <c r="L191" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M191" t="n">
-        <v>12750</v>
+        <v>4500</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>708</v>
+        <v>250</v>
       </c>
       <c r="Q191" t="n">
         <v>18</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44398</v>
+        <v>44301</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K192" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L192" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M192" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>597</v>
+        <v>486</v>
       </c>
       <c r="Q192" t="n">
         <v>18</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44398</v>
+        <v>44301</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
         <v>400</v>
       </c>
       <c r="K193" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L193" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M193" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>486</v>
+        <v>375</v>
       </c>
       <c r="Q193" t="n">
         <v>18</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44398</v>
+        <v>44301</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K194" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L194" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M194" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q194" t="n">
         <v>18</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44286</v>
+        <v>44301</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K195" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="L195" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M195" t="n">
-        <v>9500</v>
+        <v>2750</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>528</v>
+        <v>153</v>
       </c>
       <c r="Q195" t="n">
         <v>18</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44286</v>
+        <v>44272</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K196" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L196" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M196" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>417</v>
+        <v>528</v>
       </c>
       <c r="Q196" t="n">
         <v>18</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44286</v>
+        <v>44272</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K197" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L197" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M197" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>306</v>
+        <v>417</v>
       </c>
       <c r="Q197" t="n">
         <v>18</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44286</v>
+        <v>44272</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K198" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L198" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M198" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="Q198" t="n">
         <v>18</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44217</v>
+        <v>44272</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K199" t="n">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="L199" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M199" t="n">
-        <v>9750</v>
+        <v>3500</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>542</v>
+        <v>194</v>
       </c>
       <c r="Q199" t="n">
         <v>18</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44217</v>
+        <v>44370</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="K200" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="L200" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M200" t="n">
-        <v>7750</v>
+        <v>12736</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>431</v>
+        <v>708</v>
       </c>
       <c r="Q200" t="n">
         <v>18</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44217</v>
+        <v>44370</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K201" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L201" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M201" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q201" t="n">
         <v>18</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44244</v>
+        <v>44370</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K202" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L202" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M202" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q202" t="n">
         <v>18</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44244</v>
+        <v>44370</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K203" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L203" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M203" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q203" t="n">
         <v>18</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44244</v>
+        <v>44230</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K204" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="L204" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M204" t="n">
-        <v>5750</v>
+        <v>11750</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>319</v>
+        <v>653</v>
       </c>
       <c r="Q204" t="n">
         <v>18</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44343</v>
+        <v>44230</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J205" t="n">
         <v>400</v>
       </c>
       <c r="K205" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L205" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M205" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>639</v>
+        <v>542</v>
       </c>
       <c r="Q205" t="n">
         <v>18</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44343</v>
+        <v>44230</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K206" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L206" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M206" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q206" t="n">
         <v>18</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K207" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="L207" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M207" t="n">
-        <v>7500</v>
+        <v>12750</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>417</v>
+        <v>708</v>
       </c>
       <c r="Q207" t="n">
         <v>18</v>
@@ -15309,58 +15309,1210 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E208" t="n">
+        <v>4</v>
+      </c>
+      <c r="F208" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>500</v>
+      </c>
+      <c r="K208" t="n">
+        <v>10500</v>
+      </c>
+      <c r="L208" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M208" t="n">
+        <v>10750</v>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
+        <v>597</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>18</v>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>2</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E209" t="n">
+        <v>4</v>
+      </c>
+      <c r="F209" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J209" t="n">
+        <v>400</v>
+      </c>
+      <c r="K209" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L209" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M209" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P209" t="n">
+        <v>486</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>18</v>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>2</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E210" t="n">
+        <v>4</v>
+      </c>
+      <c r="F210" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J210" t="n">
+        <v>200</v>
+      </c>
+      <c r="K210" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L210" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M210" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P210" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>18</v>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E211" t="n">
+        <v>4</v>
+      </c>
+      <c r="F211" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K211" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L211" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M211" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>18</v>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>2</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E212" t="n">
+        <v>4</v>
+      </c>
+      <c r="F212" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J212" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K212" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L212" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M212" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>18</v>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E213" t="n">
+        <v>4</v>
+      </c>
+      <c r="F213" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J213" t="n">
+        <v>800</v>
+      </c>
+      <c r="K213" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L213" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M213" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P213" t="n">
+        <v>306</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>18</v>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E214" t="n">
+        <v>4</v>
+      </c>
+      <c r="F214" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J214" t="n">
+        <v>400</v>
+      </c>
+      <c r="K214" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L214" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M214" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>18</v>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>2</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>44217</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4</v>
+      </c>
+      <c r="F215" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J215" t="n">
+        <v>240</v>
+      </c>
+      <c r="K215" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L215" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M215" t="n">
+        <v>9750</v>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>18</v>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>2</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>44217</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4</v>
+      </c>
+      <c r="F216" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J216" t="n">
+        <v>240</v>
+      </c>
+      <c r="K216" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L216" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M216" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P216" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>18</v>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>44217</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4</v>
+      </c>
+      <c r="F217" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J217" t="n">
+        <v>200</v>
+      </c>
+      <c r="K217" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L217" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M217" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P217" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>18</v>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>2</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4</v>
+      </c>
+      <c r="F218" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J218" t="n">
+        <v>240</v>
+      </c>
+      <c r="K218" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L218" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M218" t="n">
+        <v>9750</v>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P218" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>18</v>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E219" t="n">
+        <v>4</v>
+      </c>
+      <c r="F219" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>340</v>
+      </c>
+      <c r="K219" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L219" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M219" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>18</v>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4</v>
+      </c>
+      <c r="F220" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J220" t="n">
+        <v>200</v>
+      </c>
+      <c r="K220" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L220" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M220" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>18</v>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="n">
         <v>44343</v>
       </c>
-      <c r="E208" t="n">
-        <v>4</v>
-      </c>
-      <c r="F208" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>Cultivar IV Región</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
+      <c r="E221" t="n">
+        <v>4</v>
+      </c>
+      <c r="F221" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J221" t="n">
+        <v>400</v>
+      </c>
+      <c r="K221" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L221" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M221" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>18</v>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4</v>
+      </c>
+      <c r="F222" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J222" t="n">
+        <v>800</v>
+      </c>
+      <c r="K222" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L222" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M222" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>18</v>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E223" t="n">
+        <v>4</v>
+      </c>
+      <c r="F223" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J223" t="n">
+        <v>700</v>
+      </c>
+      <c r="K223" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L223" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M223" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>18</v>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>2</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4</v>
+      </c>
+      <c r="F224" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J208" t="n">
+      <c r="J224" t="n">
         <v>360</v>
       </c>
-      <c r="K208" t="n">
+      <c r="K224" t="n">
         <v>5000</v>
       </c>
-      <c r="L208" t="n">
+      <c r="L224" t="n">
         <v>6000</v>
       </c>
-      <c r="M208" t="n">
+      <c r="M224" t="n">
         <v>5500</v>
       </c>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P208" t="n">
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
         <v>306</v>
       </c>
-      <c r="Q208" t="n">
-        <v>18</v>
-      </c>
-      <c r="R208" t="inlineStr">
+      <c r="Q224" t="n">
+        <v>18</v>
+      </c>
+      <c r="R224" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R224"/>
+  <dimension ref="A1:R236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44280</v>
+        <v>44434</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K58" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="L58" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M58" t="n">
-        <v>8750</v>
+        <v>14750</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>486</v>
+        <v>819</v>
       </c>
       <c r="Q58" t="n">
         <v>18</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44280</v>
+        <v>44434</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K59" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="L59" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M59" t="n">
-        <v>6750</v>
+        <v>12750</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>375</v>
+        <v>708</v>
       </c>
       <c r="Q59" t="n">
         <v>18</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44280</v>
+        <v>44434</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K60" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="L60" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M60" t="n">
-        <v>4750</v>
+        <v>10750</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>264</v>
+        <v>597</v>
       </c>
       <c r="Q60" t="n">
         <v>18</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44280</v>
+        <v>44434</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4752,13 +4752,13 @@
         <v>240</v>
       </c>
       <c r="K61" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="L61" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M61" t="n">
-        <v>2750</v>
+        <v>7750</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>153</v>
+        <v>431</v>
       </c>
       <c r="Q61" t="n">
         <v>18</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44384</v>
+        <v>44280</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4824,13 +4824,13 @@
         <v>300</v>
       </c>
       <c r="K62" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="L62" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M62" t="n">
-        <v>12750</v>
+        <v>8750</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>708</v>
+        <v>486</v>
       </c>
       <c r="Q62" t="n">
         <v>18</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44384</v>
+        <v>44280</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4896,13 +4896,13 @@
         <v>400</v>
       </c>
       <c r="K63" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="L63" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M63" t="n">
-        <v>10750</v>
+        <v>6750</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>597</v>
+        <v>375</v>
       </c>
       <c r="Q63" t="n">
         <v>18</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44384</v>
+        <v>44280</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K64" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L64" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M64" t="n">
-        <v>8750</v>
+        <v>4750</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>486</v>
+        <v>264</v>
       </c>
       <c r="Q64" t="n">
         <v>18</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44384</v>
+        <v>44280</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K65" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L65" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M65" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q65" t="n">
         <v>18</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K66" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L66" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M66" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="Q66" t="n">
         <v>18</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K67" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L67" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M67" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q67" t="n">
         <v>18</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K68" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L68" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M68" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q68" t="n">
         <v>18</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K69" t="n">
         <v>5500</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K70" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L70" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M70" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q70" t="n">
         <v>18</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K71" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L71" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M71" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q71" t="n">
         <v>18</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K72" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L72" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M72" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q72" t="n">
         <v>18</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K73" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L73" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M73" t="n">
-        <v>11500</v>
+        <v>5750</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>639</v>
+        <v>319</v>
       </c>
       <c r="Q73" t="n">
         <v>18</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="K74" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L74" t="n">
         <v>10000</v>
       </c>
       <c r="M74" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="Q74" t="n">
         <v>18</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K75" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L75" t="n">
         <v>8000</v>
       </c>
       <c r="M75" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="Q75" t="n">
         <v>18</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K76" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L76" t="n">
         <v>6000</v>
       </c>
       <c r="M76" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q76" t="n">
         <v>18</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>248</v>
+        <v>600</v>
       </c>
       <c r="K77" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L77" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M77" t="n">
-        <v>12742</v>
+        <v>11500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>708</v>
+        <v>639</v>
       </c>
       <c r="Q77" t="n">
         <v>18</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K78" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="L78" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M78" t="n">
-        <v>10750</v>
+        <v>9500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="Q78" t="n">
         <v>18</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K79" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L79" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M79" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="Q79" t="n">
         <v>18</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K80" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L80" t="n">
         <v>6000</v>
       </c>
       <c r="M80" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q80" t="n">
         <v>18</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44258</v>
+        <v>44385</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K81" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L81" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M81" t="n">
-        <v>9750</v>
+        <v>12742</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q81" t="n">
         <v>18</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44258</v>
+        <v>44385</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K82" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L82" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M82" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q82" t="n">
         <v>18</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44258</v>
+        <v>44385</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K83" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L83" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M83" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q83" t="n">
         <v>18</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44427</v>
+        <v>44385</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K84" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="L84" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M84" t="n">
-        <v>13750</v>
+        <v>5750</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>764</v>
+        <v>319</v>
       </c>
       <c r="Q84" t="n">
         <v>18</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44427</v>
+        <v>44258</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K85" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L85" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M85" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q85" t="n">
         <v>18</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44427</v>
+        <v>44258</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="K86" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L86" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M86" t="n">
-        <v>9708</v>
+        <v>7750</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>539</v>
+        <v>431</v>
       </c>
       <c r="Q86" t="n">
         <v>18</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44427</v>
+        <v>44258</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K87" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L87" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M87" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q87" t="n">
         <v>18</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,7 +6693,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K88" t="n">
         <v>13500</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K89" t="n">
         <v>11500</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K90" t="n">
         <v>9500</v>
@@ -6846,7 +6846,7 @@
         <v>10000</v>
       </c>
       <c r="M90" t="n">
-        <v>9750</v>
+        <v>9708</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Q90" t="n">
         <v>18</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,7 +6909,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K91" t="n">
         <v>6500</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K92" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="L92" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M92" t="n">
-        <v>10500</v>
+        <v>13750</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>583</v>
+        <v>764</v>
       </c>
       <c r="Q92" t="n">
         <v>18</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K93" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L93" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M93" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="Q93" t="n">
         <v>18</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K94" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L94" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M94" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>361</v>
+        <v>542</v>
       </c>
       <c r="Q94" t="n">
         <v>18</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J95" t="n">
         <v>360</v>
       </c>
       <c r="K95" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L95" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M95" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>528</v>
+        <v>375</v>
       </c>
       <c r="Q95" t="n">
         <v>18</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K96" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L96" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M96" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>417</v>
+        <v>583</v>
       </c>
       <c r="Q96" t="n">
         <v>18</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K97" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L97" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M97" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>306</v>
+        <v>472</v>
       </c>
       <c r="Q97" t="n">
         <v>18</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K98" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L98" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M98" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>194</v>
+        <v>361</v>
       </c>
       <c r="Q98" t="n">
         <v>18</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="K99" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L99" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M99" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>708</v>
+        <v>528</v>
       </c>
       <c r="Q99" t="n">
         <v>18</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K100" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L100" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M100" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>597</v>
+        <v>417</v>
       </c>
       <c r="Q100" t="n">
         <v>18</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K101" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L101" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M101" t="n">
-        <v>8750</v>
+        <v>5500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="Q101" t="n">
         <v>18</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K102" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L102" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M102" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q102" t="n">
         <v>18</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44426</v>
+        <v>44377</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="K103" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L103" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M103" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="Q103" t="n">
         <v>18</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44426</v>
+        <v>44377</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K104" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L104" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M104" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q104" t="n">
         <v>18</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44426</v>
+        <v>44377</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K105" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L105" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M105" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q105" t="n">
         <v>18</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44426</v>
+        <v>44377</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K106" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L106" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M106" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q106" t="n">
         <v>18</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44321</v>
+        <v>44426</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K107" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="L107" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M107" t="n">
-        <v>8750</v>
+        <v>13750</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>486</v>
+        <v>764</v>
       </c>
       <c r="Q107" t="n">
         <v>18</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44321</v>
+        <v>44426</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8136,13 +8136,13 @@
         <v>400</v>
       </c>
       <c r="K108" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L108" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M108" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>375</v>
+        <v>653</v>
       </c>
       <c r="Q108" t="n">
         <v>18</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44321</v>
+        <v>44426</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K109" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L109" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M109" t="n">
-        <v>4750</v>
+        <v>9750</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>264</v>
+        <v>542</v>
       </c>
       <c r="Q109" t="n">
         <v>18</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44321</v>
+        <v>44426</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8280,13 +8280,13 @@
         <v>300</v>
       </c>
       <c r="K110" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L110" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M110" t="n">
-        <v>2750</v>
+        <v>6750</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="Q110" t="n">
         <v>18</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8352,13 +8352,13 @@
         <v>200</v>
       </c>
       <c r="K111" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L111" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M111" t="n">
-        <v>13250</v>
+        <v>8750</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>736</v>
+        <v>486</v>
       </c>
       <c r="Q111" t="n">
         <v>18</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K112" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L112" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="M112" t="n">
-        <v>11250</v>
+        <v>6750</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>625</v>
+        <v>375</v>
       </c>
       <c r="Q112" t="n">
         <v>18</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K113" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L113" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M113" t="n">
-        <v>9250</v>
+        <v>4750</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>514</v>
+        <v>264</v>
       </c>
       <c r="Q113" t="n">
         <v>18</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8568,13 +8568,13 @@
         <v>300</v>
       </c>
       <c r="K114" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L114" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M114" t="n">
-        <v>6250</v>
+        <v>2750</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="Q114" t="n">
         <v>18</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K115" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L115" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M115" t="n">
-        <v>11750</v>
+        <v>13250</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>653</v>
+        <v>736</v>
       </c>
       <c r="Q115" t="n">
         <v>18</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K116" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L116" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="M116" t="n">
-        <v>9750</v>
+        <v>11250</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>542</v>
+        <v>625</v>
       </c>
       <c r="Q116" t="n">
         <v>18</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K117" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L117" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M117" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="Q117" t="n">
         <v>18</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K118" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L118" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M118" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="Q118" t="n">
         <v>18</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K119" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L119" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M119" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q119" t="n">
         <v>18</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K120" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L120" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M120" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q120" t="n">
         <v>18</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K121" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L121" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M121" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q121" t="n">
         <v>18</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9141,7 +9141,7 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K122" t="n">
         <v>3500</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K123" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L123" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M123" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="Q123" t="n">
         <v>18</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K124" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L124" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M124" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q124" t="n">
         <v>18</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K125" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L125" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M125" t="n">
-        <v>8750</v>
+        <v>5750</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="Q125" t="n">
         <v>18</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9432,13 +9432,13 @@
         <v>360</v>
       </c>
       <c r="K126" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L126" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M126" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q126" t="n">
         <v>18</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K127" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L127" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M127" t="n">
-        <v>10500</v>
+        <v>12750</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>583</v>
+        <v>708</v>
       </c>
       <c r="Q127" t="n">
         <v>18</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K128" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L128" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M128" t="n">
-        <v>8500</v>
+        <v>10750</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>472</v>
+        <v>597</v>
       </c>
       <c r="Q128" t="n">
         <v>18</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K129" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L129" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M129" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>361</v>
+        <v>486</v>
       </c>
       <c r="Q129" t="n">
         <v>18</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K130" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L130" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M130" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>528</v>
+        <v>319</v>
       </c>
       <c r="Q130" t="n">
         <v>18</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44314</v>
+        <v>44238</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K131" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L131" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M131" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>417</v>
+        <v>583</v>
       </c>
       <c r="Q131" t="n">
         <v>18</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44314</v>
+        <v>44238</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K132" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L132" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M132" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>306</v>
+        <v>472</v>
       </c>
       <c r="Q132" t="n">
         <v>18</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44314</v>
+        <v>44238</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K133" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L133" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M133" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>194</v>
+        <v>361</v>
       </c>
       <c r="Q133" t="n">
         <v>18</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10008,13 +10008,13 @@
         <v>400</v>
       </c>
       <c r="K134" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L134" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M134" t="n">
-        <v>11750</v>
+        <v>9500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>653</v>
+        <v>528</v>
       </c>
       <c r="Q134" t="n">
         <v>18</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K135" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L135" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M135" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>542</v>
+        <v>417</v>
       </c>
       <c r="Q135" t="n">
         <v>18</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K136" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L136" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M136" t="n">
-        <v>7750</v>
+        <v>5500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>431</v>
+        <v>306</v>
       </c>
       <c r="Q136" t="n">
         <v>18</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K137" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L137" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M137" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q137" t="n">
         <v>18</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K138" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L138" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M138" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>708</v>
+        <v>653</v>
       </c>
       <c r="Q138" t="n">
         <v>18</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K139" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L139" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M139" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q139" t="n">
         <v>18</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K140" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L140" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M140" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q140" t="n">
         <v>18</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10509,7 +10509,7 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K141" t="n">
         <v>5500</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44224</v>
+        <v>44435</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="K142" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="L142" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M142" t="n">
-        <v>11750</v>
+        <v>14750</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>653</v>
+        <v>819</v>
       </c>
       <c r="Q142" t="n">
         <v>18</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44224</v>
+        <v>44435</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>240</v>
+        <v>1300</v>
       </c>
       <c r="K143" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L143" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M143" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q143" t="n">
         <v>18</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44224</v>
+        <v>44435</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>240</v>
+        <v>760</v>
       </c>
       <c r="K144" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L144" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M144" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q144" t="n">
         <v>18</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44231</v>
+        <v>44435</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K145" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L145" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M145" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q145" t="n">
         <v>18</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44231</v>
+        <v>44405</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K146" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L146" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M146" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q146" t="n">
         <v>18</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44231</v>
+        <v>44405</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K147" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L147" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M147" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q147" t="n">
         <v>18</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K148" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L148" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M148" t="n">
-        <v>13250</v>
+        <v>8750</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>736</v>
+        <v>486</v>
       </c>
       <c r="Q148" t="n">
         <v>18</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K149" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L149" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="M149" t="n">
-        <v>11250</v>
+        <v>5750</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>625</v>
+        <v>319</v>
       </c>
       <c r="Q149" t="n">
         <v>18</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44391</v>
+        <v>44224</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K150" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L150" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M150" t="n">
-        <v>9250</v>
+        <v>11750</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>514</v>
+        <v>653</v>
       </c>
       <c r="Q150" t="n">
         <v>18</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44391</v>
+        <v>44224</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J151" t="n">
         <v>240</v>
       </c>
       <c r="K151" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L151" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M151" t="n">
-        <v>6250</v>
+        <v>9750</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>347</v>
+        <v>542</v>
       </c>
       <c r="Q151" t="n">
         <v>18</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44350</v>
+        <v>44224</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K152" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L152" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="M152" t="n">
-        <v>12250</v>
+        <v>7750</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>681</v>
+        <v>431</v>
       </c>
       <c r="Q152" t="n">
         <v>18</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44350</v>
+        <v>44231</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J153" t="n">
         <v>500</v>
       </c>
       <c r="K153" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L153" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M153" t="n">
-        <v>10250</v>
+        <v>11750</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="Q153" t="n">
         <v>18</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44350</v>
+        <v>44231</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K154" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L154" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M154" t="n">
-        <v>8250</v>
+        <v>9750</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="Q154" t="n">
         <v>18</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44350</v>
+        <v>44231</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J155" t="n">
         <v>360</v>
       </c>
       <c r="K155" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L155" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M155" t="n">
-        <v>5500</v>
+        <v>7750</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="Q155" t="n">
         <v>18</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44315</v>
+        <v>44391</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K156" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L156" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="M156" t="n">
-        <v>9500</v>
+        <v>13250</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>528</v>
+        <v>736</v>
       </c>
       <c r="Q156" t="n">
         <v>18</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44315</v>
+        <v>44391</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K157" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L157" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="M157" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q157" t="n">
         <v>18</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44315</v>
+        <v>44391</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K158" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L158" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="M158" t="n">
-        <v>5500</v>
+        <v>9250</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>306</v>
+        <v>514</v>
       </c>
       <c r="Q158" t="n">
         <v>18</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44315</v>
+        <v>44391</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K159" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L159" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M159" t="n">
-        <v>3500</v>
+        <v>6250</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="Q159" t="n">
         <v>18</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K160" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L160" t="n">
         <v>12500</v>
       </c>
-      <c r="L160" t="n">
-        <v>13000</v>
-      </c>
       <c r="M160" t="n">
-        <v>12750</v>
+        <v>12250</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="Q160" t="n">
         <v>18</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K161" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L161" t="n">
         <v>10500</v>
       </c>
-      <c r="L161" t="n">
-        <v>11000</v>
-      </c>
       <c r="M161" t="n">
-        <v>10750</v>
+        <v>10250</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="Q161" t="n">
         <v>18</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K162" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L162" t="n">
         <v>8500</v>
       </c>
-      <c r="L162" t="n">
-        <v>9000</v>
-      </c>
       <c r="M162" t="n">
-        <v>8750</v>
+        <v>8250</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="Q162" t="n">
         <v>18</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K163" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L163" t="n">
         <v>6000</v>
       </c>
       <c r="M163" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q163" t="n">
         <v>18</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44251</v>
+        <v>44315</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K164" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L164" t="n">
         <v>10000</v>
       </c>
       <c r="M164" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Q164" t="n">
         <v>18</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44251</v>
+        <v>44315</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K165" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L165" t="n">
         <v>8000</v>
       </c>
       <c r="M165" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="Q165" t="n">
         <v>18</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44251</v>
+        <v>44315</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K166" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L166" t="n">
         <v>6000</v>
       </c>
       <c r="M166" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q166" t="n">
         <v>18</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44294</v>
+        <v>44315</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K167" t="n">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="L167" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M167" t="n">
-        <v>9750</v>
+        <v>3500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>542</v>
+        <v>194</v>
       </c>
       <c r="Q167" t="n">
         <v>18</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K168" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="L168" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M168" t="n">
-        <v>7750</v>
+        <v>12750</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>431</v>
+        <v>708</v>
       </c>
       <c r="Q168" t="n">
         <v>18</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K169" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L169" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M169" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q169" t="n">
         <v>18</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K170" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="L170" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M170" t="n">
-        <v>3750</v>
+        <v>8750</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>208</v>
+        <v>486</v>
       </c>
       <c r="Q170" t="n">
         <v>18</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44419</v>
+        <v>44399</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J171" t="n">
         <v>200</v>
       </c>
       <c r="K171" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="L171" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M171" t="n">
-        <v>13750</v>
+        <v>5750</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>764</v>
+        <v>319</v>
       </c>
       <c r="Q171" t="n">
         <v>18</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44419</v>
+        <v>44251</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K172" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L172" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M172" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q172" t="n">
         <v>18</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44419</v>
+        <v>44251</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K173" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L173" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M173" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q173" t="n">
         <v>18</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44419</v>
+        <v>44251</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K174" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L174" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M174" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q174" t="n">
         <v>18</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44420</v>
+        <v>44294</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K175" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="L175" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M175" t="n">
-        <v>13750</v>
+        <v>9750</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>764</v>
+        <v>542</v>
       </c>
       <c r="Q175" t="n">
         <v>18</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44420</v>
+        <v>44294</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13032,13 +13032,13 @@
         <v>400</v>
       </c>
       <c r="K176" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L176" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M176" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q176" t="n">
         <v>18</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44420</v>
+        <v>44294</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K177" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L177" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M177" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q177" t="n">
         <v>18</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44420</v>
+        <v>44294</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K178" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L178" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M178" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="Q178" t="n">
         <v>18</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13248,13 +13248,13 @@
         <v>200</v>
       </c>
       <c r="K179" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L179" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M179" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q179" t="n">
         <v>18</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K180" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L180" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M180" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q180" t="n">
         <v>18</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K181" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L181" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M181" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q181" t="n">
         <v>18</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44307</v>
+        <v>44419</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J182" t="n">
         <v>300</v>
       </c>
       <c r="K182" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L182" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M182" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q182" t="n">
         <v>18</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44307</v>
+        <v>44420</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K183" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="L183" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M183" t="n">
-        <v>6750</v>
+        <v>13750</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>375</v>
+        <v>764</v>
       </c>
       <c r="Q183" t="n">
         <v>18</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44307</v>
+        <v>44420</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K184" t="n">
-        <v>4500</v>
+        <v>11500</v>
       </c>
       <c r="L184" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M184" t="n">
-        <v>4750</v>
+        <v>11750</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>264</v>
+        <v>653</v>
       </c>
       <c r="Q184" t="n">
         <v>18</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44307</v>
+        <v>44420</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="K185" t="n">
-        <v>2500</v>
+        <v>9500</v>
       </c>
       <c r="L185" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="M185" t="n">
-        <v>2750</v>
+        <v>9750</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>153</v>
+        <v>542</v>
       </c>
       <c r="Q185" t="n">
         <v>18</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44161</v>
+        <v>44420</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K186" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="L186" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M186" t="n">
-        <v>14750</v>
+        <v>6750</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>819</v>
+        <v>375</v>
       </c>
       <c r="Q186" t="n">
         <v>18</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44161</v>
+        <v>44245</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J187" t="n">
         <v>200</v>
       </c>
       <c r="K187" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L187" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M187" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="Q187" t="n">
         <v>18</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44161</v>
+        <v>44245</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K188" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L188" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M188" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q188" t="n">
         <v>18</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44265</v>
+        <v>44245</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K189" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L189" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M189" t="n">
-        <v>10500</v>
+        <v>5750</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>583</v>
+        <v>319</v>
       </c>
       <c r="Q189" t="n">
         <v>18</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44265</v>
+        <v>44307</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K190" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L190" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M190" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="Q190" t="n">
         <v>18</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44265</v>
+        <v>44307</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K191" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L191" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M191" t="n">
-        <v>4500</v>
+        <v>6750</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="Q191" t="n">
         <v>18</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44301</v>
+        <v>44307</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K192" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L192" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M192" t="n">
-        <v>8750</v>
+        <v>4750</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>486</v>
+        <v>264</v>
       </c>
       <c r="Q192" t="n">
         <v>18</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44301</v>
+        <v>44307</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K193" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L193" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M193" t="n">
-        <v>6750</v>
+        <v>2750</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>375</v>
+        <v>153</v>
       </c>
       <c r="Q193" t="n">
         <v>18</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44301</v>
+        <v>44161</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K194" t="n">
-        <v>4500</v>
+        <v>14500</v>
       </c>
       <c r="L194" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M194" t="n">
-        <v>4750</v>
+        <v>14750</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>264</v>
+        <v>819</v>
       </c>
       <c r="Q194" t="n">
         <v>18</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44301</v>
+        <v>44161</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K195" t="n">
-        <v>2500</v>
+        <v>12500</v>
       </c>
       <c r="L195" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="M195" t="n">
-        <v>2750</v>
+        <v>12750</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>153</v>
+        <v>708</v>
       </c>
       <c r="Q195" t="n">
         <v>18</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44272</v>
+        <v>44161</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K196" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="L196" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M196" t="n">
-        <v>9500</v>
+        <v>10750</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="Q196" t="n">
         <v>18</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44272</v>
+        <v>44265</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K197" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L197" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M197" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>417</v>
+        <v>583</v>
       </c>
       <c r="Q197" t="n">
         <v>18</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44272</v>
+        <v>44265</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K198" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L198" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M198" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>306</v>
+        <v>472</v>
       </c>
       <c r="Q198" t="n">
         <v>18</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44272</v>
+        <v>44265</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K199" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L199" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M199" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q199" t="n">
         <v>18</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44370</v>
+        <v>44433</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="K200" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L200" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M200" t="n">
-        <v>12736</v>
+        <v>14750</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="Q200" t="n">
         <v>18</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44370</v>
+        <v>44433</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K201" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L201" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M201" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="Q201" t="n">
         <v>18</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44370</v>
+        <v>44433</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14904,13 +14904,13 @@
         <v>400</v>
       </c>
       <c r="K202" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L202" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M202" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="Q202" t="n">
         <v>18</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44370</v>
+        <v>44433</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K203" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L203" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M203" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q203" t="n">
         <v>18</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44230</v>
+        <v>44301</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15048,13 +15048,13 @@
         <v>400</v>
       </c>
       <c r="K204" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="L204" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M204" t="n">
-        <v>11750</v>
+        <v>8750</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>653</v>
+        <v>486</v>
       </c>
       <c r="Q204" t="n">
         <v>18</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44230</v>
+        <v>44301</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15120,13 +15120,13 @@
         <v>400</v>
       </c>
       <c r="K205" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L205" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M205" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q205" t="n">
         <v>18</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44230</v>
+        <v>44301</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K206" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L206" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M206" t="n">
-        <v>7750</v>
+        <v>4750</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>431</v>
+        <v>264</v>
       </c>
       <c r="Q206" t="n">
         <v>18</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44398</v>
+        <v>44301</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J207" t="n">
         <v>300</v>
       </c>
       <c r="K207" t="n">
-        <v>12500</v>
+        <v>2500</v>
       </c>
       <c r="L207" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="M207" t="n">
-        <v>12750</v>
+        <v>2750</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>708</v>
+        <v>153</v>
       </c>
       <c r="Q207" t="n">
         <v>18</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44398</v>
+        <v>44272</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K208" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="L208" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M208" t="n">
-        <v>10750</v>
+        <v>9500</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="Q208" t="n">
         <v>18</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44398</v>
+        <v>44272</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J209" t="n">
         <v>400</v>
       </c>
       <c r="K209" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L209" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M209" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="Q209" t="n">
         <v>18</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44398</v>
+        <v>44272</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K210" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L210" t="n">
         <v>6000</v>
       </c>
       <c r="M210" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q210" t="n">
         <v>18</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44286</v>
+        <v>44272</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15545,20 +15545,20 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="K211" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="L211" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M211" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>528</v>
+        <v>194</v>
       </c>
       <c r="Q211" t="n">
         <v>18</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44286</v>
+        <v>44370</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>1500</v>
+        <v>530</v>
       </c>
       <c r="K212" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="L212" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M212" t="n">
-        <v>7500</v>
+        <v>12736</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>417</v>
+        <v>708</v>
       </c>
       <c r="Q212" t="n">
         <v>18</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44286</v>
+        <v>44370</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K213" t="n">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="L213" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M213" t="n">
-        <v>5500</v>
+        <v>10750</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>306</v>
+        <v>597</v>
       </c>
       <c r="Q213" t="n">
         <v>18</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44286</v>
+        <v>44370</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J214" t="n">
         <v>400</v>
       </c>
       <c r="K214" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="L214" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M214" t="n">
-        <v>3500</v>
+        <v>8750</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>194</v>
+        <v>486</v>
       </c>
       <c r="Q214" t="n">
         <v>18</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44217</v>
+        <v>44370</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K215" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L215" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M215" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q215" t="n">
         <v>18</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44217</v>
+        <v>44230</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K216" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L216" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M216" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q216" t="n">
         <v>18</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44217</v>
+        <v>44230</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K217" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L217" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M217" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q217" t="n">
         <v>18</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44244</v>
+        <v>44230</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K218" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L218" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M218" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q218" t="n">
         <v>18</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44244</v>
+        <v>44398</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K219" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="L219" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M219" t="n">
-        <v>7750</v>
+        <v>12750</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>431</v>
+        <v>708</v>
       </c>
       <c r="Q219" t="n">
         <v>18</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44244</v>
+        <v>44398</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K220" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L220" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M220" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q220" t="n">
         <v>18</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J221" t="n">
         <v>400</v>
       </c>
       <c r="K221" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L221" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M221" t="n">
-        <v>11500</v>
+        <v>8750</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>639</v>
+        <v>486</v>
       </c>
       <c r="Q221" t="n">
         <v>18</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16337,20 +16337,20 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K222" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L222" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M222" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>528</v>
+        <v>319</v>
       </c>
       <c r="Q222" t="n">
         <v>18</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K223" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L223" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M223" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>417</v>
+        <v>528</v>
       </c>
       <c r="Q223" t="n">
         <v>18</v>
@@ -16461,58 +16461,922 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4</v>
+      </c>
+      <c r="F224" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J224" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K224" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L224" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M224" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>18</v>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4</v>
+      </c>
+      <c r="F225" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>800</v>
+      </c>
+      <c r="K225" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L225" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M225" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>306</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>18</v>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4</v>
+      </c>
+      <c r="F226" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J226" t="n">
+        <v>400</v>
+      </c>
+      <c r="K226" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L226" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M226" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>18</v>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>44217</v>
+      </c>
+      <c r="E227" t="n">
+        <v>4</v>
+      </c>
+      <c r="F227" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J227" t="n">
+        <v>240</v>
+      </c>
+      <c r="K227" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L227" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M227" t="n">
+        <v>9750</v>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>18</v>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>44217</v>
+      </c>
+      <c r="E228" t="n">
+        <v>4</v>
+      </c>
+      <c r="F228" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>240</v>
+      </c>
+      <c r="K228" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L228" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M228" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>18</v>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>2</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>44217</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4</v>
+      </c>
+      <c r="F229" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J229" t="n">
+        <v>200</v>
+      </c>
+      <c r="K229" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L229" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M229" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>18</v>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>2</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4</v>
+      </c>
+      <c r="F230" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J230" t="n">
+        <v>240</v>
+      </c>
+      <c r="K230" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L230" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M230" t="n">
+        <v>9750</v>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P230" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>18</v>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>2</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E231" t="n">
+        <v>4</v>
+      </c>
+      <c r="F231" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J231" t="n">
+        <v>340</v>
+      </c>
+      <c r="K231" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L231" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M231" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>18</v>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4</v>
+      </c>
+      <c r="F232" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J232" t="n">
+        <v>200</v>
+      </c>
+      <c r="K232" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L232" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M232" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P232" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>18</v>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>2</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="n">
         <v>44343</v>
       </c>
-      <c r="E224" t="n">
-        <v>4</v>
-      </c>
-      <c r="F224" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Cultivar IV Región</t>
-        </is>
-      </c>
-      <c r="I224" t="inlineStr">
+      <c r="E233" t="n">
+        <v>4</v>
+      </c>
+      <c r="F233" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>400</v>
+      </c>
+      <c r="K233" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L233" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M233" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>18</v>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>2</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E234" t="n">
+        <v>4</v>
+      </c>
+      <c r="F234" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>800</v>
+      </c>
+      <c r="K234" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L234" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M234" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>18</v>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E235" t="n">
+        <v>4</v>
+      </c>
+      <c r="F235" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>700</v>
+      </c>
+      <c r="K235" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L235" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M235" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>18</v>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E236" t="n">
+        <v>4</v>
+      </c>
+      <c r="F236" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J224" t="n">
+      <c r="J236" t="n">
         <v>360</v>
       </c>
-      <c r="K224" t="n">
+      <c r="K236" t="n">
         <v>5000</v>
       </c>
-      <c r="L224" t="n">
+      <c r="L236" t="n">
         <v>6000</v>
       </c>
-      <c r="M224" t="n">
+      <c r="M236" t="n">
         <v>5500</v>
       </c>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O224" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P224" t="n">
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
         <v>306</v>
       </c>
-      <c r="Q224" t="n">
-        <v>18</v>
-      </c>
-      <c r="R224" t="inlineStr">
+      <c r="Q236" t="n">
+        <v>18</v>
+      </c>
+      <c r="R236" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R236"/>
+  <dimension ref="A1:R240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44266</v>
+        <v>44307</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L6" t="n">
         <v>10000</v>
       </c>
-      <c r="L6" t="n">
-        <v>11000</v>
-      </c>
       <c r="M6" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44266</v>
+        <v>44307</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>472</v>
+        <v>375</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44266</v>
+        <v>44307</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K8" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L8" t="n">
         <v>5000</v>
       </c>
       <c r="M8" t="n">
-        <v>4500</v>
+        <v>4750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44210</v>
+        <v>44307</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>11500</v>
+        <v>2500</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="M9" t="n">
-        <v>11750</v>
+        <v>2750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>653</v>
+        <v>153</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44210</v>
+        <v>44377</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K10" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44210</v>
+        <v>44377</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="K11" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L11" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44406</v>
+        <v>44377</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L12" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>13250</v>
+        <v>8750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>736</v>
+        <v>486</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44406</v>
+        <v>44377</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L13" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="M13" t="n">
-        <v>11250</v>
+        <v>5750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>625</v>
+        <v>319</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44406</v>
+        <v>44350</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="M14" t="n">
-        <v>9250</v>
+        <v>12250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>514</v>
+        <v>681</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44406</v>
+        <v>44350</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="M15" t="n">
-        <v>6250</v>
+        <v>10250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>347</v>
+        <v>569</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44259</v>
+        <v>44350</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M16" t="n">
-        <v>9750</v>
+        <v>8250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>542</v>
+        <v>458</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44259</v>
+        <v>44350</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K17" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L17" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M17" t="n">
-        <v>7750</v>
+        <v>5500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>431</v>
+        <v>306</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44259</v>
+        <v>44356</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K18" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L18" t="n">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="M18" t="n">
-        <v>5750</v>
+        <v>12250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>319</v>
+        <v>681</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44328</v>
+        <v>44356</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K19" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L19" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M19" t="n">
-        <v>9750</v>
+        <v>10250</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44328</v>
+        <v>44356</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M20" t="n">
-        <v>7750</v>
+        <v>8250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="Q20" t="n">
         <v>18</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44328</v>
+        <v>44356</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44328</v>
+        <v>44349</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K22" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="L22" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M22" t="n">
-        <v>3750</v>
+        <v>11500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>208</v>
+        <v>639</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44392</v>
+        <v>44349</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K23" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M23" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>708</v>
+        <v>528</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44392</v>
+        <v>44349</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K24" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L24" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M24" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>597</v>
+        <v>417</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44392</v>
+        <v>44349</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K25" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L25" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M25" t="n">
-        <v>8750</v>
+        <v>5500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44392</v>
+        <v>44280</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K26" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L26" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44329</v>
+        <v>44280</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
         <v>400</v>
       </c>
       <c r="K27" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="L27" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>10750</v>
+        <v>6750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>597</v>
+        <v>375</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44329</v>
+        <v>44280</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K28" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L28" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M28" t="n">
-        <v>8750</v>
+        <v>4750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>486</v>
+        <v>264</v>
       </c>
       <c r="Q28" t="n">
         <v>18</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44329</v>
+        <v>44280</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K29" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M29" t="n">
-        <v>6750</v>
+        <v>2750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>375</v>
+        <v>153</v>
       </c>
       <c r="Q29" t="n">
         <v>18</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44329</v>
+        <v>44364</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K30" t="n">
-        <v>4500</v>
+        <v>11500</v>
       </c>
       <c r="L30" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M30" t="n">
-        <v>4750</v>
+        <v>11750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>264</v>
+        <v>653</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44252</v>
+        <v>44364</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2585,11 +2585,11 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K31" t="n">
         <v>9500</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44252</v>
+        <v>44364</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2657,11 +2657,11 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K32" t="n">
         <v>7500</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44252</v>
+        <v>44364</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2729,11 +2729,11 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K33" t="n">
         <v>5500</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44322</v>
+        <v>44336</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2808,13 +2808,13 @@
         <v>300</v>
       </c>
       <c r="K34" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L34" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M34" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>486</v>
+        <v>653</v>
       </c>
       <c r="Q34" t="n">
         <v>18</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44322</v>
+        <v>44336</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K35" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L35" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M35" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q35" t="n">
         <v>18</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44322</v>
+        <v>44336</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K36" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L36" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M36" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q36" t="n">
         <v>18</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44322</v>
+        <v>44336</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3024,13 +3024,13 @@
         <v>240</v>
       </c>
       <c r="K37" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L37" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M37" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q37" t="n">
         <v>18</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44293</v>
+        <v>44286</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K38" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L38" t="n">
         <v>10000</v>
       </c>
       <c r="M38" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Q38" t="n">
         <v>18</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44293</v>
+        <v>44286</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K39" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L39" t="n">
         <v>8000</v>
       </c>
       <c r="M39" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="Q39" t="n">
         <v>18</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44293</v>
+        <v>44286</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K40" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L40" t="n">
         <v>6000</v>
       </c>
       <c r="M40" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q40" t="n">
         <v>18</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44293</v>
+        <v>44286</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K41" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L41" t="n">
         <v>4000</v>
       </c>
       <c r="M41" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="Q41" t="n">
         <v>18</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44335</v>
+        <v>44266</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K42" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L42" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M42" t="n">
-        <v>11750</v>
+        <v>10500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>653</v>
+        <v>583</v>
       </c>
       <c r="Q42" t="n">
         <v>18</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44335</v>
+        <v>44266</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K43" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L43" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M43" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>542</v>
+        <v>472</v>
       </c>
       <c r="Q43" t="n">
         <v>18</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44335</v>
+        <v>44266</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K44" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L44" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M44" t="n">
-        <v>6750</v>
+        <v>4500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="Q44" t="n">
         <v>18</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44335</v>
+        <v>44413</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K45" t="n">
-        <v>3500</v>
+        <v>13500</v>
       </c>
       <c r="L45" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="M45" t="n">
-        <v>3750</v>
+        <v>13750</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>208</v>
+        <v>764</v>
       </c>
       <c r="Q45" t="n">
         <v>18</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44279</v>
+        <v>44413</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K46" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L46" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M46" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q46" t="n">
         <v>18</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44279</v>
+        <v>44413</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K47" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L47" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M47" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q47" t="n">
         <v>18</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44279</v>
+        <v>44413</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K48" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L48" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M48" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q48" t="n">
         <v>18</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44279</v>
+        <v>44216</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K49" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="L49" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M49" t="n">
-        <v>3750</v>
+        <v>9750</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>208</v>
+        <v>542</v>
       </c>
       <c r="Q49" t="n">
         <v>18</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44308</v>
+        <v>44216</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K50" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L50" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M50" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q50" t="n">
         <v>18</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44308</v>
+        <v>44216</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K51" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L51" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M51" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q51" t="n">
         <v>18</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44308</v>
+        <v>44405</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J52" t="n">
         <v>300</v>
       </c>
       <c r="K52" t="n">
-        <v>4500</v>
+        <v>12500</v>
       </c>
       <c r="L52" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M52" t="n">
-        <v>4750</v>
+        <v>12750</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>264</v>
+        <v>708</v>
       </c>
       <c r="Q52" t="n">
         <v>18</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44308</v>
+        <v>44405</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K53" t="n">
-        <v>2500</v>
+        <v>10500</v>
       </c>
       <c r="L53" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="M53" t="n">
-        <v>2750</v>
+        <v>10750</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>153</v>
+        <v>597</v>
       </c>
       <c r="Q53" t="n">
         <v>18</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44356</v>
+        <v>44405</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K54" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L54" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="M54" t="n">
-        <v>12250</v>
+        <v>8750</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>681</v>
+        <v>486</v>
       </c>
       <c r="Q54" t="n">
         <v>18</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44356</v>
+        <v>44405</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K55" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L55" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="M55" t="n">
-        <v>10250</v>
+        <v>5750</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>569</v>
+        <v>319</v>
       </c>
       <c r="Q55" t="n">
         <v>18</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44356</v>
+        <v>44308</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K56" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L56" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M56" t="n">
-        <v>8250</v>
+        <v>9750</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="Q56" t="n">
         <v>18</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44356</v>
+        <v>44308</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L57" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M57" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q57" t="n">
         <v>18</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44434</v>
+        <v>44308</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K58" t="n">
-        <v>14500</v>
+        <v>4500</v>
       </c>
       <c r="L58" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M58" t="n">
-        <v>14750</v>
+        <v>4750</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>819</v>
+        <v>264</v>
       </c>
       <c r="Q58" t="n">
         <v>18</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44434</v>
+        <v>44308</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K59" t="n">
-        <v>12500</v>
+        <v>2500</v>
       </c>
       <c r="L59" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="M59" t="n">
-        <v>12750</v>
+        <v>2750</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>708</v>
+        <v>153</v>
       </c>
       <c r="Q59" t="n">
         <v>18</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44434</v>
+        <v>44363</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K60" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L60" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M60" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q60" t="n">
         <v>18</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44434</v>
+        <v>44363</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K61" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L61" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M61" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q61" t="n">
         <v>18</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44280</v>
+        <v>44363</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K62" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L62" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M62" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q62" t="n">
         <v>18</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44280</v>
+        <v>44363</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K63" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L63" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M63" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q63" t="n">
         <v>18</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44280</v>
+        <v>44231</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K64" t="n">
-        <v>4500</v>
+        <v>11500</v>
       </c>
       <c r="L64" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M64" t="n">
-        <v>4750</v>
+        <v>11750</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>264</v>
+        <v>653</v>
       </c>
       <c r="Q64" t="n">
         <v>18</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44280</v>
+        <v>44231</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K65" t="n">
-        <v>2500</v>
+        <v>9500</v>
       </c>
       <c r="L65" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="M65" t="n">
-        <v>2750</v>
+        <v>9750</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>153</v>
+        <v>542</v>
       </c>
       <c r="Q65" t="n">
         <v>18</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44384</v>
+        <v>44231</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K66" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="L66" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M66" t="n">
-        <v>12750</v>
+        <v>7750</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>708</v>
+        <v>431</v>
       </c>
       <c r="Q66" t="n">
         <v>18</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44384</v>
+        <v>44230</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J67" t="n">
         <v>400</v>
       </c>
       <c r="K67" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L67" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M67" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q67" t="n">
         <v>18</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44384</v>
+        <v>44230</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
         <v>400</v>
       </c>
       <c r="K68" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L68" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M68" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q68" t="n">
         <v>18</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44384</v>
+        <v>44230</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K69" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L69" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M69" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q69" t="n">
         <v>18</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44363</v>
+        <v>44258</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K70" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L70" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M70" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q70" t="n">
         <v>18</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44363</v>
+        <v>44258</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K71" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L71" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M71" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q71" t="n">
         <v>18</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44363</v>
+        <v>44258</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K72" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L72" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M72" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q72" t="n">
         <v>18</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44363</v>
+        <v>44245</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K73" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L73" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M73" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q73" t="n">
         <v>18</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K74" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L74" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M74" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q74" t="n">
         <v>18</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K75" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L75" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M75" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q75" t="n">
         <v>18</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44216</v>
+        <v>44328</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K76" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L76" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M76" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q76" t="n">
         <v>18</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44349</v>
+        <v>44328</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K77" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L77" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M77" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>639</v>
+        <v>431</v>
       </c>
       <c r="Q77" t="n">
         <v>18</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44349</v>
+        <v>44328</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K78" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L78" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M78" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>528</v>
+        <v>319</v>
       </c>
       <c r="Q78" t="n">
         <v>18</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44349</v>
+        <v>44328</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K79" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L79" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M79" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>417</v>
+        <v>208</v>
       </c>
       <c r="Q79" t="n">
         <v>18</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44349</v>
+        <v>44343</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J80" t="n">
         <v>400</v>
       </c>
       <c r="K80" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L80" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M80" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>306</v>
+        <v>639</v>
       </c>
       <c r="Q80" t="n">
         <v>18</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44385</v>
+        <v>44343</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>248</v>
+        <v>800</v>
       </c>
       <c r="K81" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L81" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M81" t="n">
-        <v>12742</v>
+        <v>9500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>708</v>
+        <v>528</v>
       </c>
       <c r="Q81" t="n">
         <v>18</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44385</v>
+        <v>44343</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K82" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L82" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M82" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>597</v>
+        <v>417</v>
       </c>
       <c r="Q82" t="n">
         <v>18</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44385</v>
+        <v>44343</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K83" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L83" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M83" t="n">
-        <v>8750</v>
+        <v>5500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="Q83" t="n">
         <v>18</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44385</v>
+        <v>44293</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K84" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L84" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M84" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q84" t="n">
         <v>18</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44258</v>
+        <v>44293</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K85" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L85" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M85" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q85" t="n">
         <v>18</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44258</v>
+        <v>44293</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K86" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L86" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M86" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q86" t="n">
         <v>18</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44258</v>
+        <v>44293</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K87" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L87" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M87" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q87" t="n">
         <v>18</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44427</v>
+        <v>44406</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K88" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L88" t="n">
         <v>13500</v>
       </c>
-      <c r="L88" t="n">
-        <v>14000</v>
-      </c>
       <c r="M88" t="n">
-        <v>13750</v>
+        <v>13250</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="Q88" t="n">
         <v>18</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44427</v>
+        <v>44406</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K89" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L89" t="n">
         <v>11500</v>
       </c>
-      <c r="L89" t="n">
-        <v>12000</v>
-      </c>
       <c r="M89" t="n">
-        <v>11750</v>
+        <v>11250</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="Q89" t="n">
         <v>18</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44427</v>
+        <v>44406</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="K90" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L90" t="n">
         <v>9500</v>
       </c>
-      <c r="L90" t="n">
-        <v>10000</v>
-      </c>
       <c r="M90" t="n">
-        <v>9708</v>
+        <v>9250</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="Q90" t="n">
         <v>18</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44427</v>
+        <v>44406</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K91" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L91" t="n">
         <v>6500</v>
       </c>
-      <c r="L91" t="n">
-        <v>7000</v>
-      </c>
       <c r="M91" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q91" t="n">
         <v>18</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="K92" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L92" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M92" t="n">
-        <v>13750</v>
+        <v>12742</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="Q92" t="n">
         <v>18</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K93" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L93" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M93" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q93" t="n">
         <v>18</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K94" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L94" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M94" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q94" t="n">
         <v>18</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K95" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L95" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M95" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q95" t="n">
         <v>18</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44237</v>
+        <v>44265</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K96" t="n">
         <v>10000</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44237</v>
+        <v>44265</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K97" t="n">
         <v>8000</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44237</v>
+        <v>44265</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K98" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L98" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M98" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>361</v>
+        <v>250</v>
       </c>
       <c r="Q98" t="n">
         <v>18</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44273</v>
+        <v>44252</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K99" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L99" t="n">
         <v>10000</v>
       </c>
       <c r="M99" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="Q99" t="n">
         <v>18</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44273</v>
+        <v>44252</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7560,13 +7560,13 @@
         <v>300</v>
       </c>
       <c r="K100" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L100" t="n">
         <v>8000</v>
       </c>
       <c r="M100" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="Q100" t="n">
         <v>18</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44273</v>
+        <v>44252</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7632,13 +7632,13 @@
         <v>240</v>
       </c>
       <c r="K101" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L101" t="n">
         <v>6000</v>
       </c>
       <c r="M101" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q101" t="n">
         <v>18</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44273</v>
+        <v>44371</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K102" t="n">
-        <v>3000</v>
+        <v>12500</v>
       </c>
       <c r="L102" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="M102" t="n">
-        <v>3500</v>
+        <v>12750</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>194</v>
+        <v>708</v>
       </c>
       <c r="Q102" t="n">
         <v>18</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44377</v>
+        <v>44371</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K103" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="L103" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M103" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>708</v>
+        <v>597</v>
       </c>
       <c r="Q103" t="n">
         <v>18</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44377</v>
+        <v>44371</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K104" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L104" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M104" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>597</v>
+        <v>486</v>
       </c>
       <c r="Q104" t="n">
         <v>18</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44377</v>
+        <v>44371</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K105" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L105" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M105" t="n">
-        <v>8750</v>
+        <v>5750</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="Q105" t="n">
         <v>18</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44377</v>
+        <v>44419</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K106" t="n">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="L106" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M106" t="n">
-        <v>5750</v>
+        <v>13750</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>319</v>
+        <v>764</v>
       </c>
       <c r="Q106" t="n">
         <v>18</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44426</v>
+        <v>44419</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K107" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="L107" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M107" t="n">
-        <v>13750</v>
+        <v>11750</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>764</v>
+        <v>653</v>
       </c>
       <c r="Q107" t="n">
         <v>18</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44426</v>
+        <v>44419</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
         <v>400</v>
       </c>
       <c r="K108" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L108" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M108" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q108" t="n">
         <v>18</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44426</v>
+        <v>44419</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K109" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L109" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M109" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q109" t="n">
         <v>18</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44426</v>
+        <v>44370</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="K110" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="L110" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M110" t="n">
-        <v>6750</v>
+        <v>12736</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>375</v>
+        <v>708</v>
       </c>
       <c r="Q110" t="n">
         <v>18</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44321</v>
+        <v>44370</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K111" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L111" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M111" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="Q111" t="n">
         <v>18</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44321</v>
+        <v>44370</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J112" t="n">
         <v>400</v>
       </c>
       <c r="K112" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L112" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M112" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>375</v>
+        <v>486</v>
       </c>
       <c r="Q112" t="n">
         <v>18</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44321</v>
+        <v>44370</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K113" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L113" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M113" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q113" t="n">
         <v>18</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44321</v>
+        <v>44259</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K114" t="n">
-        <v>2500</v>
+        <v>9500</v>
       </c>
       <c r="L114" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="M114" t="n">
-        <v>2750</v>
+        <v>9750</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>153</v>
+        <v>542</v>
       </c>
       <c r="Q114" t="n">
         <v>18</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44412</v>
+        <v>44259</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K115" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L115" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="M115" t="n">
-        <v>13250</v>
+        <v>7750</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>736</v>
+        <v>431</v>
       </c>
       <c r="Q115" t="n">
         <v>18</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44412</v>
+        <v>44259</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K116" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L116" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="M116" t="n">
-        <v>11250</v>
+        <v>5750</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>625</v>
+        <v>319</v>
       </c>
       <c r="Q116" t="n">
         <v>18</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44412</v>
+        <v>44300</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K117" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L117" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="M117" t="n">
-        <v>9250</v>
+        <v>9750</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="Q117" t="n">
         <v>18</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44412</v>
+        <v>44300</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K118" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L118" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M118" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="Q118" t="n">
         <v>18</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44336</v>
+        <v>44300</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K119" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="L119" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M119" t="n">
-        <v>11750</v>
+        <v>5750</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>653</v>
+        <v>319</v>
       </c>
       <c r="Q119" t="n">
         <v>18</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44336</v>
+        <v>44300</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K120" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="L120" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M120" t="n">
-        <v>9750</v>
+        <v>3750</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>542</v>
+        <v>208</v>
       </c>
       <c r="Q120" t="n">
         <v>18</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44336</v>
+        <v>44392</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K121" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="L121" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M121" t="n">
-        <v>6750</v>
+        <v>12750</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>375</v>
+        <v>708</v>
       </c>
       <c r="Q121" t="n">
         <v>18</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44336</v>
+        <v>44392</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K122" t="n">
-        <v>3500</v>
+        <v>10500</v>
       </c>
       <c r="L122" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M122" t="n">
-        <v>3750</v>
+        <v>10750</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>208</v>
+        <v>597</v>
       </c>
       <c r="Q122" t="n">
         <v>18</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44300</v>
+        <v>44392</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K123" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L123" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M123" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q123" t="n">
         <v>18</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44300</v>
+        <v>44392</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K124" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L124" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M124" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q124" t="n">
         <v>18</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44300</v>
+        <v>44224</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K125" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="L125" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M125" t="n">
-        <v>5750</v>
+        <v>11750</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>319</v>
+        <v>653</v>
       </c>
       <c r="Q125" t="n">
         <v>18</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44300</v>
+        <v>44224</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K126" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="L126" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M126" t="n">
-        <v>3750</v>
+        <v>9750</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>208</v>
+        <v>542</v>
       </c>
       <c r="Q126" t="n">
         <v>18</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44371</v>
+        <v>44224</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K127" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="L127" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M127" t="n">
-        <v>12750</v>
+        <v>7750</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>708</v>
+        <v>431</v>
       </c>
       <c r="Q127" t="n">
         <v>18</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44371</v>
+        <v>44217</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K128" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L128" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M128" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q128" t="n">
         <v>18</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44371</v>
+        <v>44217</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K129" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L129" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M129" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q129" t="n">
         <v>18</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44371</v>
+        <v>44217</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9717,7 +9717,7 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K130" t="n">
         <v>5500</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44238</v>
+        <v>44384</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K131" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L131" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M131" t="n">
-        <v>10500</v>
+        <v>12750</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>583</v>
+        <v>708</v>
       </c>
       <c r="Q131" t="n">
         <v>18</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44238</v>
+        <v>44384</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K132" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L132" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M132" t="n">
-        <v>8500</v>
+        <v>10750</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>472</v>
+        <v>597</v>
       </c>
       <c r="Q132" t="n">
         <v>18</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44238</v>
+        <v>44384</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K133" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L133" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M133" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>361</v>
+        <v>486</v>
       </c>
       <c r="Q133" t="n">
         <v>18</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44314</v>
+        <v>44384</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K134" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L134" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M134" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>528</v>
+        <v>319</v>
       </c>
       <c r="Q134" t="n">
         <v>18</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44314</v>
+        <v>44322</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K135" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L135" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M135" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="Q135" t="n">
         <v>18</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44314</v>
+        <v>44322</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K136" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L136" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M136" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="Q136" t="n">
         <v>18</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44314</v>
+        <v>44322</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K137" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L137" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M137" t="n">
-        <v>3500</v>
+        <v>4750</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="Q137" t="n">
         <v>18</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44364</v>
+        <v>44322</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K138" t="n">
-        <v>11500</v>
+        <v>2500</v>
       </c>
       <c r="L138" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="M138" t="n">
-        <v>11750</v>
+        <v>2750</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>653</v>
+        <v>153</v>
       </c>
       <c r="Q138" t="n">
         <v>18</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44364</v>
+        <v>44272</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K139" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L139" t="n">
         <v>10000</v>
       </c>
       <c r="M139" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Q139" t="n">
         <v>18</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44364</v>
+        <v>44272</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K140" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L140" t="n">
         <v>8000</v>
       </c>
       <c r="M140" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="Q140" t="n">
         <v>18</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44364</v>
+        <v>44272</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J141" t="n">
         <v>300</v>
       </c>
       <c r="K141" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L141" t="n">
         <v>6000</v>
       </c>
       <c r="M141" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q141" t="n">
         <v>18</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44435</v>
+        <v>44272</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="K142" t="n">
-        <v>14500</v>
+        <v>3000</v>
       </c>
       <c r="L142" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="M142" t="n">
-        <v>14750</v>
+        <v>3500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>819</v>
+        <v>194</v>
       </c>
       <c r="Q142" t="n">
         <v>18</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K143" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L143" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M143" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="Q143" t="n">
         <v>18</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="K144" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L144" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M144" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="Q144" t="n">
         <v>18</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K145" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L145" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M145" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q145" t="n">
         <v>18</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44405</v>
+        <v>44433</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J146" t="n">
         <v>300</v>
       </c>
       <c r="K146" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="L146" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M146" t="n">
-        <v>12750</v>
+        <v>7750</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>708</v>
+        <v>431</v>
       </c>
       <c r="Q146" t="n">
         <v>18</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44405</v>
+        <v>44321</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K147" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L147" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M147" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>597</v>
+        <v>486</v>
       </c>
       <c r="Q147" t="n">
         <v>18</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44405</v>
+        <v>44321</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J148" t="n">
         <v>400</v>
       </c>
       <c r="K148" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L148" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M148" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>486</v>
+        <v>375</v>
       </c>
       <c r="Q148" t="n">
         <v>18</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44405</v>
+        <v>44321</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K149" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L149" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M149" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q149" t="n">
         <v>18</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44224</v>
+        <v>44321</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K150" t="n">
-        <v>11500</v>
+        <v>2500</v>
       </c>
       <c r="L150" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="M150" t="n">
-        <v>11750</v>
+        <v>2750</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>653</v>
+        <v>153</v>
       </c>
       <c r="Q150" t="n">
         <v>18</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44224</v>
+        <v>44335</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K151" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L151" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M151" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q151" t="n">
         <v>18</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44224</v>
+        <v>44335</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K152" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L152" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M152" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q152" t="n">
         <v>18</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K153" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="L153" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M153" t="n">
-        <v>11750</v>
+        <v>6750</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>653</v>
+        <v>375</v>
       </c>
       <c r="Q153" t="n">
         <v>18</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K154" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="L154" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M154" t="n">
-        <v>9750</v>
+        <v>3750</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>542</v>
+        <v>208</v>
       </c>
       <c r="Q154" t="n">
         <v>18</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44231</v>
+        <v>44426</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K155" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="L155" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M155" t="n">
-        <v>7750</v>
+        <v>13750</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>431</v>
+        <v>764</v>
       </c>
       <c r="Q155" t="n">
         <v>18</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44391</v>
+        <v>44426</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K156" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L156" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="M156" t="n">
-        <v>13250</v>
+        <v>11750</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>736</v>
+        <v>653</v>
       </c>
       <c r="Q156" t="n">
         <v>18</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44391</v>
+        <v>44426</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K157" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L157" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="M157" t="n">
-        <v>11250</v>
+        <v>9750</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>625</v>
+        <v>542</v>
       </c>
       <c r="Q157" t="n">
         <v>18</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44391</v>
+        <v>44426</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K158" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L158" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M158" t="n">
-        <v>9250</v>
+        <v>6750</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>514</v>
+        <v>375</v>
       </c>
       <c r="Q158" t="n">
         <v>18</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44391</v>
+        <v>44434</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K159" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="L159" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="M159" t="n">
-        <v>6250</v>
+        <v>14750</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>347</v>
+        <v>819</v>
       </c>
       <c r="Q159" t="n">
         <v>18</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44350</v>
+        <v>44434</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K160" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L160" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="M160" t="n">
-        <v>12250</v>
+        <v>12750</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="Q160" t="n">
         <v>18</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44350</v>
+        <v>44434</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K161" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="L161" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="M161" t="n">
-        <v>10250</v>
+        <v>10750</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="Q161" t="n">
         <v>18</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44350</v>
+        <v>44434</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K162" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L162" t="n">
         <v>8000</v>
       </c>
-      <c r="L162" t="n">
-        <v>8500</v>
-      </c>
       <c r="M162" t="n">
-        <v>8250</v>
+        <v>7750</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="Q162" t="n">
         <v>18</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44350</v>
+        <v>44398</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K163" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="L163" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M163" t="n">
-        <v>5500</v>
+        <v>12750</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>306</v>
+        <v>708</v>
       </c>
       <c r="Q163" t="n">
         <v>18</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44315</v>
+        <v>44398</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K164" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="L164" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M164" t="n">
-        <v>9500</v>
+        <v>10750</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="Q164" t="n">
         <v>18</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44315</v>
+        <v>44398</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K165" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L165" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M165" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="Q165" t="n">
         <v>18</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44315</v>
+        <v>44398</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K166" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L166" t="n">
         <v>6000</v>
       </c>
       <c r="M166" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q166" t="n">
         <v>18</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44315</v>
+        <v>44420</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K167" t="n">
-        <v>3000</v>
+        <v>13500</v>
       </c>
       <c r="L167" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="M167" t="n">
-        <v>3500</v>
+        <v>13750</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>194</v>
+        <v>764</v>
       </c>
       <c r="Q167" t="n">
         <v>18</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44399</v>
+        <v>44420</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K168" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L168" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M168" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>708</v>
+        <v>653</v>
       </c>
       <c r="Q168" t="n">
         <v>18</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44399</v>
+        <v>44420</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K169" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L169" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M169" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q169" t="n">
         <v>18</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44399</v>
+        <v>44420</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K170" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L170" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M170" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>486</v>
+        <v>375</v>
       </c>
       <c r="Q170" t="n">
         <v>18</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44399</v>
+        <v>44210</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K171" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="L171" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M171" t="n">
-        <v>5750</v>
+        <v>11750</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>319</v>
+        <v>653</v>
       </c>
       <c r="Q171" t="n">
         <v>18</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44251</v>
+        <v>44210</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12737,7 +12737,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J172" t="n">
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44251</v>
+        <v>44210</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12809,11 +12809,11 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K173" t="n">
         <v>7500</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44251</v>
+        <v>44427</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K174" t="n">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="L174" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M174" t="n">
-        <v>5750</v>
+        <v>13750</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>319</v>
+        <v>764</v>
       </c>
       <c r="Q174" t="n">
         <v>18</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44294</v>
+        <v>44427</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K175" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L175" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M175" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q175" t="n">
         <v>18</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44294</v>
+        <v>44427</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K176" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L176" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M176" t="n">
-        <v>7750</v>
+        <v>9708</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>431</v>
+        <v>539</v>
       </c>
       <c r="Q176" t="n">
         <v>18</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44294</v>
+        <v>44427</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J177" t="n">
         <v>300</v>
       </c>
       <c r="K177" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L177" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M177" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q177" t="n">
         <v>18</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K178" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="L178" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M178" t="n">
-        <v>3750</v>
+        <v>8750</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>208</v>
+        <v>486</v>
       </c>
       <c r="Q178" t="n">
         <v>18</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44419</v>
+        <v>44301</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K179" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="L179" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M179" t="n">
-        <v>13750</v>
+        <v>6750</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>764</v>
+        <v>375</v>
       </c>
       <c r="Q179" t="n">
         <v>18</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44419</v>
+        <v>44301</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K180" t="n">
-        <v>11500</v>
+        <v>4500</v>
       </c>
       <c r="L180" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M180" t="n">
-        <v>11750</v>
+        <v>4750</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>653</v>
+        <v>264</v>
       </c>
       <c r="Q180" t="n">
         <v>18</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44419</v>
+        <v>44301</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K181" t="n">
-        <v>9500</v>
+        <v>2500</v>
       </c>
       <c r="L181" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M181" t="n">
-        <v>9750</v>
+        <v>2750</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>542</v>
+        <v>153</v>
       </c>
       <c r="Q181" t="n">
         <v>18</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44419</v>
+        <v>44244</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K182" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L182" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M182" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q182" t="n">
         <v>18</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44420</v>
+        <v>44244</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K183" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="L183" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M183" t="n">
-        <v>13750</v>
+        <v>7750</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>764</v>
+        <v>431</v>
       </c>
       <c r="Q183" t="n">
         <v>18</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44420</v>
+        <v>44244</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K184" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="L184" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M184" t="n">
-        <v>11750</v>
+        <v>5750</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>653</v>
+        <v>319</v>
       </c>
       <c r="Q184" t="n">
         <v>18</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44420</v>
+        <v>44441</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K185" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L185" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M185" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q185" t="n">
         <v>18</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44420</v>
+        <v>44441</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K186" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L186" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M186" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>375</v>
+        <v>653</v>
       </c>
       <c r="Q186" t="n">
         <v>18</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44245</v>
+        <v>44441</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13817,11 +13817,11 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K187" t="n">
         <v>9500</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44245</v>
+        <v>44441</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K188" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L188" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M188" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q188" t="n">
         <v>18</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44245</v>
+        <v>44237</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J189" t="n">
         <v>240</v>
       </c>
       <c r="K189" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L189" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M189" t="n">
-        <v>5750</v>
+        <v>10500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>319</v>
+        <v>583</v>
       </c>
       <c r="Q189" t="n">
         <v>18</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44307</v>
+        <v>44237</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K190" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L190" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M190" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>542</v>
+        <v>472</v>
       </c>
       <c r="Q190" t="n">
         <v>18</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44307</v>
+        <v>44237</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K191" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L191" t="n">
         <v>7000</v>
       </c>
       <c r="M191" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="Q191" t="n">
         <v>18</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44307</v>
+        <v>44273</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J192" t="n">
         <v>360</v>
       </c>
       <c r="K192" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L192" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M192" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>264</v>
+        <v>528</v>
       </c>
       <c r="Q192" t="n">
         <v>18</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44307</v>
+        <v>44273</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K193" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L193" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M193" t="n">
-        <v>2750</v>
+        <v>7500</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>153</v>
+        <v>417</v>
       </c>
       <c r="Q193" t="n">
         <v>18</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44161</v>
+        <v>44273</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J194" t="n">
         <v>240</v>
       </c>
       <c r="K194" t="n">
-        <v>14500</v>
+        <v>5000</v>
       </c>
       <c r="L194" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M194" t="n">
-        <v>14750</v>
+        <v>5500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>819</v>
+        <v>306</v>
       </c>
       <c r="Q194" t="n">
         <v>18</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44161</v>
+        <v>44273</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K195" t="n">
-        <v>12500</v>
+        <v>3000</v>
       </c>
       <c r="L195" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M195" t="n">
-        <v>12750</v>
+        <v>3500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>708</v>
+        <v>194</v>
       </c>
       <c r="Q195" t="n">
         <v>18</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44161</v>
+        <v>44294</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K196" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L196" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M196" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q196" t="n">
         <v>18</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44265</v>
+        <v>44294</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K197" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L197" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M197" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>583</v>
+        <v>431</v>
       </c>
       <c r="Q197" t="n">
         <v>18</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44265</v>
+        <v>44294</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K198" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L198" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M198" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>472</v>
+        <v>319</v>
       </c>
       <c r="Q198" t="n">
         <v>18</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44265</v>
+        <v>44294</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K199" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L199" t="n">
         <v>4000</v>
       </c>
-      <c r="L199" t="n">
-        <v>5000</v>
-      </c>
       <c r="M199" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="Q199" t="n">
         <v>18</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44433</v>
+        <v>44315</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K200" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="L200" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M200" t="n">
-        <v>14750</v>
+        <v>9500</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>819</v>
+        <v>528</v>
       </c>
       <c r="Q200" t="n">
         <v>18</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44433</v>
+        <v>44315</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K201" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="L201" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M201" t="n">
-        <v>12750</v>
+        <v>7500</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>708</v>
+        <v>417</v>
       </c>
       <c r="Q201" t="n">
         <v>18</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44433</v>
+        <v>44315</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K202" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="L202" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M202" t="n">
-        <v>10750</v>
+        <v>5500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>597</v>
+        <v>306</v>
       </c>
       <c r="Q202" t="n">
         <v>18</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44433</v>
+        <v>44315</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K203" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L203" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M203" t="n">
-        <v>7750</v>
+        <v>3500</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>431</v>
+        <v>194</v>
       </c>
       <c r="Q203" t="n">
         <v>18</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44301</v>
+        <v>44391</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K204" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L204" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="M204" t="n">
-        <v>8750</v>
+        <v>13250</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>486</v>
+        <v>736</v>
       </c>
       <c r="Q204" t="n">
         <v>18</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44301</v>
+        <v>44391</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K205" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L205" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="M205" t="n">
-        <v>6750</v>
+        <v>11250</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="Q205" t="n">
         <v>18</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44301</v>
+        <v>44391</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15192,13 +15192,13 @@
         <v>360</v>
       </c>
       <c r="K206" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L206" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="M206" t="n">
-        <v>4750</v>
+        <v>9250</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>264</v>
+        <v>514</v>
       </c>
       <c r="Q206" t="n">
         <v>18</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44301</v>
+        <v>44391</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K207" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="L207" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="M207" t="n">
-        <v>2750</v>
+        <v>6250</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>153</v>
+        <v>347</v>
       </c>
       <c r="Q207" t="n">
         <v>18</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K208" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="L208" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M208" t="n">
-        <v>9500</v>
+        <v>10750</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="Q208" t="n">
         <v>18</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K209" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L209" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M209" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="Q209" t="n">
         <v>18</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K210" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L210" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M210" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="Q210" t="n">
         <v>18</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K211" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L211" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M211" t="n">
-        <v>3500</v>
+        <v>4750</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="Q211" t="n">
         <v>18</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44370</v>
+        <v>44161</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="K212" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L212" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M212" t="n">
-        <v>12736</v>
+        <v>14750</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="Q212" t="n">
         <v>18</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44370</v>
+        <v>44161</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K213" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L213" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M213" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="Q213" t="n">
         <v>18</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44370</v>
+        <v>44161</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K214" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L214" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M214" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="Q214" t="n">
         <v>18</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44370</v>
+        <v>44251</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K215" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L215" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M215" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q215" t="n">
         <v>18</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44230</v>
+        <v>44251</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K216" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L216" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M216" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q216" t="n">
         <v>18</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44230</v>
+        <v>44251</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K217" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L217" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M217" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q217" t="n">
         <v>18</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44230</v>
+        <v>44435</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K218" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="L218" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M218" t="n">
-        <v>7750</v>
+        <v>14750</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>431</v>
+        <v>819</v>
       </c>
       <c r="Q218" t="n">
         <v>18</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44398</v>
+        <v>44435</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16121,11 +16121,11 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K219" t="n">
         <v>12500</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44398</v>
+        <v>44435</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16193,11 +16193,11 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="K220" t="n">
         <v>10500</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44398</v>
+        <v>44435</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K221" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L221" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M221" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q221" t="n">
         <v>18</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44398</v>
+        <v>44279</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16337,20 +16337,20 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K222" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L222" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M222" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q222" t="n">
         <v>18</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44286</v>
+        <v>44279</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K223" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L223" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M223" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q223" t="n">
         <v>18</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44286</v>
+        <v>44279</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>1500</v>
+        <v>240</v>
       </c>
       <c r="K224" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L224" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M224" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="Q224" t="n">
         <v>18</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44286</v>
+        <v>44279</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K225" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L225" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M225" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="Q225" t="n">
         <v>18</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44286</v>
+        <v>44412</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K226" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="L226" t="n">
-        <v>4000</v>
+        <v>13500</v>
       </c>
       <c r="M226" t="n">
-        <v>3500</v>
+        <v>13250</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>194</v>
+        <v>736</v>
       </c>
       <c r="Q226" t="n">
         <v>18</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44217</v>
+        <v>44412</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K227" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L227" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="M227" t="n">
-        <v>9750</v>
+        <v>11250</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>542</v>
+        <v>625</v>
       </c>
       <c r="Q227" t="n">
         <v>18</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44217</v>
+        <v>44412</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K228" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L228" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M228" t="n">
-        <v>7750</v>
+        <v>9250</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="Q228" t="n">
         <v>18</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44217</v>
+        <v>44412</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K229" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L229" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M229" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q229" t="n">
         <v>18</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44244</v>
+        <v>44314</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K230" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L230" t="n">
         <v>10000</v>
       </c>
       <c r="M230" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Q230" t="n">
         <v>18</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44244</v>
+        <v>44314</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K231" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L231" t="n">
         <v>8000</v>
       </c>
       <c r="M231" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="Q231" t="n">
         <v>18</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44244</v>
+        <v>44314</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K232" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L232" t="n">
         <v>6000</v>
       </c>
       <c r="M232" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q232" t="n">
         <v>18</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44343</v>
+        <v>44314</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17129,20 +17129,20 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K233" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="L233" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M233" t="n">
-        <v>11500</v>
+        <v>3500</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>639</v>
+        <v>194</v>
       </c>
       <c r="Q233" t="n">
         <v>18</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44343</v>
+        <v>44238</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K234" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L234" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M234" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>528</v>
+        <v>583</v>
       </c>
       <c r="Q234" t="n">
         <v>18</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44343</v>
+        <v>44238</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K235" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L235" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M235" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="Q235" t="n">
         <v>18</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44343</v>
+        <v>44238</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17345,38 +17345,326 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>160</v>
+      </c>
+      <c r="K236" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L236" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M236" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>18</v>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>2</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E237" t="n">
+        <v>4</v>
+      </c>
+      <c r="F237" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>340</v>
+      </c>
+      <c r="K237" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L237" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M237" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
+        <v>708</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>18</v>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E238" t="n">
+        <v>4</v>
+      </c>
+      <c r="F238" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>400</v>
+      </c>
+      <c r="K238" t="n">
+        <v>10500</v>
+      </c>
+      <c r="L238" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M238" t="n">
+        <v>10750</v>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>597</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>18</v>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>2</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E239" t="n">
+        <v>4</v>
+      </c>
+      <c r="F239" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
+        <v>400</v>
+      </c>
+      <c r="K239" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L239" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M239" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P239" t="n">
+        <v>486</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>18</v>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>2</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4</v>
+      </c>
+      <c r="F240" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J236" t="n">
-        <v>360</v>
-      </c>
-      <c r="K236" t="n">
-        <v>5000</v>
-      </c>
-      <c r="L236" t="n">
+      <c r="J240" t="n">
+        <v>200</v>
+      </c>
+      <c r="K240" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L240" t="n">
         <v>6000</v>
       </c>
-      <c r="M236" t="n">
-        <v>5500</v>
-      </c>
-      <c r="N236" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O236" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P236" t="n">
-        <v>306</v>
-      </c>
-      <c r="Q236" t="n">
-        <v>18</v>
-      </c>
-      <c r="R236" t="inlineStr">
+      <c r="M240" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>18</v>
+      </c>
+      <c r="R240" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R240"/>
+  <dimension ref="A1:R244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44259</v>
+        <v>44447</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K114" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L114" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M114" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q114" t="n">
         <v>18</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44259</v>
+        <v>44447</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K115" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L115" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M115" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q115" t="n">
         <v>18</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44259</v>
+        <v>44447</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K116" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L116" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M116" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q116" t="n">
         <v>18</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44300</v>
+        <v>44447</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K117" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L117" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M117" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q117" t="n">
         <v>18</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K118" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L118" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M118" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q118" t="n">
         <v>18</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K119" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L119" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M119" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q119" t="n">
         <v>18</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K120" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L120" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M120" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q120" t="n">
         <v>18</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K121" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L121" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M121" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="Q121" t="n">
         <v>18</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K122" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L122" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M122" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q122" t="n">
         <v>18</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K123" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L123" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M123" t="n">
-        <v>8750</v>
+        <v>5750</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="Q123" t="n">
         <v>18</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K124" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L124" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M124" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q124" t="n">
         <v>18</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K125" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L125" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M125" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="Q125" t="n">
         <v>18</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K126" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L126" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M126" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q126" t="n">
         <v>18</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K127" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L127" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M127" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q127" t="n">
         <v>18</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44217</v>
+        <v>44392</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J128" t="n">
         <v>240</v>
       </c>
       <c r="K128" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L128" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M128" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q128" t="n">
         <v>18</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K129" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L129" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M129" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q129" t="n">
         <v>18</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K130" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L130" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M130" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q130" t="n">
         <v>18</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44384</v>
+        <v>44224</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K131" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="L131" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M131" t="n">
-        <v>12750</v>
+        <v>7750</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>708</v>
+        <v>431</v>
       </c>
       <c r="Q131" t="n">
         <v>18</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44384</v>
+        <v>44217</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K132" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L132" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M132" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q132" t="n">
         <v>18</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44384</v>
+        <v>44217</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K133" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L133" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M133" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q133" t="n">
         <v>18</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44384</v>
+        <v>44217</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10080,13 +10080,13 @@
         <v>300</v>
       </c>
       <c r="K135" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="L135" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M135" t="n">
-        <v>8750</v>
+        <v>12750</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>486</v>
+        <v>708</v>
       </c>
       <c r="Q135" t="n">
         <v>18</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10152,13 +10152,13 @@
         <v>400</v>
       </c>
       <c r="K136" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="L136" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M136" t="n">
-        <v>6750</v>
+        <v>10750</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="Q136" t="n">
         <v>18</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K137" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L137" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M137" t="n">
-        <v>4750</v>
+        <v>8750</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>264</v>
+        <v>486</v>
       </c>
       <c r="Q137" t="n">
         <v>18</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K138" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L138" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M138" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="Q138" t="n">
         <v>18</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10368,13 +10368,13 @@
         <v>300</v>
       </c>
       <c r="K139" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L139" t="n">
         <v>9000</v>
       </c>
-      <c r="L139" t="n">
-        <v>10000</v>
-      </c>
       <c r="M139" t="n">
-        <v>9500</v>
+        <v>8750</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="Q139" t="n">
         <v>18</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10440,13 +10440,13 @@
         <v>400</v>
       </c>
       <c r="K140" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L140" t="n">
         <v>7000</v>
       </c>
-      <c r="L140" t="n">
-        <v>8000</v>
-      </c>
       <c r="M140" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q140" t="n">
         <v>18</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K141" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L141" t="n">
         <v>5000</v>
       </c>
-      <c r="L141" t="n">
-        <v>6000</v>
-      </c>
       <c r="M141" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q141" t="n">
         <v>18</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K142" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L142" t="n">
         <v>3000</v>
       </c>
-      <c r="L142" t="n">
-        <v>4000</v>
-      </c>
       <c r="M142" t="n">
-        <v>3500</v>
+        <v>2750</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="Q142" t="n">
         <v>18</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44433</v>
+        <v>44272</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K143" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="L143" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M143" t="n">
-        <v>14750</v>
+        <v>9500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>819</v>
+        <v>528</v>
       </c>
       <c r="Q143" t="n">
         <v>18</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44433</v>
+        <v>44272</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K144" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="L144" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M144" t="n">
-        <v>12750</v>
+        <v>7500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>708</v>
+        <v>417</v>
       </c>
       <c r="Q144" t="n">
         <v>18</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44433</v>
+        <v>44272</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K145" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="L145" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M145" t="n">
-        <v>10750</v>
+        <v>5500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>597</v>
+        <v>306</v>
       </c>
       <c r="Q145" t="n">
         <v>18</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44433</v>
+        <v>44272</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K146" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L146" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M146" t="n">
-        <v>7750</v>
+        <v>3500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>431</v>
+        <v>194</v>
       </c>
       <c r="Q146" t="n">
         <v>18</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44321</v>
+        <v>44433</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K147" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="L147" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M147" t="n">
-        <v>8750</v>
+        <v>14750</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>486</v>
+        <v>819</v>
       </c>
       <c r="Q147" t="n">
         <v>18</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44321</v>
+        <v>44433</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K148" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="L148" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M148" t="n">
-        <v>6750</v>
+        <v>12750</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>375</v>
+        <v>708</v>
       </c>
       <c r="Q148" t="n">
         <v>18</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44321</v>
+        <v>44433</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K149" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="L149" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M149" t="n">
-        <v>4750</v>
+        <v>10750</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>264</v>
+        <v>597</v>
       </c>
       <c r="Q149" t="n">
         <v>18</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44321</v>
+        <v>44433</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11160,13 +11160,13 @@
         <v>300</v>
       </c>
       <c r="K150" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="L150" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M150" t="n">
-        <v>2750</v>
+        <v>7750</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>153</v>
+        <v>431</v>
       </c>
       <c r="Q150" t="n">
         <v>18</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K151" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="L151" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M151" t="n">
-        <v>11750</v>
+        <v>8750</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>653</v>
+        <v>486</v>
       </c>
       <c r="Q151" t="n">
         <v>18</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K152" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L152" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M152" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q152" t="n">
         <v>18</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K153" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L153" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M153" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="Q153" t="n">
         <v>18</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11448,13 +11448,13 @@
         <v>300</v>
       </c>
       <c r="K154" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L154" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M154" t="n">
-        <v>3750</v>
+        <v>2750</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="Q154" t="n">
         <v>18</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K155" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="L155" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M155" t="n">
-        <v>13750</v>
+        <v>11750</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>764</v>
+        <v>653</v>
       </c>
       <c r="Q155" t="n">
         <v>18</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K156" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L156" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M156" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q156" t="n">
         <v>18</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K157" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L157" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M157" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q157" t="n">
         <v>18</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11736,13 +11736,13 @@
         <v>300</v>
       </c>
       <c r="K158" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L158" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M158" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="Q158" t="n">
         <v>18</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K159" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="L159" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M159" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>819</v>
+        <v>764</v>
       </c>
       <c r="Q159" t="n">
         <v>18</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K160" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L160" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M160" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>708</v>
+        <v>653</v>
       </c>
       <c r="Q160" t="n">
         <v>18</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11952,13 +11952,13 @@
         <v>360</v>
       </c>
       <c r="K161" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L161" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M161" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q161" t="n">
         <v>18</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K162" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L162" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M162" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q162" t="n">
         <v>18</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K163" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L163" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M163" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="Q163" t="n">
         <v>18</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K164" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L164" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M164" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="Q164" t="n">
         <v>18</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K165" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L165" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M165" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="Q165" t="n">
         <v>18</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K166" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L166" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M166" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q166" t="n">
         <v>18</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K167" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L167" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M167" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="Q167" t="n">
         <v>18</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K168" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L168" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M168" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q168" t="n">
         <v>18</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K169" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L169" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M169" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q169" t="n">
         <v>18</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K170" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L170" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M170" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q170" t="n">
         <v>18</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44210</v>
+        <v>44420</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J171" t="n">
         <v>240</v>
       </c>
       <c r="K171" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="L171" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M171" t="n">
-        <v>11750</v>
+        <v>13750</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>653</v>
+        <v>764</v>
       </c>
       <c r="Q171" t="n">
         <v>18</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44210</v>
+        <v>44420</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K172" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L172" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M172" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q172" t="n">
         <v>18</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44210</v>
+        <v>44420</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K173" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L173" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M173" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q173" t="n">
         <v>18</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44427</v>
+        <v>44420</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K174" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="L174" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M174" t="n">
-        <v>13750</v>
+        <v>6750</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>764</v>
+        <v>375</v>
       </c>
       <c r="Q174" t="n">
         <v>18</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12957,7 +12957,7 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K175" t="n">
         <v>11500</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="K176" t="n">
         <v>9500</v>
@@ -13038,7 +13038,7 @@
         <v>10000</v>
       </c>
       <c r="M176" t="n">
-        <v>9708</v>
+        <v>9750</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="Q176" t="n">
         <v>18</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K177" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L177" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M177" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="Q177" t="n">
         <v>18</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44301</v>
+        <v>44427</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K178" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="L178" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M178" t="n">
-        <v>8750</v>
+        <v>13750</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>486</v>
+        <v>764</v>
       </c>
       <c r="Q178" t="n">
         <v>18</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44301</v>
+        <v>44427</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13248,13 +13248,13 @@
         <v>400</v>
       </c>
       <c r="K179" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L179" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M179" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>375</v>
+        <v>653</v>
       </c>
       <c r="Q179" t="n">
         <v>18</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44301</v>
+        <v>44427</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="K180" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L180" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M180" t="n">
-        <v>4750</v>
+        <v>9708</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>264</v>
+        <v>539</v>
       </c>
       <c r="Q180" t="n">
         <v>18</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44301</v>
+        <v>44427</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13392,13 +13392,13 @@
         <v>300</v>
       </c>
       <c r="K181" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L181" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M181" t="n">
-        <v>2750</v>
+        <v>6750</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="Q181" t="n">
         <v>18</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K182" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L182" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M182" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q182" t="n">
         <v>18</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K183" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L183" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M183" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q183" t="n">
         <v>18</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K184" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L184" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M184" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q184" t="n">
         <v>18</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44441</v>
+        <v>44301</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K185" t="n">
-        <v>13500</v>
+        <v>2500</v>
       </c>
       <c r="L185" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="M185" t="n">
-        <v>13750</v>
+        <v>2750</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>764</v>
+        <v>153</v>
       </c>
       <c r="Q185" t="n">
         <v>18</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44441</v>
+        <v>44244</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K186" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L186" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M186" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q186" t="n">
         <v>18</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44441</v>
+        <v>44244</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K187" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L187" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M187" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q187" t="n">
         <v>18</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44441</v>
+        <v>44244</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
         <v>200</v>
       </c>
       <c r="K188" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L188" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M188" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q188" t="n">
         <v>18</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13968,13 +13968,13 @@
         <v>240</v>
       </c>
       <c r="K189" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="L189" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M189" t="n">
-        <v>10500</v>
+        <v>13750</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>583</v>
+        <v>764</v>
       </c>
       <c r="Q189" t="n">
         <v>18</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K190" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L190" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M190" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="Q190" t="n">
         <v>18</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K191" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L191" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M191" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>361</v>
+        <v>542</v>
       </c>
       <c r="Q191" t="n">
         <v>18</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44273</v>
+        <v>44441</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K192" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L192" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M192" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>528</v>
+        <v>375</v>
       </c>
       <c r="Q192" t="n">
         <v>18</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K193" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L193" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M193" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>417</v>
+        <v>583</v>
       </c>
       <c r="Q193" t="n">
         <v>18</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K194" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L194" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M194" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>306</v>
+        <v>472</v>
       </c>
       <c r="Q194" t="n">
         <v>18</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K195" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L195" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M195" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>194</v>
+        <v>361</v>
       </c>
       <c r="Q195" t="n">
         <v>18</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K196" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L196" t="n">
         <v>10000</v>
       </c>
       <c r="M196" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Q196" t="n">
         <v>18</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K197" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L197" t="n">
         <v>8000</v>
       </c>
       <c r="M197" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="Q197" t="n">
         <v>18</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K198" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L198" t="n">
         <v>6000</v>
       </c>
       <c r="M198" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q198" t="n">
         <v>18</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K199" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L199" t="n">
         <v>4000</v>
       </c>
       <c r="M199" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="Q199" t="n">
         <v>18</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K200" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L200" t="n">
         <v>10000</v>
       </c>
       <c r="M200" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="Q200" t="n">
         <v>18</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K201" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L201" t="n">
         <v>8000</v>
       </c>
       <c r="M201" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="Q201" t="n">
         <v>18</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K202" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L202" t="n">
         <v>6000</v>
       </c>
       <c r="M202" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q202" t="n">
         <v>18</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K203" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L203" t="n">
         <v>4000</v>
       </c>
       <c r="M203" t="n">
-        <v>3500</v>
+        <v>3750</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="Q203" t="n">
         <v>18</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K204" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L204" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="M204" t="n">
-        <v>13250</v>
+        <v>9500</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>736</v>
+        <v>528</v>
       </c>
       <c r="Q204" t="n">
         <v>18</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K205" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L205" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M205" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q205" t="n">
         <v>18</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K206" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L206" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="M206" t="n">
-        <v>9250</v>
+        <v>5500</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>514</v>
+        <v>306</v>
       </c>
       <c r="Q206" t="n">
         <v>18</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K207" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L207" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M207" t="n">
-        <v>6250</v>
+        <v>3500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>347</v>
+        <v>194</v>
       </c>
       <c r="Q207" t="n">
         <v>18</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44329</v>
+        <v>44391</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K208" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="L208" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="M208" t="n">
-        <v>10750</v>
+        <v>13250</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>597</v>
+        <v>736</v>
       </c>
       <c r="Q208" t="n">
         <v>18</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44329</v>
+        <v>44391</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K209" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L209" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="M209" t="n">
-        <v>8750</v>
+        <v>11250</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>486</v>
+        <v>625</v>
       </c>
       <c r="Q209" t="n">
         <v>18</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44329</v>
+        <v>44391</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K210" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L210" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M210" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="Q210" t="n">
         <v>18</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44329</v>
+        <v>44391</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K211" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L211" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M211" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q211" t="n">
         <v>18</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K212" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="L212" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M212" t="n">
-        <v>14750</v>
+        <v>10750</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>819</v>
+        <v>597</v>
       </c>
       <c r="Q212" t="n">
         <v>18</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K213" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="L213" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M213" t="n">
-        <v>12750</v>
+        <v>8750</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>708</v>
+        <v>486</v>
       </c>
       <c r="Q213" t="n">
         <v>18</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K214" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="L214" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M214" t="n">
-        <v>10750</v>
+        <v>6750</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>597</v>
+        <v>375</v>
       </c>
       <c r="Q214" t="n">
         <v>18</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44251</v>
+        <v>44329</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K215" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="L215" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M215" t="n">
-        <v>9750</v>
+        <v>4750</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>542</v>
+        <v>264</v>
       </c>
       <c r="Q215" t="n">
         <v>18</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K216" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="L216" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M216" t="n">
-        <v>7750</v>
+        <v>14750</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>431</v>
+        <v>819</v>
       </c>
       <c r="Q216" t="n">
         <v>18</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J217" t="n">
         <v>200</v>
       </c>
       <c r="K217" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="L217" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M217" t="n">
-        <v>5750</v>
+        <v>12750</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>319</v>
+        <v>708</v>
       </c>
       <c r="Q217" t="n">
         <v>18</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44435</v>
+        <v>44161</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="K218" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="L218" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M218" t="n">
-        <v>14750</v>
+        <v>10750</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>819</v>
+        <v>597</v>
       </c>
       <c r="Q218" t="n">
         <v>18</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="K219" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L219" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M219" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="Q219" t="n">
         <v>18</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>760</v>
+        <v>300</v>
       </c>
       <c r="K220" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L220" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M220" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q220" t="n">
         <v>18</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>540</v>
+        <v>200</v>
       </c>
       <c r="K221" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L221" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M221" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q221" t="n">
         <v>18</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44279</v>
+        <v>44435</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>340</v>
+        <v>900</v>
       </c>
       <c r="K222" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="L222" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M222" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>542</v>
+        <v>819</v>
       </c>
       <c r="Q222" t="n">
         <v>18</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44279</v>
+        <v>44435</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K223" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="L223" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M223" t="n">
-        <v>7750</v>
+        <v>12750</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>431</v>
+        <v>708</v>
       </c>
       <c r="Q223" t="n">
         <v>18</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44279</v>
+        <v>44435</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>240</v>
+        <v>760</v>
       </c>
       <c r="K224" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L224" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M224" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q224" t="n">
         <v>18</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44279</v>
+        <v>44435</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="K225" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L225" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M225" t="n">
-        <v>3750</v>
+        <v>7750</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>208</v>
+        <v>431</v>
       </c>
       <c r="Q225" t="n">
         <v>18</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K226" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L226" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="M226" t="n">
-        <v>13250</v>
+        <v>9750</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>736</v>
+        <v>542</v>
       </c>
       <c r="Q226" t="n">
         <v>18</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K227" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L227" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M227" t="n">
-        <v>11250</v>
+        <v>7750</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>625</v>
+        <v>431</v>
       </c>
       <c r="Q227" t="n">
         <v>18</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K228" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L228" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="M228" t="n">
-        <v>9250</v>
+        <v>5750</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>514</v>
+        <v>319</v>
       </c>
       <c r="Q228" t="n">
         <v>18</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K229" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L229" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M229" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="Q229" t="n">
         <v>18</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K230" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L230" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="M230" t="n">
-        <v>9500</v>
+        <v>13250</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>528</v>
+        <v>736</v>
       </c>
       <c r="Q230" t="n">
         <v>18</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K231" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L231" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="M231" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q231" t="n">
         <v>18</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K232" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L232" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="M232" t="n">
-        <v>5500</v>
+        <v>9250</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>306</v>
+        <v>514</v>
       </c>
       <c r="Q232" t="n">
         <v>18</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K233" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L233" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M233" t="n">
-        <v>3500</v>
+        <v>6250</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="Q233" t="n">
         <v>18</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44238</v>
+        <v>44314</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K234" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L234" t="n">
         <v>10000</v>
       </c>
-      <c r="L234" t="n">
-        <v>11000</v>
-      </c>
       <c r="M234" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="Q234" t="n">
         <v>18</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44238</v>
+        <v>44314</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K235" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L235" t="n">
         <v>8000</v>
       </c>
-      <c r="L235" t="n">
-        <v>9000</v>
-      </c>
       <c r="M235" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>472</v>
+        <v>417</v>
       </c>
       <c r="Q235" t="n">
         <v>18</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44238</v>
+        <v>44314</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="K236" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L236" t="n">
         <v>6000</v>
       </c>
-      <c r="L236" t="n">
-        <v>7000</v>
-      </c>
       <c r="M236" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="Q236" t="n">
         <v>18</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44399</v>
+        <v>44314</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J237" t="n">
         <v>340</v>
       </c>
       <c r="K237" t="n">
-        <v>12500</v>
+        <v>3000</v>
       </c>
       <c r="L237" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M237" t="n">
-        <v>12750</v>
+        <v>3500</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>708</v>
+        <v>194</v>
       </c>
       <c r="Q237" t="n">
         <v>18</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K238" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="L238" t="n">
         <v>11000</v>
       </c>
       <c r="M238" t="n">
-        <v>10750</v>
+        <v>10500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="Q238" t="n">
         <v>18</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K239" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L239" t="n">
         <v>9000</v>
       </c>
       <c r="M239" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="Q239" t="n">
         <v>18</v>
@@ -17613,58 +17613,346 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4</v>
+      </c>
+      <c r="F240" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J240" t="n">
+        <v>160</v>
+      </c>
+      <c r="K240" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L240" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M240" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>18</v>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
         <v>44399</v>
       </c>
-      <c r="E240" t="n">
-        <v>4</v>
-      </c>
-      <c r="F240" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>Cultivar IV Región</t>
-        </is>
-      </c>
-      <c r="I240" t="inlineStr">
+      <c r="E241" t="n">
+        <v>4</v>
+      </c>
+      <c r="F241" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
+        <v>340</v>
+      </c>
+      <c r="K241" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L241" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M241" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P241" t="n">
+        <v>708</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>18</v>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E242" t="n">
+        <v>4</v>
+      </c>
+      <c r="F242" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J242" t="n">
+        <v>400</v>
+      </c>
+      <c r="K242" t="n">
+        <v>10500</v>
+      </c>
+      <c r="L242" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M242" t="n">
+        <v>10750</v>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P242" t="n">
+        <v>597</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>18</v>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E243" t="n">
+        <v>4</v>
+      </c>
+      <c r="F243" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J243" t="n">
+        <v>400</v>
+      </c>
+      <c r="K243" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L243" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M243" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P243" t="n">
+        <v>486</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>18</v>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E244" t="n">
+        <v>4</v>
+      </c>
+      <c r="F244" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J240" t="n">
+      <c r="J244" t="n">
         <v>200</v>
       </c>
-      <c r="K240" t="n">
+      <c r="K244" t="n">
         <v>5500</v>
       </c>
-      <c r="L240" t="n">
+      <c r="L244" t="n">
         <v>6000</v>
       </c>
-      <c r="M240" t="n">
+      <c r="M244" t="n">
         <v>5750</v>
       </c>
-      <c r="N240" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O240" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P240" t="n">
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P244" t="n">
         <v>319</v>
       </c>
-      <c r="Q240" t="n">
-        <v>18</v>
-      </c>
-      <c r="R240" t="inlineStr">
+      <c r="Q244" t="n">
+        <v>18</v>
+      </c>
+      <c r="R244" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R244"/>
+  <dimension ref="A1:R248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17496,13 +17496,13 @@
         <v>200</v>
       </c>
       <c r="K238" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L238" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M238" t="n">
-        <v>10500</v>
+        <v>12750</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>583</v>
+        <v>708</v>
       </c>
       <c r="Q238" t="n">
         <v>18</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K239" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L239" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M239" t="n">
-        <v>8500</v>
+        <v>10750</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>472</v>
+        <v>597</v>
       </c>
       <c r="Q239" t="n">
         <v>18</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="K240" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L240" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M240" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>361</v>
+        <v>486</v>
       </c>
       <c r="Q240" t="n">
         <v>18</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K241" t="n">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="L241" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M241" t="n">
-        <v>12750</v>
+        <v>5750</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>708</v>
+        <v>319</v>
       </c>
       <c r="Q241" t="n">
         <v>18</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K242" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="L242" t="n">
         <v>11000</v>
       </c>
       <c r="M242" t="n">
-        <v>10750</v>
+        <v>10500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="Q242" t="n">
         <v>18</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17849,20 +17849,20 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K243" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L243" t="n">
         <v>9000</v>
       </c>
       <c r="M243" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="Q243" t="n">
         <v>18</v>
@@ -17901,58 +17901,346 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E244" t="n">
+        <v>4</v>
+      </c>
+      <c r="F244" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J244" t="n">
+        <v>160</v>
+      </c>
+      <c r="K244" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L244" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M244" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P244" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>18</v>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="n">
         <v>44399</v>
       </c>
-      <c r="E244" t="n">
-        <v>4</v>
-      </c>
-      <c r="F244" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>Cultivar IV Región</t>
-        </is>
-      </c>
-      <c r="I244" t="inlineStr">
+      <c r="E245" t="n">
+        <v>4</v>
+      </c>
+      <c r="F245" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J245" t="n">
+        <v>340</v>
+      </c>
+      <c r="K245" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L245" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M245" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P245" t="n">
+        <v>708</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>18</v>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E246" t="n">
+        <v>4</v>
+      </c>
+      <c r="F246" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J246" t="n">
+        <v>400</v>
+      </c>
+      <c r="K246" t="n">
+        <v>10500</v>
+      </c>
+      <c r="L246" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M246" t="n">
+        <v>10750</v>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P246" t="n">
+        <v>597</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>18</v>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E247" t="n">
+        <v>4</v>
+      </c>
+      <c r="F247" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J247" t="n">
+        <v>400</v>
+      </c>
+      <c r="K247" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L247" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M247" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P247" t="n">
+        <v>486</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>18</v>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E248" t="n">
+        <v>4</v>
+      </c>
+      <c r="F248" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J244" t="n">
+      <c r="J248" t="n">
         <v>200</v>
       </c>
-      <c r="K244" t="n">
+      <c r="K248" t="n">
         <v>5500</v>
       </c>
-      <c r="L244" t="n">
+      <c r="L248" t="n">
         <v>6000</v>
       </c>
-      <c r="M244" t="n">
+      <c r="M248" t="n">
         <v>5750</v>
       </c>
-      <c r="N244" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O244" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P244" t="n">
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P248" t="n">
         <v>319</v>
       </c>
-      <c r="Q244" t="n">
-        <v>18</v>
-      </c>
-      <c r="R244" t="inlineStr">
+      <c r="Q248" t="n">
+        <v>18</v>
+      </c>
+      <c r="R248" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R248"/>
+  <dimension ref="A1:R252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44357</v>
+        <v>44413</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="L2" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>12250</v>
+        <v>13750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>681</v>
+        <v>764</v>
       </c>
       <c r="Q2" t="n">
         <v>18</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44413</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L3" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>10250</v>
+        <v>11750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="Q3" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44357</v>
+        <v>44413</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -648,13 +648,13 @@
         <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L4" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>8250</v>
+        <v>9750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44357</v>
+        <v>44413</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K5" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q5" t="n">
         <v>18</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44307</v>
+        <v>44335</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -792,13 +792,13 @@
         <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q6" t="n">
         <v>18</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44307</v>
+        <v>44335</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44307</v>
+        <v>44335</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L8" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q8" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44307</v>
+        <v>44335</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M9" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q9" t="n">
         <v>18</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44377</v>
+        <v>44294</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K10" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44377</v>
+        <v>44294</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L11" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M11" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q11" t="n">
         <v>18</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44377</v>
+        <v>44294</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>8750</v>
+        <v>5750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="Q12" t="n">
         <v>18</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44377</v>
+        <v>44294</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L13" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M13" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q13" t="n">
         <v>18</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44350</v>
+        <v>44315</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L14" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>12250</v>
+        <v>9500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>681</v>
+        <v>528</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44350</v>
+        <v>44315</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1440,13 +1440,13 @@
         <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>10250</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>569</v>
+        <v>417</v>
       </c>
       <c r="Q15" t="n">
         <v>18</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44350</v>
+        <v>44315</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1512,13 +1512,13 @@
         <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L16" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M16" t="n">
-        <v>8250</v>
+        <v>5500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>458</v>
+        <v>306</v>
       </c>
       <c r="Q16" t="n">
         <v>18</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44350</v>
+        <v>44315</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="K17" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L17" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M17" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>306</v>
+        <v>194</v>
       </c>
       <c r="Q17" t="n">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44356</v>
+        <v>44259</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L18" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>12250</v>
+        <v>9750</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>681</v>
+        <v>542</v>
       </c>
       <c r="Q18" t="n">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44356</v>
+        <v>44259</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K19" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L19" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>10250</v>
+        <v>7750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>569</v>
+        <v>431</v>
       </c>
       <c r="Q19" t="n">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44356</v>
+        <v>44259</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L20" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M20" t="n">
-        <v>8250</v>
+        <v>5750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>458</v>
+        <v>319</v>
       </c>
       <c r="Q20" t="n">
         <v>18</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44356</v>
+        <v>44454</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K21" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="M21" t="n">
-        <v>5750</v>
+        <v>13250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>319</v>
+        <v>736</v>
       </c>
       <c r="Q21" t="n">
         <v>18</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44349</v>
+        <v>44454</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K22" t="n">
         <v>11000</v>
       </c>
       <c r="L22" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="M22" t="n">
-        <v>11500</v>
+        <v>11250</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="Q22" t="n">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44349</v>
+        <v>44454</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K23" t="n">
         <v>9000</v>
       </c>
       <c r="L23" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="M23" t="n">
-        <v>9500</v>
+        <v>9250</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="Q23" t="n">
         <v>18</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44349</v>
+        <v>44454</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K24" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M24" t="n">
-        <v>7500</v>
+        <v>6250</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>417</v>
+        <v>347</v>
       </c>
       <c r="Q24" t="n">
         <v>18</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44349</v>
+        <v>44398</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K25" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="L25" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>5500</v>
+        <v>12750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>306</v>
+        <v>708</v>
       </c>
       <c r="Q25" t="n">
         <v>18</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44280</v>
+        <v>44398</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K26" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M26" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="Q26" t="n">
         <v>18</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44280</v>
+        <v>44398</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
         <v>400</v>
       </c>
       <c r="K27" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L27" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M27" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>375</v>
+        <v>486</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44280</v>
+        <v>44398</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K28" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L28" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M28" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q28" t="n">
         <v>18</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44280</v>
+        <v>44384</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K29" t="n">
-        <v>2500</v>
+        <v>12500</v>
       </c>
       <c r="L29" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="M29" t="n">
-        <v>2750</v>
+        <v>12750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>153</v>
+        <v>708</v>
       </c>
       <c r="Q29" t="n">
         <v>18</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44364</v>
+        <v>44384</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
         <v>400</v>
       </c>
       <c r="K30" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L30" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M30" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44364</v>
+        <v>44384</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K31" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L31" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M31" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q31" t="n">
         <v>18</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44364</v>
+        <v>44384</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K32" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M32" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q32" t="n">
         <v>18</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K33" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L33" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M33" t="n">
-        <v>5750</v>
+        <v>9500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>319</v>
+        <v>528</v>
       </c>
       <c r="Q33" t="n">
         <v>18</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44336</v>
+        <v>44314</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K34" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L34" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M34" t="n">
-        <v>11750</v>
+        <v>7500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>653</v>
+        <v>417</v>
       </c>
       <c r="Q34" t="n">
         <v>18</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44336</v>
+        <v>44314</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K35" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L35" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M35" t="n">
-        <v>9750</v>
+        <v>5500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>542</v>
+        <v>306</v>
       </c>
       <c r="Q35" t="n">
         <v>18</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44336</v>
+        <v>44314</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K36" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L36" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M36" t="n">
-        <v>6750</v>
+        <v>3500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>375</v>
+        <v>194</v>
       </c>
       <c r="Q36" t="n">
         <v>18</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44336</v>
+        <v>44349</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K37" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="L37" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M37" t="n">
-        <v>3750</v>
+        <v>11500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>208</v>
+        <v>639</v>
       </c>
       <c r="Q37" t="n">
         <v>18</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44286</v>
+        <v>44349</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3089,11 +3089,11 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K38" t="n">
         <v>9000</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44286</v>
+        <v>44349</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3161,11 +3161,11 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="K39" t="n">
         <v>7000</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44286</v>
+        <v>44349</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3233,11 +3233,11 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K40" t="n">
         <v>5000</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44286</v>
+        <v>44412</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K41" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="L41" t="n">
-        <v>4000</v>
+        <v>13500</v>
       </c>
       <c r="M41" t="n">
-        <v>3500</v>
+        <v>13250</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>194</v>
+        <v>736</v>
       </c>
       <c r="Q41" t="n">
         <v>18</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44266</v>
+        <v>44412</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K42" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L42" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="M42" t="n">
-        <v>10500</v>
+        <v>11250</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>583</v>
+        <v>625</v>
       </c>
       <c r="Q42" t="n">
         <v>18</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44266</v>
+        <v>44412</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K43" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L43" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M43" t="n">
-        <v>8500</v>
+        <v>9250</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>472</v>
+        <v>514</v>
       </c>
       <c r="Q43" t="n">
         <v>18</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44266</v>
+        <v>44412</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K44" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L44" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M44" t="n">
-        <v>4500</v>
+        <v>6250</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>250</v>
+        <v>347</v>
       </c>
       <c r="Q44" t="n">
         <v>18</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44413</v>
+        <v>44329</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K45" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="L45" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M45" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>764</v>
+        <v>597</v>
       </c>
       <c r="Q45" t="n">
         <v>18</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44413</v>
+        <v>44329</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K46" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="L46" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M46" t="n">
-        <v>11750</v>
+        <v>8750</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>653</v>
+        <v>486</v>
       </c>
       <c r="Q46" t="n">
         <v>18</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44413</v>
+        <v>44329</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K47" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L47" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M47" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q47" t="n">
         <v>18</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44413</v>
+        <v>44329</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="K48" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L48" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M48" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="Q48" t="n">
         <v>18</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44216</v>
+        <v>44364</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K49" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L49" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M49" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q49" t="n">
         <v>18</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44216</v>
+        <v>44364</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K50" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L50" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M50" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q50" t="n">
         <v>18</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44216</v>
+        <v>44364</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K51" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L51" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M51" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q51" t="n">
         <v>18</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J52" t="n">
         <v>300</v>
       </c>
       <c r="K52" t="n">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="L52" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M52" t="n">
-        <v>12750</v>
+        <v>5750</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>708</v>
+        <v>319</v>
       </c>
       <c r="Q52" t="n">
         <v>18</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44405</v>
+        <v>44258</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K53" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L53" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M53" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q53" t="n">
         <v>18</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44405</v>
+        <v>44258</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K54" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L54" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M54" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q54" t="n">
         <v>18</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44405</v>
+        <v>44258</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4313,11 +4313,11 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K55" t="n">
         <v>5500</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44308</v>
+        <v>44377</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K56" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L56" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M56" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q56" t="n">
         <v>18</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44308</v>
+        <v>44377</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K57" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="L57" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M57" t="n">
-        <v>6750</v>
+        <v>10750</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="Q57" t="n">
         <v>18</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44308</v>
+        <v>44377</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K58" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L58" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M58" t="n">
-        <v>4750</v>
+        <v>8750</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>264</v>
+        <v>486</v>
       </c>
       <c r="Q58" t="n">
         <v>18</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44308</v>
+        <v>44377</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K59" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L59" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M59" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="Q59" t="n">
         <v>18</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44363</v>
+        <v>44231</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44363</v>
+        <v>44231</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K61" t="n">
         <v>9500</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44363</v>
+        <v>44231</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K62" t="n">
         <v>7500</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44363</v>
+        <v>44435</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="K63" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="L63" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M63" t="n">
-        <v>5750</v>
+        <v>14750</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>319</v>
+        <v>819</v>
       </c>
       <c r="Q63" t="n">
         <v>18</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44231</v>
+        <v>44435</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K64" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L64" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M64" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="Q64" t="n">
         <v>18</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44231</v>
+        <v>44435</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>360</v>
+        <v>760</v>
       </c>
       <c r="K65" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L65" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M65" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q65" t="n">
         <v>18</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44231</v>
+        <v>44435</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5105,11 +5105,11 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="K66" t="n">
         <v>7500</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5177,11 +5177,11 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K67" t="n">
         <v>11500</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5249,11 +5249,11 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K68" t="n">
         <v>9500</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5321,11 +5321,11 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K69" t="n">
         <v>7500</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44258</v>
+        <v>44230</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K70" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L70" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M70" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q70" t="n">
         <v>18</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44258</v>
+        <v>44230</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K71" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L71" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M71" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q71" t="n">
         <v>18</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44258</v>
+        <v>44230</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K72" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L72" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M72" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q72" t="n">
         <v>18</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44245</v>
+        <v>44272</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K73" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L73" t="n">
         <v>10000</v>
       </c>
       <c r="M73" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Q73" t="n">
         <v>18</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44245</v>
+        <v>44272</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K74" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L74" t="n">
         <v>8000</v>
       </c>
       <c r="M74" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="Q74" t="n">
         <v>18</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44245</v>
+        <v>44272</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K75" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L75" t="n">
         <v>6000</v>
       </c>
       <c r="M75" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q75" t="n">
         <v>18</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44328</v>
+        <v>44272</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K76" t="n">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="L76" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M76" t="n">
-        <v>9750</v>
+        <v>3500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>542</v>
+        <v>194</v>
       </c>
       <c r="Q76" t="n">
         <v>18</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44328</v>
+        <v>44322</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K77" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L77" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M77" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q77" t="n">
         <v>18</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44328</v>
+        <v>44322</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K78" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L78" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M78" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q78" t="n">
         <v>18</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44328</v>
+        <v>44322</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K79" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L79" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M79" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q79" t="n">
         <v>18</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44343</v>
+        <v>44322</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K80" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="L80" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="M80" t="n">
-        <v>11500</v>
+        <v>2750</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>639</v>
+        <v>153</v>
       </c>
       <c r="Q80" t="n">
         <v>18</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K81" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L81" t="n">
         <v>10000</v>
       </c>
       <c r="M81" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="Q81" t="n">
         <v>18</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K82" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L82" t="n">
         <v>8000</v>
       </c>
       <c r="M82" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="Q82" t="n">
         <v>18</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K83" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L83" t="n">
         <v>6000</v>
       </c>
       <c r="M83" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q83" t="n">
         <v>18</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K84" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="L84" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M84" t="n">
-        <v>9750</v>
+        <v>3750</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>542</v>
+        <v>208</v>
       </c>
       <c r="Q84" t="n">
         <v>18</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44293</v>
+        <v>44238</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K85" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L85" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M85" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>431</v>
+        <v>583</v>
       </c>
       <c r="Q85" t="n">
         <v>18</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44293</v>
+        <v>44238</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K86" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L86" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M86" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>319</v>
+        <v>472</v>
       </c>
       <c r="Q86" t="n">
         <v>18</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44293</v>
+        <v>44238</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J87" t="n">
         <v>160</v>
       </c>
       <c r="K87" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L87" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M87" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>208</v>
+        <v>361</v>
       </c>
       <c r="Q87" t="n">
         <v>18</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44265</v>
+        <v>44391</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K96" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L96" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="M96" t="n">
-        <v>10500</v>
+        <v>13250</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>583</v>
+        <v>736</v>
       </c>
       <c r="Q96" t="n">
         <v>18</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44265</v>
+        <v>44391</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K97" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L97" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="M97" t="n">
-        <v>8500</v>
+        <v>11250</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>472</v>
+        <v>625</v>
       </c>
       <c r="Q97" t="n">
         <v>18</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44265</v>
+        <v>44391</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K98" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L98" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="M98" t="n">
-        <v>4500</v>
+        <v>9250</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>250</v>
+        <v>514</v>
       </c>
       <c r="Q98" t="n">
         <v>18</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44252</v>
+        <v>44391</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J99" t="n">
         <v>240</v>
       </c>
       <c r="K99" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L99" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M99" t="n">
-        <v>9750</v>
+        <v>6250</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>542</v>
+        <v>347</v>
       </c>
       <c r="Q99" t="n">
         <v>18</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44252</v>
+        <v>44216</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K100" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L100" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M100" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q100" t="n">
         <v>18</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44252</v>
+        <v>44216</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K101" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L101" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M101" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q101" t="n">
         <v>18</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44371</v>
+        <v>44216</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K102" t="n">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="L102" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M102" t="n">
-        <v>12750</v>
+        <v>5750</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>708</v>
+        <v>319</v>
       </c>
       <c r="Q102" t="n">
         <v>18</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44371</v>
+        <v>44245</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K103" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L103" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M103" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q103" t="n">
         <v>18</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44371</v>
+        <v>44245</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K104" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L104" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M104" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q104" t="n">
         <v>18</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44371</v>
+        <v>44245</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7913,11 +7913,11 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K105" t="n">
         <v>5500</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44370</v>
+        <v>44434</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>530</v>
+        <v>400</v>
       </c>
       <c r="K110" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L110" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M110" t="n">
-        <v>12736</v>
+        <v>14750</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="Q110" t="n">
         <v>18</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44370</v>
+        <v>44434</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8352,13 +8352,13 @@
         <v>600</v>
       </c>
       <c r="K111" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L111" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M111" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="Q111" t="n">
         <v>18</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44370</v>
+        <v>44434</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K112" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L112" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M112" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="Q112" t="n">
         <v>18</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44370</v>
+        <v>44434</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K113" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L113" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M113" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q113" t="n">
         <v>18</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44447</v>
+        <v>44321</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K114" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="L114" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M114" t="n">
-        <v>12750</v>
+        <v>8750</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>708</v>
+        <v>486</v>
       </c>
       <c r="Q114" t="n">
         <v>18</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44447</v>
+        <v>44321</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8640,13 +8640,13 @@
         <v>400</v>
       </c>
       <c r="K115" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="L115" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M115" t="n">
-        <v>10750</v>
+        <v>6750</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>597</v>
+        <v>375</v>
       </c>
       <c r="Q115" t="n">
         <v>18</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44447</v>
+        <v>44321</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K116" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L116" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M116" t="n">
-        <v>8750</v>
+        <v>4750</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>486</v>
+        <v>264</v>
       </c>
       <c r="Q116" t="n">
         <v>18</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44447</v>
+        <v>44321</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K117" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L117" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M117" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q117" t="n">
         <v>18</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44259</v>
+        <v>44300</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K118" t="n">
         <v>9500</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44259</v>
+        <v>44300</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K119" t="n">
         <v>7500</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44259</v>
+        <v>44300</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K120" t="n">
         <v>5500</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K121" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="L121" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M121" t="n">
-        <v>9750</v>
+        <v>3750</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>542</v>
+        <v>208</v>
       </c>
       <c r="Q121" t="n">
         <v>18</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44300</v>
+        <v>44399</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K122" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="L122" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M122" t="n">
-        <v>7750</v>
+        <v>12750</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>431</v>
+        <v>708</v>
       </c>
       <c r="Q122" t="n">
         <v>18</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44300</v>
+        <v>44399</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J123" t="n">
         <v>400</v>
       </c>
       <c r="K123" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L123" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M123" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q123" t="n">
         <v>18</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44300</v>
+        <v>44399</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K124" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="L124" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M124" t="n">
-        <v>3750</v>
+        <v>8750</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>208</v>
+        <v>486</v>
       </c>
       <c r="Q124" t="n">
         <v>18</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44392</v>
+        <v>44399</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K125" t="n">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="L125" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M125" t="n">
-        <v>12750</v>
+        <v>5750</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>708</v>
+        <v>319</v>
       </c>
       <c r="Q125" t="n">
         <v>18</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44392</v>
+        <v>44441</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K126" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="L126" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M126" t="n">
-        <v>10750</v>
+        <v>13750</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>597</v>
+        <v>764</v>
       </c>
       <c r="Q126" t="n">
         <v>18</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44392</v>
+        <v>44441</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K127" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L127" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M127" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>486</v>
+        <v>653</v>
       </c>
       <c r="Q127" t="n">
         <v>18</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44392</v>
+        <v>44441</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K128" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L128" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M128" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q128" t="n">
         <v>18</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44224</v>
+        <v>44441</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J129" t="n">
         <v>200</v>
       </c>
       <c r="K129" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="L129" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M129" t="n">
-        <v>11750</v>
+        <v>6750</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>653</v>
+        <v>375</v>
       </c>
       <c r="Q129" t="n">
         <v>18</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K130" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L130" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M130" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q130" t="n">
         <v>18</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K131" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L131" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M131" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q131" t="n">
         <v>18</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44217</v>
+        <v>44405</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K132" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L132" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M132" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q132" t="n">
         <v>18</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44217</v>
+        <v>44405</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K133" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L133" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M133" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q133" t="n">
         <v>18</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44217</v>
+        <v>44161</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K134" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="L134" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M134" t="n">
-        <v>5750</v>
+        <v>14750</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>319</v>
+        <v>819</v>
       </c>
       <c r="Q134" t="n">
         <v>18</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44384</v>
+        <v>44161</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10073,11 +10073,11 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K135" t="n">
         <v>12500</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44384</v>
+        <v>44161</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10145,11 +10145,11 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K136" t="n">
         <v>10500</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44384</v>
+        <v>44307</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K137" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L137" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M137" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q137" t="n">
         <v>18</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44384</v>
+        <v>44307</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K138" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L138" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M138" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q138" t="n">
         <v>18</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44322</v>
+        <v>44307</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K139" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L139" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M139" t="n">
-        <v>8750</v>
+        <v>4750</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>486</v>
+        <v>264</v>
       </c>
       <c r="Q139" t="n">
         <v>18</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44322</v>
+        <v>44307</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K140" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L140" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M140" t="n">
-        <v>6750</v>
+        <v>2750</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>375</v>
+        <v>153</v>
       </c>
       <c r="Q140" t="n">
         <v>18</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44322</v>
+        <v>44336</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K141" t="n">
-        <v>4500</v>
+        <v>11500</v>
       </c>
       <c r="L141" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M141" t="n">
-        <v>4750</v>
+        <v>11750</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>264</v>
+        <v>653</v>
       </c>
       <c r="Q141" t="n">
         <v>18</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44322</v>
+        <v>44336</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K142" t="n">
-        <v>2500</v>
+        <v>9500</v>
       </c>
       <c r="L142" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="M142" t="n">
-        <v>2750</v>
+        <v>9750</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>153</v>
+        <v>542</v>
       </c>
       <c r="Q142" t="n">
         <v>18</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44272</v>
+        <v>44336</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K143" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L143" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M143" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>528</v>
+        <v>375</v>
       </c>
       <c r="Q143" t="n">
         <v>18</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44272</v>
+        <v>44336</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K144" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L144" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M144" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>417</v>
+        <v>208</v>
       </c>
       <c r="Q144" t="n">
         <v>18</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44272</v>
+        <v>44426</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K145" t="n">
-        <v>5000</v>
+        <v>13500</v>
       </c>
       <c r="L145" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M145" t="n">
-        <v>5500</v>
+        <v>13750</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>306</v>
+        <v>764</v>
       </c>
       <c r="Q145" t="n">
         <v>18</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44272</v>
+        <v>44426</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K146" t="n">
-        <v>3000</v>
+        <v>11500</v>
       </c>
       <c r="L146" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M146" t="n">
-        <v>3500</v>
+        <v>11750</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>194</v>
+        <v>653</v>
       </c>
       <c r="Q146" t="n">
         <v>18</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44433</v>
+        <v>44426</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K147" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="L147" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M147" t="n">
-        <v>14750</v>
+        <v>9750</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>819</v>
+        <v>542</v>
       </c>
       <c r="Q147" t="n">
         <v>18</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44433</v>
+        <v>44426</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K148" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="L148" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M148" t="n">
-        <v>12750</v>
+        <v>6750</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>708</v>
+        <v>375</v>
       </c>
       <c r="Q148" t="n">
         <v>18</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44433</v>
+        <v>44328</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K149" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L149" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M149" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q149" t="n">
         <v>18</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44433</v>
+        <v>44328</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11153,11 +11153,11 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K150" t="n">
         <v>7500</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K151" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L151" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M151" t="n">
-        <v>8750</v>
+        <v>5750</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="Q151" t="n">
         <v>18</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K152" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L152" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M152" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="Q152" t="n">
         <v>18</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44321</v>
+        <v>44392</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K153" t="n">
-        <v>4500</v>
+        <v>12500</v>
       </c>
       <c r="L153" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M153" t="n">
-        <v>4750</v>
+        <v>12750</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>264</v>
+        <v>708</v>
       </c>
       <c r="Q153" t="n">
         <v>18</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44321</v>
+        <v>44392</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K154" t="n">
-        <v>2500</v>
+        <v>10500</v>
       </c>
       <c r="L154" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="M154" t="n">
-        <v>2750</v>
+        <v>10750</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>153</v>
+        <v>597</v>
       </c>
       <c r="Q154" t="n">
         <v>18</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44335</v>
+        <v>44392</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K155" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="L155" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M155" t="n">
-        <v>11750</v>
+        <v>8750</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>653</v>
+        <v>486</v>
       </c>
       <c r="Q155" t="n">
         <v>18</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44335</v>
+        <v>44392</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K156" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L156" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M156" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q156" t="n">
         <v>18</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44335</v>
+        <v>44448</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K157" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="L157" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M157" t="n">
-        <v>6750</v>
+        <v>12750</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>375</v>
+        <v>708</v>
       </c>
       <c r="Q157" t="n">
         <v>18</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44335</v>
+        <v>44448</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K158" t="n">
-        <v>3500</v>
+        <v>10500</v>
       </c>
       <c r="L158" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M158" t="n">
-        <v>3750</v>
+        <v>10750</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>208</v>
+        <v>597</v>
       </c>
       <c r="Q158" t="n">
         <v>18</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44426</v>
+        <v>44448</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K159" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="L159" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M159" t="n">
-        <v>13750</v>
+        <v>8750</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>764</v>
+        <v>486</v>
       </c>
       <c r="Q159" t="n">
         <v>18</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44426</v>
+        <v>44448</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K160" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="L160" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M160" t="n">
-        <v>11750</v>
+        <v>5750</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>653</v>
+        <v>319</v>
       </c>
       <c r="Q160" t="n">
         <v>18</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44426</v>
+        <v>44420</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K161" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L161" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M161" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q161" t="n">
         <v>18</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44426</v>
+        <v>44420</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K162" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L162" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M162" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>375</v>
+        <v>653</v>
       </c>
       <c r="Q162" t="n">
         <v>18</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44434</v>
+        <v>44420</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K163" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="L163" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M163" t="n">
-        <v>14750</v>
+        <v>9750</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>819</v>
+        <v>542</v>
       </c>
       <c r="Q163" t="n">
         <v>18</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44434</v>
+        <v>44420</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K164" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="L164" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M164" t="n">
-        <v>12750</v>
+        <v>6750</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>708</v>
+        <v>375</v>
       </c>
       <c r="Q164" t="n">
         <v>18</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44434</v>
+        <v>44370</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>360</v>
+        <v>530</v>
       </c>
       <c r="K165" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L165" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M165" t="n">
-        <v>10750</v>
+        <v>12736</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="Q165" t="n">
         <v>18</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44434</v>
+        <v>44370</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K166" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L166" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M166" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q166" t="n">
         <v>18</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K167" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="L167" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M167" t="n">
-        <v>12750</v>
+        <v>8750</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>708</v>
+        <v>486</v>
       </c>
       <c r="Q167" t="n">
         <v>18</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K168" t="n">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="L168" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M168" t="n">
-        <v>10750</v>
+        <v>5750</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>597</v>
+        <v>319</v>
       </c>
       <c r="Q168" t="n">
         <v>18</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44398</v>
+        <v>44237</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K169" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L169" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M169" t="n">
-        <v>8750</v>
+        <v>10500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>486</v>
+        <v>583</v>
       </c>
       <c r="Q169" t="n">
         <v>18</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44398</v>
+        <v>44237</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K170" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L170" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M170" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>319</v>
+        <v>472</v>
       </c>
       <c r="Q170" t="n">
         <v>18</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44420</v>
+        <v>44237</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K171" t="n">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="L171" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M171" t="n">
-        <v>13750</v>
+        <v>6500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>764</v>
+        <v>361</v>
       </c>
       <c r="Q171" t="n">
         <v>18</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44420</v>
+        <v>44210</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12741,7 +12741,7 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K172" t="n">
         <v>11500</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44420</v>
+        <v>44210</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12813,7 +12813,7 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K173" t="n">
         <v>9500</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44420</v>
+        <v>44210</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K174" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L174" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M174" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="Q174" t="n">
         <v>18</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44210</v>
+        <v>44217</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12960,13 +12960,13 @@
         <v>240</v>
       </c>
       <c r="K175" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L175" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M175" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q175" t="n">
         <v>18</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44210</v>
+        <v>44217</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K176" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L176" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M176" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q176" t="n">
         <v>18</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44210</v>
+        <v>44217</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K177" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L177" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M177" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q177" t="n">
         <v>18</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44427</v>
+        <v>44266</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K178" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="L178" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M178" t="n">
-        <v>13750</v>
+        <v>10500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>764</v>
+        <v>583</v>
       </c>
       <c r="Q178" t="n">
         <v>18</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44427</v>
+        <v>44266</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K179" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L179" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M179" t="n">
-        <v>11750</v>
+        <v>8500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>653</v>
+        <v>472</v>
       </c>
       <c r="Q179" t="n">
         <v>18</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44427</v>
+        <v>44266</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="K180" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="L180" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M180" t="n">
-        <v>9708</v>
+        <v>4500</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>539</v>
+        <v>250</v>
       </c>
       <c r="Q180" t="n">
         <v>18</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44427</v>
+        <v>44350</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K181" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L181" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="M181" t="n">
-        <v>6750</v>
+        <v>12250</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>375</v>
+        <v>681</v>
       </c>
       <c r="Q181" t="n">
         <v>18</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44301</v>
+        <v>44350</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K182" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L182" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="M182" t="n">
-        <v>8750</v>
+        <v>10250</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>486</v>
+        <v>569</v>
       </c>
       <c r="Q182" t="n">
         <v>18</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44301</v>
+        <v>44350</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K183" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L183" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M183" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>375</v>
+        <v>458</v>
       </c>
       <c r="Q183" t="n">
         <v>18</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44301</v>
+        <v>44350</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J184" t="n">
         <v>360</v>
       </c>
       <c r="K184" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L184" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M184" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q184" t="n">
         <v>18</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44301</v>
+        <v>44427</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K185" t="n">
-        <v>2500</v>
+        <v>13500</v>
       </c>
       <c r="L185" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="M185" t="n">
-        <v>2750</v>
+        <v>13750</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>153</v>
+        <v>764</v>
       </c>
       <c r="Q185" t="n">
         <v>18</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44244</v>
+        <v>44427</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K186" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L186" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M186" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q186" t="n">
         <v>18</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44244</v>
+        <v>44427</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="K187" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L187" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M187" t="n">
-        <v>7750</v>
+        <v>9708</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>431</v>
+        <v>539</v>
       </c>
       <c r="Q187" t="n">
         <v>18</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44244</v>
+        <v>44427</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K188" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L188" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M188" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q188" t="n">
         <v>18</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44441</v>
+        <v>44265</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K189" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="L189" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M189" t="n">
-        <v>13750</v>
+        <v>10500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>764</v>
+        <v>583</v>
       </c>
       <c r="Q189" t="n">
         <v>18</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44441</v>
+        <v>44265</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K190" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L190" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M190" t="n">
-        <v>11750</v>
+        <v>8500</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>653</v>
+        <v>472</v>
       </c>
       <c r="Q190" t="n">
         <v>18</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44441</v>
+        <v>44265</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K191" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="L191" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M191" t="n">
-        <v>9750</v>
+        <v>4500</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>542</v>
+        <v>250</v>
       </c>
       <c r="Q191" t="n">
         <v>18</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44441</v>
+        <v>44343</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K192" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L192" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M192" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>375</v>
+        <v>639</v>
       </c>
       <c r="Q192" t="n">
         <v>18</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44237</v>
+        <v>44343</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="K193" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L193" t="n">
         <v>10000</v>
       </c>
-      <c r="L193" t="n">
-        <v>11000</v>
-      </c>
       <c r="M193" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="Q193" t="n">
         <v>18</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44237</v>
+        <v>44343</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K194" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L194" t="n">
         <v>8000</v>
       </c>
-      <c r="L194" t="n">
-        <v>9000</v>
-      </c>
       <c r="M194" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>472</v>
+        <v>417</v>
       </c>
       <c r="Q194" t="n">
         <v>18</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44237</v>
+        <v>44343</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="K195" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L195" t="n">
         <v>6000</v>
       </c>
-      <c r="L195" t="n">
-        <v>7000</v>
-      </c>
       <c r="M195" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="Q195" t="n">
         <v>18</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44273</v>
+        <v>44280</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K196" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L196" t="n">
         <v>9000</v>
       </c>
-      <c r="L196" t="n">
-        <v>10000</v>
-      </c>
       <c r="M196" t="n">
-        <v>9500</v>
+        <v>8750</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="Q196" t="n">
         <v>18</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44273</v>
+        <v>44280</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K197" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L197" t="n">
         <v>7000</v>
       </c>
-      <c r="L197" t="n">
-        <v>8000</v>
-      </c>
       <c r="M197" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q197" t="n">
         <v>18</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44273</v>
+        <v>44280</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K198" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L198" t="n">
         <v>5000</v>
       </c>
-      <c r="L198" t="n">
-        <v>6000</v>
-      </c>
       <c r="M198" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q198" t="n">
         <v>18</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44273</v>
+        <v>44280</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14688,13 +14688,13 @@
         <v>240</v>
       </c>
       <c r="K199" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L199" t="n">
         <v>3000</v>
       </c>
-      <c r="L199" t="n">
-        <v>4000</v>
-      </c>
       <c r="M199" t="n">
-        <v>3500</v>
+        <v>2750</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="Q199" t="n">
         <v>18</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14760,13 +14760,13 @@
         <v>300</v>
       </c>
       <c r="K200" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L200" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M200" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q200" t="n">
         <v>18</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14832,13 +14832,13 @@
         <v>400</v>
       </c>
       <c r="K201" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L201" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M201" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q201" t="n">
         <v>18</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K202" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L202" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M202" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q202" t="n">
         <v>18</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K203" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L203" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M203" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q203" t="n">
         <v>18</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44315</v>
+        <v>44308</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K204" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L204" t="n">
         <v>10000</v>
       </c>
       <c r="M204" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="Q204" t="n">
         <v>18</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44315</v>
+        <v>44308</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K205" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L205" t="n">
         <v>7000</v>
       </c>
-      <c r="L205" t="n">
-        <v>8000</v>
-      </c>
       <c r="M205" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q205" t="n">
         <v>18</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44315</v>
+        <v>44308</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K206" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L206" t="n">
         <v>5000</v>
       </c>
-      <c r="L206" t="n">
-        <v>6000</v>
-      </c>
       <c r="M206" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q206" t="n">
         <v>18</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44315</v>
+        <v>44308</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K207" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L207" t="n">
         <v>3000</v>
       </c>
-      <c r="L207" t="n">
-        <v>4000</v>
-      </c>
       <c r="M207" t="n">
-        <v>3500</v>
+        <v>2750</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="Q207" t="n">
         <v>18</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44391</v>
+        <v>44301</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K208" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L208" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M208" t="n">
-        <v>13250</v>
+        <v>8750</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>736</v>
+        <v>486</v>
       </c>
       <c r="Q208" t="n">
         <v>18</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44391</v>
+        <v>44301</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K209" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L209" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="M209" t="n">
-        <v>11250</v>
+        <v>6750</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>625</v>
+        <v>375</v>
       </c>
       <c r="Q209" t="n">
         <v>18</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44391</v>
+        <v>44301</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15480,13 +15480,13 @@
         <v>360</v>
       </c>
       <c r="K210" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L210" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M210" t="n">
-        <v>9250</v>
+        <v>4750</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>514</v>
+        <v>264</v>
       </c>
       <c r="Q210" t="n">
         <v>18</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44391</v>
+        <v>44301</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K211" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L211" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M211" t="n">
-        <v>6250</v>
+        <v>2750</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="Q211" t="n">
         <v>18</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44329</v>
+        <v>44251</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K212" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L212" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M212" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q212" t="n">
         <v>18</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44329</v>
+        <v>44251</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K213" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L213" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M213" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q213" t="n">
         <v>18</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44329</v>
+        <v>44251</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K214" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L214" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M214" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q214" t="n">
         <v>18</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44329</v>
+        <v>44252</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K215" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L215" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M215" t="n">
-        <v>4750</v>
+        <v>9750</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>264</v>
+        <v>542</v>
       </c>
       <c r="Q215" t="n">
         <v>18</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44161</v>
+        <v>44252</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K216" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="L216" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M216" t="n">
-        <v>14750</v>
+        <v>7750</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>819</v>
+        <v>431</v>
       </c>
       <c r="Q216" t="n">
         <v>18</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44161</v>
+        <v>44252</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K217" t="n">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="L217" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M217" t="n">
-        <v>12750</v>
+        <v>5750</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>708</v>
+        <v>319</v>
       </c>
       <c r="Q217" t="n">
         <v>18</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44161</v>
+        <v>44433</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K218" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="L218" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M218" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>597</v>
+        <v>819</v>
       </c>
       <c r="Q218" t="n">
         <v>18</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44251</v>
+        <v>44433</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K219" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L219" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M219" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q219" t="n">
         <v>18</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44251</v>
+        <v>44433</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K220" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L220" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M220" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q220" t="n">
         <v>18</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44251</v>
+        <v>44433</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K221" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L221" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M221" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q221" t="n">
         <v>18</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44435</v>
+        <v>44371</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K222" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L222" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M222" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>819</v>
+        <v>708</v>
       </c>
       <c r="Q222" t="n">
         <v>18</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44435</v>
+        <v>44371</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K223" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="L223" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M223" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>708</v>
+        <v>597</v>
       </c>
       <c r="Q223" t="n">
         <v>18</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44435</v>
+        <v>44371</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>760</v>
+        <v>340</v>
       </c>
       <c r="K224" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L224" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M224" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>597</v>
+        <v>486</v>
       </c>
       <c r="Q224" t="n">
         <v>18</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44435</v>
+        <v>44371</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="K225" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L225" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M225" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q225" t="n">
         <v>18</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44412</v>
+        <v>44363</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K230" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L230" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="M230" t="n">
-        <v>13250</v>
+        <v>11750</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>736</v>
+        <v>653</v>
       </c>
       <c r="Q230" t="n">
         <v>18</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44412</v>
+        <v>44363</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K231" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L231" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="M231" t="n">
-        <v>11250</v>
+        <v>9750</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>625</v>
+        <v>542</v>
       </c>
       <c r="Q231" t="n">
         <v>18</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44412</v>
+        <v>44363</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K232" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L232" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M232" t="n">
-        <v>9250</v>
+        <v>7750</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>514</v>
+        <v>431</v>
       </c>
       <c r="Q232" t="n">
         <v>18</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44412</v>
+        <v>44363</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K233" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L233" t="n">
         <v>6000</v>
       </c>
-      <c r="L233" t="n">
-        <v>6500</v>
-      </c>
       <c r="M233" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q233" t="n">
         <v>18</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44314</v>
+        <v>44273</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K234" t="n">
         <v>9000</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44314</v>
+        <v>44273</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K235" t="n">
         <v>7000</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44314</v>
+        <v>44273</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,7 +17349,7 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K236" t="n">
         <v>5000</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44314</v>
+        <v>44273</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K237" t="n">
         <v>3000</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44448</v>
+        <v>44286</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="K238" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L238" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M238" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>708</v>
+        <v>528</v>
       </c>
       <c r="Q238" t="n">
         <v>18</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44448</v>
+        <v>44286</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K239" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L239" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M239" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>597</v>
+        <v>417</v>
       </c>
       <c r="Q239" t="n">
         <v>18</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44448</v>
+        <v>44286</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="K240" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L240" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M240" t="n">
-        <v>8750</v>
+        <v>5500</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="Q240" t="n">
         <v>18</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44448</v>
+        <v>44286</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K241" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L241" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M241" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q241" t="n">
         <v>18</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44238</v>
+        <v>44356</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K242" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L242" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="M242" t="n">
-        <v>10500</v>
+        <v>12250</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>583</v>
+        <v>681</v>
       </c>
       <c r="Q242" t="n">
         <v>18</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44238</v>
+        <v>44356</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K243" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L243" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="M243" t="n">
-        <v>8500</v>
+        <v>10250</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>472</v>
+        <v>569</v>
       </c>
       <c r="Q243" t="n">
         <v>18</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44238</v>
+        <v>44356</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K244" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L244" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M244" t="n">
-        <v>6500</v>
+        <v>8250</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>361</v>
+        <v>458</v>
       </c>
       <c r="Q244" t="n">
         <v>18</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44399</v>
+        <v>44356</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K245" t="n">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="L245" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M245" t="n">
-        <v>12750</v>
+        <v>5750</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>708</v>
+        <v>319</v>
       </c>
       <c r="Q245" t="n">
         <v>18</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44399</v>
+        <v>44357</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K246" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="L246" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="M246" t="n">
-        <v>10750</v>
+        <v>12250</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>597</v>
+        <v>681</v>
       </c>
       <c r="Q246" t="n">
         <v>18</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44399</v>
+        <v>44357</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J247" t="n">
         <v>400</v>
       </c>
       <c r="K247" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L247" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="M247" t="n">
-        <v>8750</v>
+        <v>10250</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>486</v>
+        <v>569</v>
       </c>
       <c r="Q247" t="n">
         <v>18</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44399</v>
+        <v>44357</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18209,38 +18209,326 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J248" t="n">
+        <v>400</v>
+      </c>
+      <c r="K248" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L248" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M248" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P248" t="n">
+        <v>458</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>18</v>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E249" t="n">
+        <v>4</v>
+      </c>
+      <c r="F249" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J248" t="n">
+      <c r="J249" t="n">
+        <v>300</v>
+      </c>
+      <c r="K249" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L249" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M249" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P249" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>18</v>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E250" t="n">
+        <v>4</v>
+      </c>
+      <c r="F250" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J250" t="n">
+        <v>240</v>
+      </c>
+      <c r="K250" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L250" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M250" t="n">
+        <v>9750</v>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P250" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>18</v>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E251" t="n">
+        <v>4</v>
+      </c>
+      <c r="F251" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J251" t="n">
+        <v>340</v>
+      </c>
+      <c r="K251" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L251" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M251" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P251" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>18</v>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>2</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E252" t="n">
+        <v>4</v>
+      </c>
+      <c r="F252" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J252" t="n">
         <v>200</v>
       </c>
-      <c r="K248" t="n">
+      <c r="K252" t="n">
         <v>5500</v>
       </c>
-      <c r="L248" t="n">
+      <c r="L252" t="n">
         <v>6000</v>
       </c>
-      <c r="M248" t="n">
+      <c r="M252" t="n">
         <v>5750</v>
       </c>
-      <c r="N248" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O248" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P248" t="n">
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P252" t="n">
         <v>319</v>
       </c>
-      <c r="Q248" t="n">
-        <v>18</v>
-      </c>
-      <c r="R248" t="inlineStr">
+      <c r="Q252" t="n">
+        <v>18</v>
+      </c>
+      <c r="R252" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R252"/>
+  <dimension ref="A1:R256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K185" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L185" t="n">
         <v>13500</v>
       </c>
-      <c r="L185" t="n">
-        <v>14000</v>
-      </c>
       <c r="M185" t="n">
-        <v>13750</v>
+        <v>13250</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="Q185" t="n">
         <v>18</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K186" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L186" t="n">
         <v>11500</v>
       </c>
-      <c r="L186" t="n">
-        <v>12000</v>
-      </c>
       <c r="M186" t="n">
-        <v>11750</v>
+        <v>11250</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="Q186" t="n">
         <v>18</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="K187" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L187" t="n">
         <v>9500</v>
       </c>
-      <c r="L187" t="n">
-        <v>10000</v>
-      </c>
       <c r="M187" t="n">
-        <v>9708</v>
+        <v>9250</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="Q187" t="n">
         <v>18</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K188" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L188" t="n">
         <v>6500</v>
       </c>
-      <c r="L188" t="n">
-        <v>7000</v>
-      </c>
       <c r="M188" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q188" t="n">
         <v>18</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K189" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="L189" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M189" t="n">
-        <v>10500</v>
+        <v>13750</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>583</v>
+        <v>764</v>
       </c>
       <c r="Q189" t="n">
         <v>18</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K190" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L190" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M190" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="Q190" t="n">
         <v>18</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="K191" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L191" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M191" t="n">
-        <v>4500</v>
+        <v>9708</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>250</v>
+        <v>539</v>
       </c>
       <c r="Q191" t="n">
         <v>18</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K192" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L192" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M192" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>639</v>
+        <v>375</v>
       </c>
       <c r="Q192" t="n">
         <v>18</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K193" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L193" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M193" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>528</v>
+        <v>583</v>
       </c>
       <c r="Q193" t="n">
         <v>18</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K194" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L194" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M194" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="Q194" t="n">
         <v>18</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K195" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L195" t="n">
         <v>5000</v>
       </c>
-      <c r="L195" t="n">
-        <v>6000</v>
-      </c>
       <c r="M195" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="Q195" t="n">
         <v>18</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K196" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L196" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M196" t="n">
-        <v>8750</v>
+        <v>11500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>486</v>
+        <v>639</v>
       </c>
       <c r="Q196" t="n">
         <v>18</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K197" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L197" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M197" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>375</v>
+        <v>528</v>
       </c>
       <c r="Q197" t="n">
         <v>18</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K198" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L198" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M198" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>264</v>
+        <v>417</v>
       </c>
       <c r="Q198" t="n">
         <v>18</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K199" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L199" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M199" t="n">
-        <v>2750</v>
+        <v>5500</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="Q199" t="n">
         <v>18</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14760,13 +14760,13 @@
         <v>300</v>
       </c>
       <c r="K200" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="L200" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M200" t="n">
-        <v>12750</v>
+        <v>8750</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>708</v>
+        <v>486</v>
       </c>
       <c r="Q200" t="n">
         <v>18</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14832,13 +14832,13 @@
         <v>400</v>
       </c>
       <c r="K201" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="L201" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M201" t="n">
-        <v>10750</v>
+        <v>6750</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>597</v>
+        <v>375</v>
       </c>
       <c r="Q201" t="n">
         <v>18</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K202" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L202" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M202" t="n">
-        <v>8750</v>
+        <v>4750</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>486</v>
+        <v>264</v>
       </c>
       <c r="Q202" t="n">
         <v>18</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14976,13 +14976,13 @@
         <v>240</v>
       </c>
       <c r="K203" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L203" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M203" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q203" t="n">
         <v>18</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15048,13 +15048,13 @@
         <v>300</v>
       </c>
       <c r="K204" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L204" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M204" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q204" t="n">
         <v>18</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15120,13 +15120,13 @@
         <v>400</v>
       </c>
       <c r="K205" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="L205" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M205" t="n">
-        <v>6750</v>
+        <v>10750</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="Q205" t="n">
         <v>18</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K206" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L206" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M206" t="n">
-        <v>4750</v>
+        <v>8750</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>264</v>
+        <v>486</v>
       </c>
       <c r="Q206" t="n">
         <v>18</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15264,13 +15264,13 @@
         <v>240</v>
       </c>
       <c r="K207" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L207" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M207" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="Q207" t="n">
         <v>18</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K208" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L208" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M208" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q208" t="n">
         <v>18</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K210" t="n">
         <v>4500</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15549,7 +15549,7 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K211" t="n">
         <v>2500</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K212" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L212" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M212" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q212" t="n">
         <v>18</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K213" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L213" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M213" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q213" t="n">
         <v>18</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K214" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L214" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M214" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q214" t="n">
         <v>18</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K215" t="n">
-        <v>9500</v>
+        <v>2500</v>
       </c>
       <c r="L215" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M215" t="n">
-        <v>9750</v>
+        <v>2750</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>542</v>
+        <v>153</v>
       </c>
       <c r="Q215" t="n">
         <v>18</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J216" t="n">
         <v>300</v>
       </c>
       <c r="K216" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L216" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M216" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q216" t="n">
         <v>18</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K217" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L217" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M217" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q217" t="n">
         <v>18</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44433</v>
+        <v>44251</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K218" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="L218" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M218" t="n">
-        <v>14750</v>
+        <v>5750</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>819</v>
+        <v>319</v>
       </c>
       <c r="Q218" t="n">
         <v>18</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44433</v>
+        <v>44252</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K219" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L219" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M219" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="Q219" t="n">
         <v>18</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44433</v>
+        <v>44252</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K220" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L220" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M220" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q220" t="n">
         <v>18</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44433</v>
+        <v>44252</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K221" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L221" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M221" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q221" t="n">
         <v>18</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K222" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L222" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M222" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="Q222" t="n">
         <v>18</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K223" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L223" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M223" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="Q223" t="n">
         <v>18</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K224" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L224" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M224" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="Q224" t="n">
         <v>18</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K225" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L225" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M225" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q225" t="n">
         <v>18</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K226" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L226" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M226" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q226" t="n">
         <v>18</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K227" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L227" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M227" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q227" t="n">
         <v>18</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K228" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L228" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M228" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q228" t="n">
         <v>18</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K229" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L229" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M229" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q229" t="n">
         <v>18</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K230" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L230" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M230" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q230" t="n">
         <v>18</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K231" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L231" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M231" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q231" t="n">
         <v>18</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K232" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L232" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M232" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q232" t="n">
         <v>18</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K233" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L233" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M233" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q233" t="n">
         <v>18</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K234" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L234" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M234" t="n">
-        <v>9500</v>
+        <v>11750</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>528</v>
+        <v>653</v>
       </c>
       <c r="Q234" t="n">
         <v>18</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K235" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L235" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M235" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>417</v>
+        <v>542</v>
       </c>
       <c r="Q235" t="n">
         <v>18</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K236" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L236" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M236" t="n">
-        <v>5500</v>
+        <v>7750</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="Q236" t="n">
         <v>18</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17424,13 +17424,13 @@
         <v>240</v>
       </c>
       <c r="K237" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L237" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M237" t="n">
-        <v>3500</v>
+        <v>5750</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="Q237" t="n">
         <v>18</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17493,7 +17493,7 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>1600</v>
+        <v>360</v>
       </c>
       <c r="K238" t="n">
         <v>9000</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,7 +17565,7 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K239" t="n">
         <v>7000</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,7 +17637,7 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="K240" t="n">
         <v>5000</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17709,7 +17709,7 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K241" t="n">
         <v>3000</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K242" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L242" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="M242" t="n">
-        <v>12250</v>
+        <v>9500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>681</v>
+        <v>528</v>
       </c>
       <c r="Q242" t="n">
         <v>18</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K243" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L243" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M243" t="n">
-        <v>10250</v>
+        <v>7500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>569</v>
+        <v>417</v>
       </c>
       <c r="Q243" t="n">
         <v>18</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K244" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L244" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M244" t="n">
-        <v>8250</v>
+        <v>5500</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>458</v>
+        <v>306</v>
       </c>
       <c r="Q244" t="n">
         <v>18</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K245" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L245" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M245" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q245" t="n">
         <v>18</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,7 +18069,7 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K246" t="n">
         <v>12000</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,7 +18141,7 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K247" t="n">
         <v>10000</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18213,7 +18213,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K248" t="n">
         <v>8000</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44244</v>
+        <v>44357</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K250" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L250" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="M250" t="n">
-        <v>9750</v>
+        <v>12250</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>542</v>
+        <v>681</v>
       </c>
       <c r="Q250" t="n">
         <v>18</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44244</v>
+        <v>44357</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K251" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L251" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M251" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="Q251" t="n">
         <v>18</v>
@@ -18477,58 +18477,346 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E252" t="n">
+        <v>4</v>
+      </c>
+      <c r="F252" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J252" t="n">
+        <v>400</v>
+      </c>
+      <c r="K252" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L252" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M252" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P252" t="n">
+        <v>458</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>18</v>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>2</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E253" t="n">
+        <v>4</v>
+      </c>
+      <c r="F253" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J253" t="n">
+        <v>300</v>
+      </c>
+      <c r="K253" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L253" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M253" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P253" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>18</v>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="n">
         <v>44244</v>
       </c>
-      <c r="E252" t="n">
-        <v>4</v>
-      </c>
-      <c r="F252" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>Cultivar IV Región</t>
-        </is>
-      </c>
-      <c r="I252" t="inlineStr">
+      <c r="E254" t="n">
+        <v>4</v>
+      </c>
+      <c r="F254" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J254" t="n">
+        <v>240</v>
+      </c>
+      <c r="K254" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L254" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M254" t="n">
+        <v>9750</v>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P254" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>18</v>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E255" t="n">
+        <v>4</v>
+      </c>
+      <c r="F255" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J255" t="n">
+        <v>340</v>
+      </c>
+      <c r="K255" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L255" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M255" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P255" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>18</v>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E256" t="n">
+        <v>4</v>
+      </c>
+      <c r="F256" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J252" t="n">
+      <c r="J256" t="n">
         <v>200</v>
       </c>
-      <c r="K252" t="n">
+      <c r="K256" t="n">
         <v>5500</v>
       </c>
-      <c r="L252" t="n">
+      <c r="L256" t="n">
         <v>6000</v>
       </c>
-      <c r="M252" t="n">
+      <c r="M256" t="n">
         <v>5750</v>
       </c>
-      <c r="N252" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O252" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P252" t="n">
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P256" t="n">
         <v>319</v>
       </c>
-      <c r="Q252" t="n">
-        <v>18</v>
-      </c>
-      <c r="R252" t="inlineStr">
+      <c r="Q256" t="n">
+        <v>18</v>
+      </c>
+      <c r="R256" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R256"/>
+  <dimension ref="A1:R260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K250" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="L250" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M250" t="n">
-        <v>12250</v>
+        <v>13750</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>681</v>
+        <v>764</v>
       </c>
       <c r="Q250" t="n">
         <v>18</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18432,13 +18432,13 @@
         <v>400</v>
       </c>
       <c r="K251" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L251" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M251" t="n">
-        <v>10250</v>
+        <v>11750</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="Q251" t="n">
         <v>18</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18504,13 +18504,13 @@
         <v>400</v>
       </c>
       <c r="K252" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L252" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M252" t="n">
-        <v>8250</v>
+        <v>9750</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="Q252" t="n">
         <v>18</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18576,13 +18576,13 @@
         <v>300</v>
       </c>
       <c r="K253" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L253" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M253" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q253" t="n">
         <v>18</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44244</v>
+        <v>44357</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K254" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L254" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="M254" t="n">
-        <v>9750</v>
+        <v>12250</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>542</v>
+        <v>681</v>
       </c>
       <c r="Q254" t="n">
         <v>18</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44244</v>
+        <v>44357</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K255" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L255" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M255" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="Q255" t="n">
         <v>18</v>
@@ -18765,58 +18765,346 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E256" t="n">
+        <v>4</v>
+      </c>
+      <c r="F256" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J256" t="n">
+        <v>400</v>
+      </c>
+      <c r="K256" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L256" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M256" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P256" t="n">
+        <v>458</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>18</v>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E257" t="n">
+        <v>4</v>
+      </c>
+      <c r="F257" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J257" t="n">
+        <v>300</v>
+      </c>
+      <c r="K257" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L257" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M257" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P257" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>18</v>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>2</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="n">
         <v>44244</v>
       </c>
-      <c r="E256" t="n">
-        <v>4</v>
-      </c>
-      <c r="F256" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>Cultivar IV Región</t>
-        </is>
-      </c>
-      <c r="I256" t="inlineStr">
+      <c r="E258" t="n">
+        <v>4</v>
+      </c>
+      <c r="F258" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J258" t="n">
+        <v>240</v>
+      </c>
+      <c r="K258" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L258" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M258" t="n">
+        <v>9750</v>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P258" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>18</v>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E259" t="n">
+        <v>4</v>
+      </c>
+      <c r="F259" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J259" t="n">
+        <v>340</v>
+      </c>
+      <c r="K259" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L259" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M259" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P259" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>18</v>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E260" t="n">
+        <v>4</v>
+      </c>
+      <c r="F260" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J256" t="n">
+      <c r="J260" t="n">
         <v>200</v>
       </c>
-      <c r="K256" t="n">
+      <c r="K260" t="n">
         <v>5500</v>
       </c>
-      <c r="L256" t="n">
+      <c r="L260" t="n">
         <v>6000</v>
       </c>
-      <c r="M256" t="n">
+      <c r="M260" t="n">
         <v>5750</v>
       </c>
-      <c r="N256" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O256" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P256" t="n">
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P260" t="n">
         <v>319</v>
       </c>
-      <c r="Q256" t="n">
-        <v>18</v>
-      </c>
-      <c r="R256" t="inlineStr">
+      <c r="Q260" t="n">
+        <v>18</v>
+      </c>
+      <c r="R260" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R260"/>
+  <dimension ref="A1:R264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2448,13 +2448,13 @@
         <v>300</v>
       </c>
       <c r="K29" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L29" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M29" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="Q29" t="n">
         <v>18</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2520,13 +2520,13 @@
         <v>400</v>
       </c>
       <c r="K30" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L30" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M30" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K31" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L31" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M31" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q31" t="n">
         <v>18</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K32" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L32" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M32" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q32" t="n">
         <v>18</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44314</v>
+        <v>44384</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K33" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M33" t="n">
-        <v>9500</v>
+        <v>12750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>528</v>
+        <v>708</v>
       </c>
       <c r="Q33" t="n">
         <v>18</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44314</v>
+        <v>44384</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K34" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="L34" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M34" t="n">
-        <v>7500</v>
+        <v>10750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>417</v>
+        <v>597</v>
       </c>
       <c r="Q34" t="n">
         <v>18</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44314</v>
+        <v>44384</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K35" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L35" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M35" t="n">
-        <v>5500</v>
+        <v>8750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>306</v>
+        <v>486</v>
       </c>
       <c r="Q35" t="n">
         <v>18</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44314</v>
+        <v>44384</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K36" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L36" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M36" t="n">
-        <v>3500</v>
+        <v>5750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="Q36" t="n">
         <v>18</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44349</v>
+        <v>44314</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K37" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L37" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M37" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>639</v>
+        <v>528</v>
       </c>
       <c r="Q37" t="n">
         <v>18</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44349</v>
+        <v>44314</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K38" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>528</v>
+        <v>417</v>
       </c>
       <c r="Q38" t="n">
         <v>18</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44349</v>
+        <v>44314</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3168,13 +3168,13 @@
         <v>700</v>
       </c>
       <c r="K39" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L39" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M39" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>417</v>
+        <v>306</v>
       </c>
       <c r="Q39" t="n">
         <v>18</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44349</v>
+        <v>44314</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K40" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L40" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M40" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>306</v>
+        <v>194</v>
       </c>
       <c r="Q40" t="n">
         <v>18</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44412</v>
+        <v>44349</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K41" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L41" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="M41" t="n">
-        <v>13250</v>
+        <v>11500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>736</v>
+        <v>639</v>
       </c>
       <c r="Q41" t="n">
         <v>18</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44412</v>
+        <v>44349</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K42" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L42" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="M42" t="n">
-        <v>11250</v>
+        <v>9500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="Q42" t="n">
         <v>18</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44412</v>
+        <v>44349</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K43" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L43" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M43" t="n">
-        <v>9250</v>
+        <v>7500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>514</v>
+        <v>417</v>
       </c>
       <c r="Q43" t="n">
         <v>18</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44412</v>
+        <v>44349</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K44" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L44" t="n">
         <v>6000</v>
       </c>
-      <c r="L44" t="n">
-        <v>6500</v>
-      </c>
       <c r="M44" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="Q44" t="n">
         <v>18</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44329</v>
+        <v>44412</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K45" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="L45" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="M45" t="n">
-        <v>10750</v>
+        <v>13250</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>597</v>
+        <v>736</v>
       </c>
       <c r="Q45" t="n">
         <v>18</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44329</v>
+        <v>44412</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3672,13 +3672,13 @@
         <v>500</v>
       </c>
       <c r="K46" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L46" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="M46" t="n">
-        <v>8750</v>
+        <v>11250</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>486</v>
+        <v>625</v>
       </c>
       <c r="Q46" t="n">
         <v>18</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44329</v>
+        <v>44412</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K47" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L47" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M47" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="Q47" t="n">
         <v>18</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44329</v>
+        <v>44412</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K48" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L48" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M48" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="Q48" t="n">
         <v>18</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44364</v>
+        <v>44329</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3888,13 +3888,13 @@
         <v>400</v>
       </c>
       <c r="K49" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L49" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M49" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q49" t="n">
         <v>18</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44364</v>
+        <v>44329</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K50" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L50" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M50" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q50" t="n">
         <v>18</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44364</v>
+        <v>44329</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K51" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L51" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M51" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q51" t="n">
         <v>18</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44364</v>
+        <v>44329</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K52" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L52" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M52" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q52" t="n">
         <v>18</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44258</v>
+        <v>44364</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K53" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L53" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M53" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q53" t="n">
         <v>18</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44258</v>
+        <v>44364</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K54" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L54" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M54" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q54" t="n">
         <v>18</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44258</v>
+        <v>44364</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K55" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L55" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M55" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q55" t="n">
         <v>18</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44377</v>
+        <v>44364</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K56" t="n">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="L56" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M56" t="n">
-        <v>12750</v>
+        <v>5750</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>708</v>
+        <v>319</v>
       </c>
       <c r="Q56" t="n">
         <v>18</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44377</v>
+        <v>44258</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="K57" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L57" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M57" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q57" t="n">
         <v>18</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44377</v>
+        <v>44258</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K58" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L58" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M58" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q58" t="n">
         <v>18</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44377</v>
+        <v>44258</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4601,11 +4601,11 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="K59" t="n">
         <v>5500</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44231</v>
+        <v>44377</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K60" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L60" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M60" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="Q60" t="n">
         <v>18</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44231</v>
+        <v>44377</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="K61" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L61" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M61" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q61" t="n">
         <v>18</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44231</v>
+        <v>44377</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K62" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L62" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M62" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q62" t="n">
         <v>18</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44435</v>
+        <v>44377</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="K63" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="L63" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M63" t="n">
-        <v>14750</v>
+        <v>5750</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>819</v>
+        <v>319</v>
       </c>
       <c r="Q63" t="n">
         <v>18</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44435</v>
+        <v>44231</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K64" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L64" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M64" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>708</v>
+        <v>653</v>
       </c>
       <c r="Q64" t="n">
         <v>18</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44435</v>
+        <v>44231</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>760</v>
+        <v>360</v>
       </c>
       <c r="K65" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L65" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M65" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q65" t="n">
         <v>18</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44435</v>
+        <v>44231</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5105,11 +5105,11 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="K66" t="n">
         <v>7500</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44224</v>
+        <v>44435</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="K67" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="L67" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M67" t="n">
-        <v>11750</v>
+        <v>14750</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>653</v>
+        <v>819</v>
       </c>
       <c r="Q67" t="n">
         <v>18</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44224</v>
+        <v>44435</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>240</v>
+        <v>1300</v>
       </c>
       <c r="K68" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L68" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M68" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q68" t="n">
         <v>18</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44224</v>
+        <v>44435</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>240</v>
+        <v>760</v>
       </c>
       <c r="K69" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L69" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M69" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q69" t="n">
         <v>18</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44230</v>
+        <v>44435</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K70" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L70" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M70" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q70" t="n">
         <v>18</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K71" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L71" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M71" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q71" t="n">
         <v>18</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K72" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L72" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M72" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q72" t="n">
         <v>18</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44272</v>
+        <v>44224</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K73" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L73" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M73" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q73" t="n">
         <v>18</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44272</v>
+        <v>44230</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J74" t="n">
         <v>400</v>
       </c>
       <c r="K74" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L74" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M74" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q74" t="n">
         <v>18</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44272</v>
+        <v>44230</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K75" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L75" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M75" t="n">
-        <v>5500</v>
+        <v>9750</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="Q75" t="n">
         <v>18</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44272</v>
+        <v>44230</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K76" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="L76" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M76" t="n">
-        <v>3500</v>
+        <v>7750</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>194</v>
+        <v>431</v>
       </c>
       <c r="Q76" t="n">
         <v>18</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44322</v>
+        <v>44272</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5904,13 +5904,13 @@
         <v>300</v>
       </c>
       <c r="K77" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L77" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M77" t="n">
-        <v>8750</v>
+        <v>9500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="Q77" t="n">
         <v>18</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44322</v>
+        <v>44272</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5976,13 +5976,13 @@
         <v>400</v>
       </c>
       <c r="K78" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L78" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M78" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q78" t="n">
         <v>18</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44322</v>
+        <v>44272</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K79" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L79" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M79" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q79" t="n">
         <v>18</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44322</v>
+        <v>44272</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K80" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L80" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M80" t="n">
-        <v>2750</v>
+        <v>3500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="Q80" t="n">
         <v>18</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44293</v>
+        <v>44322</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K81" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L81" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M81" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q81" t="n">
         <v>18</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44293</v>
+        <v>44322</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K82" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L82" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M82" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q82" t="n">
         <v>18</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44293</v>
+        <v>44322</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K83" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L83" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M83" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q83" t="n">
         <v>18</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44293</v>
+        <v>44322</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K84" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L84" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M84" t="n">
-        <v>3750</v>
+        <v>2750</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="Q84" t="n">
         <v>18</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44238</v>
+        <v>44293</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K85" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L85" t="n">
         <v>10000</v>
       </c>
-      <c r="L85" t="n">
-        <v>11000</v>
-      </c>
       <c r="M85" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="Q85" t="n">
         <v>18</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44238</v>
+        <v>44293</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K86" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L86" t="n">
         <v>8000</v>
       </c>
-      <c r="L86" t="n">
-        <v>9000</v>
-      </c>
       <c r="M86" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="Q86" t="n">
         <v>18</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44238</v>
+        <v>44293</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K87" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L87" t="n">
         <v>6000</v>
       </c>
-      <c r="L87" t="n">
-        <v>7000</v>
-      </c>
       <c r="M87" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="Q87" t="n">
         <v>18</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44406</v>
+        <v>44293</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K88" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="L88" t="n">
-        <v>13500</v>
+        <v>4000</v>
       </c>
       <c r="M88" t="n">
-        <v>13250</v>
+        <v>3750</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>736</v>
+        <v>208</v>
       </c>
       <c r="Q88" t="n">
         <v>18</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44406</v>
+        <v>44238</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K89" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L89" t="n">
         <v>11000</v>
       </c>
-      <c r="L89" t="n">
-        <v>11500</v>
-      </c>
       <c r="M89" t="n">
-        <v>11250</v>
+        <v>10500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="Q89" t="n">
         <v>18</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44406</v>
+        <v>44238</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="K90" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L90" t="n">
         <v>9000</v>
       </c>
-      <c r="L90" t="n">
-        <v>9500</v>
-      </c>
       <c r="M90" t="n">
-        <v>9250</v>
+        <v>8500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>514</v>
+        <v>472</v>
       </c>
       <c r="Q90" t="n">
         <v>18</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44406</v>
+        <v>44238</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6905,21 +6905,21 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K91" t="n">
         <v>6000</v>
       </c>
       <c r="L91" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M91" t="n">
         <v>6500</v>
       </c>
-      <c r="M91" t="n">
-        <v>6250</v>
-      </c>
       <c r="N91" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="Q91" t="n">
         <v>18</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K92" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L92" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M92" t="n">
-        <v>12742</v>
+        <v>13250</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>708</v>
+        <v>736</v>
       </c>
       <c r="Q92" t="n">
         <v>18</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K93" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="L93" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="M93" t="n">
-        <v>10750</v>
+        <v>11250</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="Q93" t="n">
         <v>18</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="K94" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L94" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M94" t="n">
-        <v>8750</v>
+        <v>9250</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="Q94" t="n">
         <v>18</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K95" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L95" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M95" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q95" t="n">
         <v>18</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K96" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L96" t="n">
         <v>13000</v>
       </c>
-      <c r="L96" t="n">
-        <v>13500</v>
-      </c>
       <c r="M96" t="n">
-        <v>13250</v>
+        <v>12742</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="Q96" t="n">
         <v>18</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K97" t="n">
+        <v>10500</v>
+      </c>
+      <c r="L97" t="n">
         <v>11000</v>
       </c>
-      <c r="L97" t="n">
-        <v>11500</v>
-      </c>
       <c r="M97" t="n">
-        <v>11250</v>
+        <v>10750</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>625</v>
+        <v>597</v>
       </c>
       <c r="Q97" t="n">
         <v>18</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K98" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L98" t="n">
         <v>9000</v>
       </c>
-      <c r="L98" t="n">
-        <v>9500</v>
-      </c>
       <c r="M98" t="n">
-        <v>9250</v>
+        <v>8750</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="Q98" t="n">
         <v>18</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K99" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L99" t="n">
         <v>6000</v>
       </c>
-      <c r="L99" t="n">
-        <v>6500</v>
-      </c>
       <c r="M99" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q99" t="n">
         <v>18</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44216</v>
+        <v>44391</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J100" t="n">
         <v>240</v>
       </c>
       <c r="K100" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L100" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="M100" t="n">
-        <v>9750</v>
+        <v>13250</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>542</v>
+        <v>736</v>
       </c>
       <c r="Q100" t="n">
         <v>18</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44216</v>
+        <v>44391</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K101" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L101" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="M101" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>431</v>
+        <v>625</v>
       </c>
       <c r="Q101" t="n">
         <v>18</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44216</v>
+        <v>44391</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K102" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L102" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="M102" t="n">
-        <v>5750</v>
+        <v>9250</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>319</v>
+        <v>514</v>
       </c>
       <c r="Q102" t="n">
         <v>18</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44245</v>
+        <v>44391</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K103" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L103" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M103" t="n">
-        <v>9750</v>
+        <v>6250</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>542</v>
+        <v>347</v>
       </c>
       <c r="Q103" t="n">
         <v>18</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44245</v>
+        <v>44216</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K104" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L104" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M104" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q104" t="n">
         <v>18</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44245</v>
+        <v>44216</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K105" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L105" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M105" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q105" t="n">
         <v>18</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44419</v>
+        <v>44216</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K106" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="L106" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M106" t="n">
-        <v>13750</v>
+        <v>5750</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>764</v>
+        <v>319</v>
       </c>
       <c r="Q106" t="n">
         <v>18</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44419</v>
+        <v>44245</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K107" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L107" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M107" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q107" t="n">
         <v>18</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44419</v>
+        <v>44245</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K108" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L108" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M108" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q108" t="n">
         <v>18</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44419</v>
+        <v>44245</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K109" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L109" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M109" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q109" t="n">
         <v>18</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K110" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="L110" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M110" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>819</v>
+        <v>764</v>
       </c>
       <c r="Q110" t="n">
         <v>18</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K111" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L111" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M111" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>708</v>
+        <v>653</v>
       </c>
       <c r="Q111" t="n">
         <v>18</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K112" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L112" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M112" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q112" t="n">
         <v>18</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K113" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L113" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M113" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q113" t="n">
         <v>18</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K114" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="L114" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M114" t="n">
-        <v>8750</v>
+        <v>14750</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>486</v>
+        <v>819</v>
       </c>
       <c r="Q114" t="n">
         <v>18</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K115" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="L115" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M115" t="n">
-        <v>6750</v>
+        <v>12750</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>375</v>
+        <v>708</v>
       </c>
       <c r="Q115" t="n">
         <v>18</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K116" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="L116" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M116" t="n">
-        <v>4750</v>
+        <v>10750</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>264</v>
+        <v>597</v>
       </c>
       <c r="Q116" t="n">
         <v>18</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K117" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="L117" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M117" t="n">
-        <v>2750</v>
+        <v>7750</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>153</v>
+        <v>431</v>
       </c>
       <c r="Q117" t="n">
         <v>18</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K118" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L118" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M118" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q118" t="n">
         <v>18</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K119" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L119" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M119" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q119" t="n">
         <v>18</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K120" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L120" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M120" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q120" t="n">
         <v>18</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K121" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L121" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M121" t="n">
-        <v>3750</v>
+        <v>2750</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="Q121" t="n">
         <v>18</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K122" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L122" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M122" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="Q122" t="n">
         <v>18</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K123" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L123" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M123" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q123" t="n">
         <v>18</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9288,13 +9288,13 @@
         <v>400</v>
       </c>
       <c r="K124" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L124" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M124" t="n">
-        <v>8750</v>
+        <v>5750</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="Q124" t="n">
         <v>18</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K125" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L125" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M125" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q125" t="n">
         <v>18</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K126" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L126" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M126" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="Q126" t="n">
         <v>18</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K127" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L127" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M127" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q127" t="n">
         <v>18</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9576,13 +9576,13 @@
         <v>400</v>
       </c>
       <c r="K128" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L128" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M128" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q128" t="n">
         <v>18</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9648,13 +9648,13 @@
         <v>200</v>
       </c>
       <c r="K129" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L129" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M129" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q129" t="n">
         <v>18</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K130" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L130" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M130" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="Q130" t="n">
         <v>18</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K131" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L131" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M131" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q131" t="n">
         <v>18</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9864,13 +9864,13 @@
         <v>400</v>
       </c>
       <c r="K132" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L132" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M132" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q132" t="n">
         <v>18</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9936,13 +9936,13 @@
         <v>200</v>
       </c>
       <c r="K133" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L133" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M133" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q133" t="n">
         <v>18</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K134" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L134" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M134" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>819</v>
+        <v>708</v>
       </c>
       <c r="Q134" t="n">
         <v>18</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K135" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="L135" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M135" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>708</v>
+        <v>597</v>
       </c>
       <c r="Q135" t="n">
         <v>18</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K136" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L136" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M136" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>597</v>
+        <v>486</v>
       </c>
       <c r="Q136" t="n">
         <v>18</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44307</v>
+        <v>44405</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K137" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L137" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M137" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q137" t="n">
         <v>18</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44307</v>
+        <v>44161</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K138" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="L138" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M138" t="n">
-        <v>6750</v>
+        <v>14750</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>375</v>
+        <v>819</v>
       </c>
       <c r="Q138" t="n">
         <v>18</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44307</v>
+        <v>44161</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K139" t="n">
-        <v>4500</v>
+        <v>12500</v>
       </c>
       <c r="L139" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M139" t="n">
-        <v>4750</v>
+        <v>12750</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>264</v>
+        <v>708</v>
       </c>
       <c r="Q139" t="n">
         <v>18</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44307</v>
+        <v>44161</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K140" t="n">
-        <v>2500</v>
+        <v>10500</v>
       </c>
       <c r="L140" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="M140" t="n">
-        <v>2750</v>
+        <v>10750</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>153</v>
+        <v>597</v>
       </c>
       <c r="Q140" t="n">
         <v>18</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10512,13 +10512,13 @@
         <v>300</v>
       </c>
       <c r="K141" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L141" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M141" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q141" t="n">
         <v>18</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K142" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L142" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M142" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q142" t="n">
         <v>18</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K143" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L143" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M143" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="Q143" t="n">
         <v>18</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K144" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L144" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M144" t="n">
-        <v>3750</v>
+        <v>2750</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="Q144" t="n">
         <v>18</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K145" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="L145" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M145" t="n">
-        <v>13750</v>
+        <v>11750</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>764</v>
+        <v>653</v>
       </c>
       <c r="Q145" t="n">
         <v>18</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K146" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L146" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M146" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q146" t="n">
         <v>18</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K147" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L147" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M147" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q147" t="n">
         <v>18</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K148" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L148" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M148" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="Q148" t="n">
         <v>18</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11088,13 +11088,13 @@
         <v>240</v>
       </c>
       <c r="K149" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L149" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M149" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q149" t="n">
         <v>18</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11160,13 +11160,13 @@
         <v>400</v>
       </c>
       <c r="K150" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L150" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M150" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q150" t="n">
         <v>18</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K151" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L151" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M151" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q151" t="n">
         <v>18</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11304,13 +11304,13 @@
         <v>300</v>
       </c>
       <c r="K152" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L152" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M152" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q152" t="n">
         <v>18</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K153" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L153" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M153" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="Q153" t="n">
         <v>18</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11448,13 +11448,13 @@
         <v>400</v>
       </c>
       <c r="K154" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L154" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M154" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q154" t="n">
         <v>18</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K155" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L155" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M155" t="n">
-        <v>8750</v>
+        <v>5750</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="Q155" t="n">
         <v>18</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K156" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L156" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M156" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q156" t="n">
         <v>18</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11661,7 +11661,7 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K157" t="n">
         <v>12500</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K158" t="n">
         <v>10500</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11805,7 +11805,7 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="K159" t="n">
         <v>8500</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11877,7 +11877,7 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K160" t="n">
         <v>5500</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K161" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L161" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M161" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="Q161" t="n">
         <v>18</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K162" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L162" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M162" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q162" t="n">
         <v>18</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12096,13 +12096,13 @@
         <v>360</v>
       </c>
       <c r="K163" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L163" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M163" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q163" t="n">
         <v>18</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12168,13 +12168,13 @@
         <v>300</v>
       </c>
       <c r="K164" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L164" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M164" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q164" t="n">
         <v>18</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="K165" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L165" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M165" t="n">
-        <v>12736</v>
+        <v>13750</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="Q165" t="n">
         <v>18</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K166" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L166" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M166" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q166" t="n">
         <v>18</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K167" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L167" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M167" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q167" t="n">
         <v>18</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K168" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L168" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M168" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q168" t="n">
         <v>18</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="K169" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L169" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M169" t="n">
-        <v>10500</v>
+        <v>12736</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>583</v>
+        <v>708</v>
       </c>
       <c r="Q169" t="n">
         <v>18</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K170" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L170" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M170" t="n">
-        <v>8500</v>
+        <v>10750</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>472</v>
+        <v>597</v>
       </c>
       <c r="Q170" t="n">
         <v>18</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K171" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L171" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M171" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>361</v>
+        <v>486</v>
       </c>
       <c r="Q171" t="n">
         <v>18</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44210</v>
+        <v>44370</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K172" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="L172" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M172" t="n">
-        <v>11750</v>
+        <v>5750</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>653</v>
+        <v>319</v>
       </c>
       <c r="Q172" t="n">
         <v>18</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44210</v>
+        <v>44237</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K173" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L173" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M173" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="Q173" t="n">
         <v>18</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44210</v>
+        <v>44237</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K174" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L174" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M174" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q174" t="n">
         <v>18</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44217</v>
+        <v>44237</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K175" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L175" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M175" t="n">
-        <v>9750</v>
+        <v>6500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>542</v>
+        <v>361</v>
       </c>
       <c r="Q175" t="n">
         <v>18</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
         <v>240</v>
       </c>
       <c r="K176" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L176" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M176" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q176" t="n">
         <v>18</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K177" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L177" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M177" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q177" t="n">
         <v>18</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44266</v>
+        <v>44210</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J178" t="n">
         <v>240</v>
       </c>
       <c r="K178" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L178" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M178" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>583</v>
+        <v>431</v>
       </c>
       <c r="Q178" t="n">
         <v>18</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13248,13 +13248,13 @@
         <v>240</v>
       </c>
       <c r="K179" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L179" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M179" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="Q179" t="n">
         <v>18</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K180" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L180" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M180" t="n">
-        <v>4500</v>
+        <v>7750</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>250</v>
+        <v>431</v>
       </c>
       <c r="Q180" t="n">
         <v>18</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K181" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L181" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="M181" t="n">
-        <v>12250</v>
+        <v>5750</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>681</v>
+        <v>319</v>
       </c>
       <c r="Q181" t="n">
         <v>18</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13457,21 +13457,21 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K182" t="n">
         <v>10000</v>
       </c>
       <c r="L182" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M182" t="n">
         <v>10500</v>
       </c>
-      <c r="M182" t="n">
-        <v>10250</v>
-      </c>
       <c r="N182" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="Q182" t="n">
         <v>18</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13529,21 +13529,21 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K183" t="n">
         <v>8000</v>
       </c>
       <c r="L183" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M183" t="n">
         <v>8500</v>
       </c>
-      <c r="M183" t="n">
-        <v>8250</v>
-      </c>
       <c r="N183" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="Q183" t="n">
         <v>18</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K184" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L184" t="n">
         <v>5000</v>
       </c>
-      <c r="L184" t="n">
-        <v>6000</v>
-      </c>
       <c r="M184" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="Q184" t="n">
         <v>18</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K185" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L185" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="M185" t="n">
-        <v>13250</v>
+        <v>12250</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>736</v>
+        <v>681</v>
       </c>
       <c r="Q185" t="n">
         <v>18</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K186" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L186" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="M186" t="n">
-        <v>11250</v>
+        <v>10250</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>625</v>
+        <v>569</v>
       </c>
       <c r="Q186" t="n">
         <v>18</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K187" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L187" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="M187" t="n">
-        <v>9250</v>
+        <v>8250</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="Q187" t="n">
         <v>18</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K188" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L188" t="n">
         <v>6000</v>
       </c>
-      <c r="L188" t="n">
-        <v>6500</v>
-      </c>
       <c r="M188" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="Q188" t="n">
         <v>18</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K189" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L189" t="n">
         <v>13500</v>
       </c>
-      <c r="L189" t="n">
-        <v>14000</v>
-      </c>
       <c r="M189" t="n">
-        <v>13750</v>
+        <v>13250</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="Q189" t="n">
         <v>18</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K190" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L190" t="n">
         <v>11500</v>
       </c>
-      <c r="L190" t="n">
-        <v>12000</v>
-      </c>
       <c r="M190" t="n">
-        <v>11750</v>
+        <v>11250</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="Q190" t="n">
         <v>18</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="K191" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L191" t="n">
         <v>9500</v>
       </c>
-      <c r="L191" t="n">
-        <v>10000</v>
-      </c>
       <c r="M191" t="n">
-        <v>9708</v>
+        <v>9250</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="Q191" t="n">
         <v>18</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K192" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L192" t="n">
         <v>6500</v>
       </c>
-      <c r="L192" t="n">
-        <v>7000</v>
-      </c>
       <c r="M192" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q192" t="n">
         <v>18</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K193" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="L193" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M193" t="n">
-        <v>10500</v>
+        <v>13750</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>583</v>
+        <v>764</v>
       </c>
       <c r="Q193" t="n">
         <v>18</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K194" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L194" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M194" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="Q194" t="n">
         <v>18</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="K195" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L195" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M195" t="n">
-        <v>4500</v>
+        <v>9708</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>250</v>
+        <v>539</v>
       </c>
       <c r="Q195" t="n">
         <v>18</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K196" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L196" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M196" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>639</v>
+        <v>375</v>
       </c>
       <c r="Q196" t="n">
         <v>18</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K197" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L197" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M197" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>528</v>
+        <v>583</v>
       </c>
       <c r="Q197" t="n">
         <v>18</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K198" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L198" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M198" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="Q198" t="n">
         <v>18</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K199" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L199" t="n">
         <v>5000</v>
       </c>
-      <c r="L199" t="n">
-        <v>6000</v>
-      </c>
       <c r="M199" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="Q199" t="n">
         <v>18</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K200" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L200" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M200" t="n">
-        <v>8750</v>
+        <v>11500</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>486</v>
+        <v>639</v>
       </c>
       <c r="Q200" t="n">
         <v>18</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K201" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L201" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M201" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>375</v>
+        <v>528</v>
       </c>
       <c r="Q201" t="n">
         <v>18</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K202" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L202" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M202" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>264</v>
+        <v>417</v>
       </c>
       <c r="Q202" t="n">
         <v>18</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K203" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L203" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M203" t="n">
-        <v>2750</v>
+        <v>5500</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="Q203" t="n">
         <v>18</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15048,13 +15048,13 @@
         <v>300</v>
       </c>
       <c r="K204" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="L204" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M204" t="n">
-        <v>12750</v>
+        <v>8750</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>708</v>
+        <v>486</v>
       </c>
       <c r="Q204" t="n">
         <v>18</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15120,13 +15120,13 @@
         <v>400</v>
       </c>
       <c r="K205" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="L205" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M205" t="n">
-        <v>10750</v>
+        <v>6750</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>597</v>
+        <v>375</v>
       </c>
       <c r="Q205" t="n">
         <v>18</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K206" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L206" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M206" t="n">
-        <v>8750</v>
+        <v>4750</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>486</v>
+        <v>264</v>
       </c>
       <c r="Q206" t="n">
         <v>18</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15264,13 +15264,13 @@
         <v>240</v>
       </c>
       <c r="K207" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L207" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M207" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q207" t="n">
         <v>18</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15336,13 +15336,13 @@
         <v>300</v>
       </c>
       <c r="K208" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L208" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M208" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q208" t="n">
         <v>18</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15408,13 +15408,13 @@
         <v>400</v>
       </c>
       <c r="K209" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="L209" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M209" t="n">
-        <v>6750</v>
+        <v>10750</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="Q209" t="n">
         <v>18</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K210" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L210" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M210" t="n">
-        <v>4750</v>
+        <v>8750</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>264</v>
+        <v>486</v>
       </c>
       <c r="Q210" t="n">
         <v>18</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15552,13 +15552,13 @@
         <v>240</v>
       </c>
       <c r="K211" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L211" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M211" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="Q211" t="n">
         <v>18</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K212" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L212" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M212" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q212" t="n">
         <v>18</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15765,7 +15765,7 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K214" t="n">
         <v>4500</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15837,7 +15837,7 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K215" t="n">
         <v>2500</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K216" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L216" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M216" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q216" t="n">
         <v>18</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K217" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L217" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M217" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q217" t="n">
         <v>18</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K218" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L218" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M218" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q218" t="n">
         <v>18</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K219" t="n">
-        <v>9500</v>
+        <v>2500</v>
       </c>
       <c r="L219" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M219" t="n">
-        <v>9750</v>
+        <v>2750</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>542</v>
+        <v>153</v>
       </c>
       <c r="Q219" t="n">
         <v>18</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J220" t="n">
         <v>300</v>
       </c>
       <c r="K220" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L220" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M220" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q220" t="n">
         <v>18</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K221" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L221" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M221" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q221" t="n">
         <v>18</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44433</v>
+        <v>44251</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16337,20 +16337,20 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K222" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="L222" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M222" t="n">
-        <v>14750</v>
+        <v>5750</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>819</v>
+        <v>319</v>
       </c>
       <c r="Q222" t="n">
         <v>18</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44433</v>
+        <v>44252</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K223" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L223" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M223" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="Q223" t="n">
         <v>18</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44433</v>
+        <v>44252</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K224" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L224" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M224" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q224" t="n">
         <v>18</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44433</v>
+        <v>44252</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K225" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L225" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M225" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q225" t="n">
         <v>18</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K226" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L226" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M226" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="Q226" t="n">
         <v>18</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K227" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L227" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M227" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="Q227" t="n">
         <v>18</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K228" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L228" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M228" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="Q228" t="n">
         <v>18</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K229" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L229" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M229" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q229" t="n">
         <v>18</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K230" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L230" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M230" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q230" t="n">
         <v>18</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K231" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L231" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M231" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q231" t="n">
         <v>18</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K232" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L232" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M232" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q232" t="n">
         <v>18</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K233" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L233" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M233" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q233" t="n">
         <v>18</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K234" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L234" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M234" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q234" t="n">
         <v>18</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K235" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L235" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M235" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q235" t="n">
         <v>18</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K236" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L236" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M236" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q236" t="n">
         <v>18</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K237" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L237" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M237" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q237" t="n">
         <v>18</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K238" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L238" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M238" t="n">
-        <v>9500</v>
+        <v>11750</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>528</v>
+        <v>653</v>
       </c>
       <c r="Q238" t="n">
         <v>18</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K239" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L239" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M239" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>417</v>
+        <v>542</v>
       </c>
       <c r="Q239" t="n">
         <v>18</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K240" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L240" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M240" t="n">
-        <v>5500</v>
+        <v>7750</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="Q240" t="n">
         <v>18</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17712,13 +17712,13 @@
         <v>240</v>
       </c>
       <c r="K241" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L241" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M241" t="n">
-        <v>3500</v>
+        <v>5750</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="Q241" t="n">
         <v>18</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17781,7 +17781,7 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>1600</v>
+        <v>360</v>
       </c>
       <c r="K242" t="n">
         <v>9000</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,7 +17853,7 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K243" t="n">
         <v>7000</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17925,7 +17925,7 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="K244" t="n">
         <v>5000</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,7 +17997,7 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K245" t="n">
         <v>3000</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K246" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L246" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="M246" t="n">
-        <v>12250</v>
+        <v>9500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>681</v>
+        <v>528</v>
       </c>
       <c r="Q246" t="n">
         <v>18</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K247" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L247" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M247" t="n">
-        <v>10250</v>
+        <v>7500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>569</v>
+        <v>417</v>
       </c>
       <c r="Q247" t="n">
         <v>18</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K248" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L248" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M248" t="n">
-        <v>8250</v>
+        <v>5500</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>458</v>
+        <v>306</v>
       </c>
       <c r="Q248" t="n">
         <v>18</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K249" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L249" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M249" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q249" t="n">
         <v>18</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K250" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L250" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M250" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>764</v>
+        <v>681</v>
       </c>
       <c r="Q250" t="n">
         <v>18</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K251" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L251" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M251" t="n">
-        <v>11750</v>
+        <v>10250</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>653</v>
+        <v>569</v>
       </c>
       <c r="Q251" t="n">
         <v>18</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K252" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L252" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M252" t="n">
-        <v>9750</v>
+        <v>8250</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>542</v>
+        <v>458</v>
       </c>
       <c r="Q252" t="n">
         <v>18</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18576,13 +18576,13 @@
         <v>300</v>
       </c>
       <c r="K253" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L253" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M253" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q253" t="n">
         <v>18</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K254" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="L254" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M254" t="n">
-        <v>12250</v>
+        <v>13750</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>681</v>
+        <v>764</v>
       </c>
       <c r="Q254" t="n">
         <v>18</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18720,13 +18720,13 @@
         <v>400</v>
       </c>
       <c r="K255" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L255" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M255" t="n">
-        <v>10250</v>
+        <v>11750</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="Q255" t="n">
         <v>18</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18792,13 +18792,13 @@
         <v>400</v>
       </c>
       <c r="K256" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L256" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M256" t="n">
-        <v>8250</v>
+        <v>9750</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="Q256" t="n">
         <v>18</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18864,13 +18864,13 @@
         <v>300</v>
       </c>
       <c r="K257" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L257" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M257" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q257" t="n">
         <v>18</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44244</v>
+        <v>44357</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K258" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L258" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="M258" t="n">
-        <v>9750</v>
+        <v>12250</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>542</v>
+        <v>681</v>
       </c>
       <c r="Q258" t="n">
         <v>18</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44244</v>
+        <v>44357</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K259" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L259" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M259" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="Q259" t="n">
         <v>18</v>
@@ -19053,58 +19053,346 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E260" t="n">
+        <v>4</v>
+      </c>
+      <c r="F260" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J260" t="n">
+        <v>400</v>
+      </c>
+      <c r="K260" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L260" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M260" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P260" t="n">
+        <v>458</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>18</v>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E261" t="n">
+        <v>4</v>
+      </c>
+      <c r="F261" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J261" t="n">
+        <v>300</v>
+      </c>
+      <c r="K261" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L261" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M261" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P261" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>18</v>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>2</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="n">
         <v>44244</v>
       </c>
-      <c r="E260" t="n">
-        <v>4</v>
-      </c>
-      <c r="F260" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>Cultivar IV Región</t>
-        </is>
-      </c>
-      <c r="I260" t="inlineStr">
+      <c r="E262" t="n">
+        <v>4</v>
+      </c>
+      <c r="F262" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J262" t="n">
+        <v>240</v>
+      </c>
+      <c r="K262" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L262" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M262" t="n">
+        <v>9750</v>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P262" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>18</v>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E263" t="n">
+        <v>4</v>
+      </c>
+      <c r="F263" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J263" t="n">
+        <v>340</v>
+      </c>
+      <c r="K263" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L263" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M263" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P263" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>18</v>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E264" t="n">
+        <v>4</v>
+      </c>
+      <c r="F264" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J260" t="n">
+      <c r="J264" t="n">
         <v>200</v>
       </c>
-      <c r="K260" t="n">
+      <c r="K264" t="n">
         <v>5500</v>
       </c>
-      <c r="L260" t="n">
+      <c r="L264" t="n">
         <v>6000</v>
       </c>
-      <c r="M260" t="n">
+      <c r="M264" t="n">
         <v>5750</v>
       </c>
-      <c r="N260" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O260" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P260" t="n">
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P264" t="n">
         <v>319</v>
       </c>
-      <c r="Q260" t="n">
-        <v>18</v>
-      </c>
-      <c r="R260" t="inlineStr">
+      <c r="Q264" t="n">
+        <v>18</v>
+      </c>
+      <c r="R264" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R264"/>
+  <dimension ref="A1:R268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K212" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L212" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M212" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q212" t="n">
         <v>18</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15696,13 +15696,13 @@
         <v>400</v>
       </c>
       <c r="K213" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L213" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M213" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>375</v>
+        <v>653</v>
       </c>
       <c r="Q213" t="n">
         <v>18</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15768,13 +15768,13 @@
         <v>300</v>
       </c>
       <c r="K214" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L214" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M214" t="n">
-        <v>4750</v>
+        <v>9750</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>264</v>
+        <v>542</v>
       </c>
       <c r="Q214" t="n">
         <v>18</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K215" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L215" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M215" t="n">
-        <v>2750</v>
+        <v>6750</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="Q215" t="n">
         <v>18</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K216" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L216" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M216" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q216" t="n">
         <v>18</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16053,7 +16053,7 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K218" t="n">
         <v>4500</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16125,7 +16125,7 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K219" t="n">
         <v>2500</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K220" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L220" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M220" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q220" t="n">
         <v>18</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K221" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L221" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M221" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q221" t="n">
         <v>18</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K222" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L222" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M222" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q222" t="n">
         <v>18</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K223" t="n">
-        <v>9500</v>
+        <v>2500</v>
       </c>
       <c r="L223" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M223" t="n">
-        <v>9750</v>
+        <v>2750</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>542</v>
+        <v>153</v>
       </c>
       <c r="Q223" t="n">
         <v>18</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J224" t="n">
         <v>300</v>
       </c>
       <c r="K224" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L224" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M224" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q224" t="n">
         <v>18</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K225" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L225" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M225" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q225" t="n">
         <v>18</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44433</v>
+        <v>44251</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K226" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="L226" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M226" t="n">
-        <v>14750</v>
+        <v>5750</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>819</v>
+        <v>319</v>
       </c>
       <c r="Q226" t="n">
         <v>18</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44433</v>
+        <v>44252</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16697,20 +16697,20 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K227" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L227" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M227" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="Q227" t="n">
         <v>18</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44433</v>
+        <v>44252</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K228" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L228" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M228" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q228" t="n">
         <v>18</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44433</v>
+        <v>44252</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K229" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L229" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M229" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q229" t="n">
         <v>18</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K230" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L230" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M230" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="Q230" t="n">
         <v>18</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K231" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L231" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M231" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="Q231" t="n">
         <v>18</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K232" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L232" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M232" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="Q232" t="n">
         <v>18</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K233" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L233" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M233" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q233" t="n">
         <v>18</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K234" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L234" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M234" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q234" t="n">
         <v>18</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K235" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L235" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M235" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q235" t="n">
         <v>18</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K236" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L236" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M236" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q236" t="n">
         <v>18</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K237" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L237" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M237" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q237" t="n">
         <v>18</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K238" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L238" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M238" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q238" t="n">
         <v>18</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K239" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L239" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M239" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q239" t="n">
         <v>18</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K240" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L240" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M240" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q240" t="n">
         <v>18</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K241" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L241" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M241" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q241" t="n">
         <v>18</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K242" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L242" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M242" t="n">
-        <v>9500</v>
+        <v>11750</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>528</v>
+        <v>653</v>
       </c>
       <c r="Q242" t="n">
         <v>18</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K243" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L243" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M243" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>417</v>
+        <v>542</v>
       </c>
       <c r="Q243" t="n">
         <v>18</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K244" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L244" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M244" t="n">
-        <v>5500</v>
+        <v>7750</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="Q244" t="n">
         <v>18</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -18000,13 +18000,13 @@
         <v>240</v>
       </c>
       <c r="K245" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L245" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M245" t="n">
-        <v>3500</v>
+        <v>5750</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="Q245" t="n">
         <v>18</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,7 +18069,7 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>1600</v>
+        <v>360</v>
       </c>
       <c r="K246" t="n">
         <v>9000</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,7 +18141,7 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K247" t="n">
         <v>7000</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18213,7 +18213,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="K248" t="n">
         <v>5000</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,7 +18285,7 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K249" t="n">
         <v>3000</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K250" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L250" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="M250" t="n">
-        <v>12250</v>
+        <v>9500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>681</v>
+        <v>528</v>
       </c>
       <c r="Q250" t="n">
         <v>18</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K251" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L251" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M251" t="n">
-        <v>10250</v>
+        <v>7500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>569</v>
+        <v>417</v>
       </c>
       <c r="Q251" t="n">
         <v>18</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K252" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L252" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M252" t="n">
-        <v>8250</v>
+        <v>5500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>458</v>
+        <v>306</v>
       </c>
       <c r="Q252" t="n">
         <v>18</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K253" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L253" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M253" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q253" t="n">
         <v>18</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K254" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L254" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M254" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>764</v>
+        <v>681</v>
       </c>
       <c r="Q254" t="n">
         <v>18</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K255" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L255" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M255" t="n">
-        <v>11750</v>
+        <v>10250</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>653</v>
+        <v>569</v>
       </c>
       <c r="Q255" t="n">
         <v>18</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K256" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L256" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M256" t="n">
-        <v>9750</v>
+        <v>8250</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>542</v>
+        <v>458</v>
       </c>
       <c r="Q256" t="n">
         <v>18</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18864,13 +18864,13 @@
         <v>300</v>
       </c>
       <c r="K257" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L257" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M257" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q257" t="n">
         <v>18</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K258" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="L258" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M258" t="n">
-        <v>12250</v>
+        <v>13750</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>681</v>
+        <v>764</v>
       </c>
       <c r="Q258" t="n">
         <v>18</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19008,13 +19008,13 @@
         <v>400</v>
       </c>
       <c r="K259" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L259" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M259" t="n">
-        <v>10250</v>
+        <v>11750</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="Q259" t="n">
         <v>18</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19080,13 +19080,13 @@
         <v>400</v>
       </c>
       <c r="K260" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L260" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M260" t="n">
-        <v>8250</v>
+        <v>9750</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="Q260" t="n">
         <v>18</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19152,13 +19152,13 @@
         <v>300</v>
       </c>
       <c r="K261" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L261" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M261" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q261" t="n">
         <v>18</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44244</v>
+        <v>44357</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K262" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L262" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="M262" t="n">
-        <v>9750</v>
+        <v>12250</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>542</v>
+        <v>681</v>
       </c>
       <c r="Q262" t="n">
         <v>18</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44244</v>
+        <v>44357</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K263" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L263" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M263" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="Q263" t="n">
         <v>18</v>
@@ -19341,58 +19341,346 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E264" t="n">
+        <v>4</v>
+      </c>
+      <c r="F264" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J264" t="n">
+        <v>400</v>
+      </c>
+      <c r="K264" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L264" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M264" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P264" t="n">
+        <v>458</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>18</v>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E265" t="n">
+        <v>4</v>
+      </c>
+      <c r="F265" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J265" t="n">
+        <v>300</v>
+      </c>
+      <c r="K265" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L265" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M265" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P265" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>18</v>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>2</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
         <v>44244</v>
       </c>
-      <c r="E264" t="n">
-        <v>4</v>
-      </c>
-      <c r="F264" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>Cultivar IV Región</t>
-        </is>
-      </c>
-      <c r="I264" t="inlineStr">
+      <c r="E266" t="n">
+        <v>4</v>
+      </c>
+      <c r="F266" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J266" t="n">
+        <v>240</v>
+      </c>
+      <c r="K266" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L266" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M266" t="n">
+        <v>9750</v>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P266" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>18</v>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>2</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E267" t="n">
+        <v>4</v>
+      </c>
+      <c r="F267" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J267" t="n">
+        <v>340</v>
+      </c>
+      <c r="K267" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L267" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M267" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P267" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>18</v>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>2</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E268" t="n">
+        <v>4</v>
+      </c>
+      <c r="F268" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J264" t="n">
+      <c r="J268" t="n">
         <v>200</v>
       </c>
-      <c r="K264" t="n">
+      <c r="K268" t="n">
         <v>5500</v>
       </c>
-      <c r="L264" t="n">
+      <c r="L268" t="n">
         <v>6000</v>
       </c>
-      <c r="M264" t="n">
+      <c r="M268" t="n">
         <v>5750</v>
       </c>
-      <c r="N264" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O264" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P264" t="n">
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P268" t="n">
         <v>319</v>
       </c>
-      <c r="Q264" t="n">
-        <v>18</v>
-      </c>
-      <c r="R264" t="inlineStr">
+      <c r="Q268" t="n">
+        <v>18</v>
+      </c>
+      <c r="R268" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R268"/>
+  <dimension ref="A1:R272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44385</v>
+        <v>44469</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="K96" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L96" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M96" t="n">
-        <v>12742</v>
+        <v>13750</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="Q96" t="n">
         <v>18</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44385</v>
+        <v>44469</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7344,13 +7344,13 @@
         <v>400</v>
       </c>
       <c r="K97" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L97" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M97" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q97" t="n">
         <v>18</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44385</v>
+        <v>44469</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7416,13 +7416,13 @@
         <v>300</v>
       </c>
       <c r="K98" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L98" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M98" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q98" t="n">
         <v>18</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44385</v>
+        <v>44469</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K99" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L99" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M99" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q99" t="n">
         <v>18</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K100" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L100" t="n">
         <v>13000</v>
       </c>
-      <c r="L100" t="n">
-        <v>13500</v>
-      </c>
       <c r="M100" t="n">
-        <v>13250</v>
+        <v>12742</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="Q100" t="n">
         <v>18</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K101" t="n">
+        <v>10500</v>
+      </c>
+      <c r="L101" t="n">
         <v>11000</v>
       </c>
-      <c r="L101" t="n">
-        <v>11500</v>
-      </c>
       <c r="M101" t="n">
-        <v>11250</v>
+        <v>10750</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>625</v>
+        <v>597</v>
       </c>
       <c r="Q101" t="n">
         <v>18</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K102" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L102" t="n">
         <v>9000</v>
       </c>
-      <c r="L102" t="n">
-        <v>9500</v>
-      </c>
       <c r="M102" t="n">
-        <v>9250</v>
+        <v>8750</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="Q102" t="n">
         <v>18</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K103" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L103" t="n">
         <v>6000</v>
       </c>
-      <c r="L103" t="n">
-        <v>6500</v>
-      </c>
       <c r="M103" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q103" t="n">
         <v>18</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44216</v>
+        <v>44391</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J104" t="n">
         <v>240</v>
       </c>
       <c r="K104" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L104" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="M104" t="n">
-        <v>9750</v>
+        <v>13250</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>542</v>
+        <v>736</v>
       </c>
       <c r="Q104" t="n">
         <v>18</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44216</v>
+        <v>44391</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K105" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L105" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="M105" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>431</v>
+        <v>625</v>
       </c>
       <c r="Q105" t="n">
         <v>18</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44216</v>
+        <v>44391</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K106" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L106" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="M106" t="n">
-        <v>5750</v>
+        <v>9250</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>319</v>
+        <v>514</v>
       </c>
       <c r="Q106" t="n">
         <v>18</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44245</v>
+        <v>44391</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K107" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L107" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M107" t="n">
-        <v>9750</v>
+        <v>6250</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>542</v>
+        <v>347</v>
       </c>
       <c r="Q107" t="n">
         <v>18</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44245</v>
+        <v>44216</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K108" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L108" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M108" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q108" t="n">
         <v>18</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44245</v>
+        <v>44216</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K109" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L109" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M109" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q109" t="n">
         <v>18</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44419</v>
+        <v>44216</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K110" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="L110" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M110" t="n">
-        <v>13750</v>
+        <v>5750</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>764</v>
+        <v>319</v>
       </c>
       <c r="Q110" t="n">
         <v>18</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44419</v>
+        <v>44245</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K111" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L111" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M111" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q111" t="n">
         <v>18</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44419</v>
+        <v>44245</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K112" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L112" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M112" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q112" t="n">
         <v>18</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44419</v>
+        <v>44245</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K113" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L113" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M113" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q113" t="n">
         <v>18</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K114" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="L114" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M114" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>819</v>
+        <v>764</v>
       </c>
       <c r="Q114" t="n">
         <v>18</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K115" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L115" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M115" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>708</v>
+        <v>653</v>
       </c>
       <c r="Q115" t="n">
         <v>18</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K116" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L116" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M116" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q116" t="n">
         <v>18</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K117" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L117" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M117" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q117" t="n">
         <v>18</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K118" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="L118" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M118" t="n">
-        <v>8750</v>
+        <v>14750</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>486</v>
+        <v>819</v>
       </c>
       <c r="Q118" t="n">
         <v>18</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K119" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="L119" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M119" t="n">
-        <v>6750</v>
+        <v>12750</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>375</v>
+        <v>708</v>
       </c>
       <c r="Q119" t="n">
         <v>18</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K120" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="L120" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M120" t="n">
-        <v>4750</v>
+        <v>10750</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>264</v>
+        <v>597</v>
       </c>
       <c r="Q120" t="n">
         <v>18</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K121" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="L121" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M121" t="n">
-        <v>2750</v>
+        <v>7750</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>153</v>
+        <v>431</v>
       </c>
       <c r="Q121" t="n">
         <v>18</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K122" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L122" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M122" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q122" t="n">
         <v>18</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K123" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L123" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M123" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q123" t="n">
         <v>18</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K124" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L124" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M124" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q124" t="n">
         <v>18</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K125" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L125" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M125" t="n">
-        <v>3750</v>
+        <v>2750</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="Q125" t="n">
         <v>18</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K126" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L126" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M126" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="Q126" t="n">
         <v>18</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K127" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L127" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M127" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q127" t="n">
         <v>18</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9576,13 +9576,13 @@
         <v>400</v>
       </c>
       <c r="K128" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L128" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M128" t="n">
-        <v>8750</v>
+        <v>5750</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="Q128" t="n">
         <v>18</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K129" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L129" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M129" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q129" t="n">
         <v>18</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K130" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L130" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M130" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="Q130" t="n">
         <v>18</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K131" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L131" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M131" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q131" t="n">
         <v>18</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9864,13 +9864,13 @@
         <v>400</v>
       </c>
       <c r="K132" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L132" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M132" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q132" t="n">
         <v>18</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9936,13 +9936,13 @@
         <v>200</v>
       </c>
       <c r="K133" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L133" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M133" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q133" t="n">
         <v>18</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K134" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L134" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M134" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="Q134" t="n">
         <v>18</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K135" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L135" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M135" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q135" t="n">
         <v>18</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10152,13 +10152,13 @@
         <v>400</v>
       </c>
       <c r="K136" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L136" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M136" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q136" t="n">
         <v>18</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10224,13 +10224,13 @@
         <v>200</v>
       </c>
       <c r="K137" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L137" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M137" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q137" t="n">
         <v>18</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K138" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L138" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M138" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>819</v>
+        <v>708</v>
       </c>
       <c r="Q138" t="n">
         <v>18</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K139" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="L139" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M139" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>708</v>
+        <v>597</v>
       </c>
       <c r="Q139" t="n">
         <v>18</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K140" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L140" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M140" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>597</v>
+        <v>486</v>
       </c>
       <c r="Q140" t="n">
         <v>18</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44307</v>
+        <v>44405</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K141" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L141" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M141" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q141" t="n">
         <v>18</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44307</v>
+        <v>44161</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K142" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="L142" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M142" t="n">
-        <v>6750</v>
+        <v>14750</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>375</v>
+        <v>819</v>
       </c>
       <c r="Q142" t="n">
         <v>18</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44307</v>
+        <v>44161</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K143" t="n">
-        <v>4500</v>
+        <v>12500</v>
       </c>
       <c r="L143" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M143" t="n">
-        <v>4750</v>
+        <v>12750</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>264</v>
+        <v>708</v>
       </c>
       <c r="Q143" t="n">
         <v>18</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44307</v>
+        <v>44161</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K144" t="n">
-        <v>2500</v>
+        <v>10500</v>
       </c>
       <c r="L144" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="M144" t="n">
-        <v>2750</v>
+        <v>10750</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>153</v>
+        <v>597</v>
       </c>
       <c r="Q144" t="n">
         <v>18</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10800,13 +10800,13 @@
         <v>300</v>
       </c>
       <c r="K145" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L145" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M145" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q145" t="n">
         <v>18</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K146" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L146" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M146" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q146" t="n">
         <v>18</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K147" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L147" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M147" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="Q147" t="n">
         <v>18</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K148" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L148" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M148" t="n">
-        <v>3750</v>
+        <v>2750</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="Q148" t="n">
         <v>18</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K149" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="L149" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M149" t="n">
-        <v>13750</v>
+        <v>11750</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>764</v>
+        <v>653</v>
       </c>
       <c r="Q149" t="n">
         <v>18</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K150" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L150" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M150" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q150" t="n">
         <v>18</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K151" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L151" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M151" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q151" t="n">
         <v>18</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K152" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L152" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M152" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="Q152" t="n">
         <v>18</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11376,13 +11376,13 @@
         <v>240</v>
       </c>
       <c r="K153" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L153" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M153" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q153" t="n">
         <v>18</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11448,13 +11448,13 @@
         <v>400</v>
       </c>
       <c r="K154" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L154" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M154" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q154" t="n">
         <v>18</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K155" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L155" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M155" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q155" t="n">
         <v>18</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11592,13 +11592,13 @@
         <v>300</v>
       </c>
       <c r="K156" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L156" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M156" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q156" t="n">
         <v>18</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K157" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L157" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M157" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="Q157" t="n">
         <v>18</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11736,13 +11736,13 @@
         <v>400</v>
       </c>
       <c r="K158" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L158" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M158" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q158" t="n">
         <v>18</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K159" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L159" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M159" t="n">
-        <v>8750</v>
+        <v>5750</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="Q159" t="n">
         <v>18</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K160" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L160" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M160" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q160" t="n">
         <v>18</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K161" t="n">
         <v>12500</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K162" t="n">
         <v>10500</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12093,7 +12093,7 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="K163" t="n">
         <v>8500</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12165,7 +12165,7 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K164" t="n">
         <v>5500</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K165" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L165" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M165" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="Q165" t="n">
         <v>18</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K166" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L166" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M166" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q166" t="n">
         <v>18</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12384,13 +12384,13 @@
         <v>360</v>
       </c>
       <c r="K167" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L167" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M167" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q167" t="n">
         <v>18</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12456,13 +12456,13 @@
         <v>300</v>
       </c>
       <c r="K168" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L168" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M168" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q168" t="n">
         <v>18</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="K169" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L169" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M169" t="n">
-        <v>12736</v>
+        <v>13750</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="Q169" t="n">
         <v>18</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K170" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L170" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M170" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q170" t="n">
         <v>18</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K171" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L171" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M171" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q171" t="n">
         <v>18</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K172" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L172" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M172" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q172" t="n">
         <v>18</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="K173" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L173" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M173" t="n">
-        <v>10500</v>
+        <v>12736</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>583</v>
+        <v>708</v>
       </c>
       <c r="Q173" t="n">
         <v>18</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K174" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L174" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M174" t="n">
-        <v>8500</v>
+        <v>10750</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>472</v>
+        <v>597</v>
       </c>
       <c r="Q174" t="n">
         <v>18</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K175" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L175" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M175" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>361</v>
+        <v>486</v>
       </c>
       <c r="Q175" t="n">
         <v>18</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44210</v>
+        <v>44370</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K176" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="L176" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M176" t="n">
-        <v>11750</v>
+        <v>5750</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>653</v>
+        <v>319</v>
       </c>
       <c r="Q176" t="n">
         <v>18</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44210</v>
+        <v>44237</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K177" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L177" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M177" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="Q177" t="n">
         <v>18</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44210</v>
+        <v>44237</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K178" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L178" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M178" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q178" t="n">
         <v>18</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44217</v>
+        <v>44237</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K179" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L179" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M179" t="n">
-        <v>9750</v>
+        <v>6500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>542</v>
+        <v>361</v>
       </c>
       <c r="Q179" t="n">
         <v>18</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J180" t="n">
         <v>240</v>
       </c>
       <c r="K180" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L180" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M180" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q180" t="n">
         <v>18</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K181" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L181" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M181" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q181" t="n">
         <v>18</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44266</v>
+        <v>44210</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J182" t="n">
         <v>240</v>
       </c>
       <c r="K182" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L182" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M182" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>583</v>
+        <v>431</v>
       </c>
       <c r="Q182" t="n">
         <v>18</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13536,13 +13536,13 @@
         <v>240</v>
       </c>
       <c r="K183" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L183" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M183" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="Q183" t="n">
         <v>18</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K184" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L184" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M184" t="n">
-        <v>4500</v>
+        <v>7750</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>250</v>
+        <v>431</v>
       </c>
       <c r="Q184" t="n">
         <v>18</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K185" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L185" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="M185" t="n">
-        <v>12250</v>
+        <v>5750</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>681</v>
+        <v>319</v>
       </c>
       <c r="Q185" t="n">
         <v>18</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13745,21 +13745,21 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K186" t="n">
         <v>10000</v>
       </c>
       <c r="L186" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M186" t="n">
         <v>10500</v>
       </c>
-      <c r="M186" t="n">
-        <v>10250</v>
-      </c>
       <c r="N186" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="Q186" t="n">
         <v>18</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13817,21 +13817,21 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K187" t="n">
         <v>8000</v>
       </c>
       <c r="L187" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M187" t="n">
         <v>8500</v>
       </c>
-      <c r="M187" t="n">
-        <v>8250</v>
-      </c>
       <c r="N187" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="Q187" t="n">
         <v>18</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K188" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L188" t="n">
         <v>5000</v>
       </c>
-      <c r="L188" t="n">
-        <v>6000</v>
-      </c>
       <c r="M188" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="Q188" t="n">
         <v>18</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K189" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L189" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="M189" t="n">
-        <v>13250</v>
+        <v>12250</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>736</v>
+        <v>681</v>
       </c>
       <c r="Q189" t="n">
         <v>18</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K190" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L190" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="M190" t="n">
-        <v>11250</v>
+        <v>10250</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>625</v>
+        <v>569</v>
       </c>
       <c r="Q190" t="n">
         <v>18</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K191" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L191" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="M191" t="n">
-        <v>9250</v>
+        <v>8250</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="Q191" t="n">
         <v>18</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K192" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L192" t="n">
         <v>6000</v>
       </c>
-      <c r="L192" t="n">
-        <v>6500</v>
-      </c>
       <c r="M192" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="Q192" t="n">
         <v>18</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K193" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L193" t="n">
         <v>13500</v>
       </c>
-      <c r="L193" t="n">
-        <v>14000</v>
-      </c>
       <c r="M193" t="n">
-        <v>13750</v>
+        <v>13250</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="Q193" t="n">
         <v>18</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K194" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L194" t="n">
         <v>11500</v>
       </c>
-      <c r="L194" t="n">
-        <v>12000</v>
-      </c>
       <c r="M194" t="n">
-        <v>11750</v>
+        <v>11250</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="Q194" t="n">
         <v>18</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="K195" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L195" t="n">
         <v>9500</v>
       </c>
-      <c r="L195" t="n">
-        <v>10000</v>
-      </c>
       <c r="M195" t="n">
-        <v>9708</v>
+        <v>9250</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="Q195" t="n">
         <v>18</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K196" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L196" t="n">
         <v>6500</v>
       </c>
-      <c r="L196" t="n">
-        <v>7000</v>
-      </c>
       <c r="M196" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q196" t="n">
         <v>18</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K197" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="L197" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M197" t="n">
-        <v>10500</v>
+        <v>13750</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>583</v>
+        <v>764</v>
       </c>
       <c r="Q197" t="n">
         <v>18</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K198" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L198" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M198" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="Q198" t="n">
         <v>18</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="K199" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L199" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M199" t="n">
-        <v>4500</v>
+        <v>9708</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>250</v>
+        <v>539</v>
       </c>
       <c r="Q199" t="n">
         <v>18</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K200" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L200" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M200" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>639</v>
+        <v>375</v>
       </c>
       <c r="Q200" t="n">
         <v>18</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K201" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L201" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M201" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>528</v>
+        <v>583</v>
       </c>
       <c r="Q201" t="n">
         <v>18</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K202" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L202" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M202" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="Q202" t="n">
         <v>18</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K203" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L203" t="n">
         <v>5000</v>
       </c>
-      <c r="L203" t="n">
-        <v>6000</v>
-      </c>
       <c r="M203" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="Q203" t="n">
         <v>18</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K204" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L204" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M204" t="n">
-        <v>8750</v>
+        <v>11500</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>486</v>
+        <v>639</v>
       </c>
       <c r="Q204" t="n">
         <v>18</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K205" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L205" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M205" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>375</v>
+        <v>528</v>
       </c>
       <c r="Q205" t="n">
         <v>18</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K206" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L206" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M206" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>264</v>
+        <v>417</v>
       </c>
       <c r="Q206" t="n">
         <v>18</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K207" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L207" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M207" t="n">
-        <v>2750</v>
+        <v>5500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="Q207" t="n">
         <v>18</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15336,13 +15336,13 @@
         <v>300</v>
       </c>
       <c r="K208" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="L208" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M208" t="n">
-        <v>12750</v>
+        <v>8750</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>708</v>
+        <v>486</v>
       </c>
       <c r="Q208" t="n">
         <v>18</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15408,13 +15408,13 @@
         <v>400</v>
       </c>
       <c r="K209" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="L209" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M209" t="n">
-        <v>10750</v>
+        <v>6750</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>597</v>
+        <v>375</v>
       </c>
       <c r="Q209" t="n">
         <v>18</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K210" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L210" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M210" t="n">
-        <v>8750</v>
+        <v>4750</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>486</v>
+        <v>264</v>
       </c>
       <c r="Q210" t="n">
         <v>18</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15552,13 +15552,13 @@
         <v>240</v>
       </c>
       <c r="K211" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L211" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M211" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q211" t="n">
         <v>18</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44468</v>
+        <v>44447</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K212" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L212" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M212" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="Q212" t="n">
         <v>18</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44468</v>
+        <v>44447</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15696,13 +15696,13 @@
         <v>400</v>
       </c>
       <c r="K213" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L213" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M213" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q213" t="n">
         <v>18</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44468</v>
+        <v>44447</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K214" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L214" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M214" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q214" t="n">
         <v>18</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44468</v>
+        <v>44447</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K215" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L215" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M215" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q215" t="n">
         <v>18</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K216" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L216" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M216" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q216" t="n">
         <v>18</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15984,13 +15984,13 @@
         <v>400</v>
       </c>
       <c r="K217" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L217" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M217" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>375</v>
+        <v>653</v>
       </c>
       <c r="Q217" t="n">
         <v>18</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16056,13 +16056,13 @@
         <v>300</v>
       </c>
       <c r="K218" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L218" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M218" t="n">
-        <v>4750</v>
+        <v>9750</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>264</v>
+        <v>542</v>
       </c>
       <c r="Q218" t="n">
         <v>18</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K219" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L219" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M219" t="n">
-        <v>2750</v>
+        <v>6750</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="Q219" t="n">
         <v>18</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K220" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L220" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M220" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q220" t="n">
         <v>18</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K222" t="n">
         <v>4500</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,7 +16413,7 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K223" t="n">
         <v>2500</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K224" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L224" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M224" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q224" t="n">
         <v>18</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K225" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L225" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M225" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q225" t="n">
         <v>18</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K226" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L226" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M226" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="Q226" t="n">
         <v>18</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16697,20 +16697,20 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K227" t="n">
-        <v>9500</v>
+        <v>2500</v>
       </c>
       <c r="L227" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M227" t="n">
-        <v>9750</v>
+        <v>2750</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>542</v>
+        <v>153</v>
       </c>
       <c r="Q227" t="n">
         <v>18</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J228" t="n">
         <v>300</v>
       </c>
       <c r="K228" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L228" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M228" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q228" t="n">
         <v>18</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K229" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L229" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M229" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q229" t="n">
         <v>18</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44433</v>
+        <v>44251</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K230" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="L230" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M230" t="n">
-        <v>14750</v>
+        <v>5750</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>819</v>
+        <v>319</v>
       </c>
       <c r="Q230" t="n">
         <v>18</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44433</v>
+        <v>44252</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16985,20 +16985,20 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K231" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L231" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M231" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="Q231" t="n">
         <v>18</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44433</v>
+        <v>44252</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K232" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L232" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M232" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q232" t="n">
         <v>18</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44433</v>
+        <v>44252</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17129,20 +17129,20 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K233" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L233" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M233" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q233" t="n">
         <v>18</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K234" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L234" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M234" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="Q234" t="n">
         <v>18</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K235" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L235" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M235" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="Q235" t="n">
         <v>18</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K236" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L236" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M236" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="Q236" t="n">
         <v>18</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K237" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L237" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M237" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q237" t="n">
         <v>18</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K238" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L238" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M238" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q238" t="n">
         <v>18</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K239" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L239" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M239" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q239" t="n">
         <v>18</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K240" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L240" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M240" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q240" t="n">
         <v>18</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K241" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L241" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M241" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q241" t="n">
         <v>18</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K242" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L242" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M242" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q242" t="n">
         <v>18</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K243" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L243" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M243" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q243" t="n">
         <v>18</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K244" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L244" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M244" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q244" t="n">
         <v>18</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K245" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L245" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M245" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q245" t="n">
         <v>18</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K246" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L246" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M246" t="n">
-        <v>9500</v>
+        <v>11750</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>528</v>
+        <v>653</v>
       </c>
       <c r="Q246" t="n">
         <v>18</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K247" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L247" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M247" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>417</v>
+        <v>542</v>
       </c>
       <c r="Q247" t="n">
         <v>18</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K248" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L248" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M248" t="n">
-        <v>5500</v>
+        <v>7750</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="Q248" t="n">
         <v>18</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18288,13 +18288,13 @@
         <v>240</v>
       </c>
       <c r="K249" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L249" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M249" t="n">
-        <v>3500</v>
+        <v>5750</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="Q249" t="n">
         <v>18</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1600</v>
+        <v>360</v>
       </c>
       <c r="K250" t="n">
         <v>9000</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,7 +18429,7 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K251" t="n">
         <v>7000</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18501,7 +18501,7 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="K252" t="n">
         <v>5000</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18573,7 +18573,7 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K253" t="n">
         <v>3000</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K254" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L254" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="M254" t="n">
-        <v>12250</v>
+        <v>9500</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>681</v>
+        <v>528</v>
       </c>
       <c r="Q254" t="n">
         <v>18</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K255" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L255" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M255" t="n">
-        <v>10250</v>
+        <v>7500</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>569</v>
+        <v>417</v>
       </c>
       <c r="Q255" t="n">
         <v>18</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K256" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L256" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M256" t="n">
-        <v>8250</v>
+        <v>5500</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>458</v>
+        <v>306</v>
       </c>
       <c r="Q256" t="n">
         <v>18</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K257" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L257" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M257" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q257" t="n">
         <v>18</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K258" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L258" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M258" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>764</v>
+        <v>681</v>
       </c>
       <c r="Q258" t="n">
         <v>18</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K259" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L259" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M259" t="n">
-        <v>11750</v>
+        <v>10250</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>653</v>
+        <v>569</v>
       </c>
       <c r="Q259" t="n">
         <v>18</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K260" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L260" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M260" t="n">
-        <v>9750</v>
+        <v>8250</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>542</v>
+        <v>458</v>
       </c>
       <c r="Q260" t="n">
         <v>18</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19152,13 +19152,13 @@
         <v>300</v>
       </c>
       <c r="K261" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L261" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M261" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q261" t="n">
         <v>18</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K262" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="L262" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M262" t="n">
-        <v>12250</v>
+        <v>13750</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>681</v>
+        <v>764</v>
       </c>
       <c r="Q262" t="n">
         <v>18</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19296,13 +19296,13 @@
         <v>400</v>
       </c>
       <c r="K263" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L263" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M263" t="n">
-        <v>10250</v>
+        <v>11750</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="Q263" t="n">
         <v>18</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19368,13 +19368,13 @@
         <v>400</v>
       </c>
       <c r="K264" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L264" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M264" t="n">
-        <v>8250</v>
+        <v>9750</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="Q264" t="n">
         <v>18</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19440,13 +19440,13 @@
         <v>300</v>
       </c>
       <c r="K265" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L265" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M265" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q265" t="n">
         <v>18</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44244</v>
+        <v>44357</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K266" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L266" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="M266" t="n">
-        <v>9750</v>
+        <v>12250</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>542</v>
+        <v>681</v>
       </c>
       <c r="Q266" t="n">
         <v>18</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44244</v>
+        <v>44357</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K267" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L267" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M267" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="Q267" t="n">
         <v>18</v>
@@ -19629,58 +19629,346 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E268" t="n">
+        <v>4</v>
+      </c>
+      <c r="F268" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J268" t="n">
+        <v>400</v>
+      </c>
+      <c r="K268" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L268" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M268" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P268" t="n">
+        <v>458</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>18</v>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>2</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E269" t="n">
+        <v>4</v>
+      </c>
+      <c r="F269" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J269" t="n">
+        <v>300</v>
+      </c>
+      <c r="K269" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L269" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M269" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P269" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>18</v>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
         <v>44244</v>
       </c>
-      <c r="E268" t="n">
-        <v>4</v>
-      </c>
-      <c r="F268" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>Cultivar IV Región</t>
-        </is>
-      </c>
-      <c r="I268" t="inlineStr">
+      <c r="E270" t="n">
+        <v>4</v>
+      </c>
+      <c r="F270" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J270" t="n">
+        <v>240</v>
+      </c>
+      <c r="K270" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L270" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M270" t="n">
+        <v>9750</v>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P270" t="n">
+        <v>542</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>18</v>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E271" t="n">
+        <v>4</v>
+      </c>
+      <c r="F271" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J271" t="n">
+        <v>340</v>
+      </c>
+      <c r="K271" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L271" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M271" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P271" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>18</v>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>2</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E272" t="n">
+        <v>4</v>
+      </c>
+      <c r="F272" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J268" t="n">
+      <c r="J272" t="n">
         <v>200</v>
       </c>
-      <c r="K268" t="n">
+      <c r="K272" t="n">
         <v>5500</v>
       </c>
-      <c r="L268" t="n">
+      <c r="L272" t="n">
         <v>6000</v>
       </c>
-      <c r="M268" t="n">
+      <c r="M272" t="n">
         <v>5750</v>
       </c>
-      <c r="N268" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O268" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P268" t="n">
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P272" t="n">
         <v>319</v>
       </c>
-      <c r="Q268" t="n">
-        <v>18</v>
-      </c>
-      <c r="R268" t="inlineStr">
+      <c r="Q272" t="n">
+        <v>18</v>
+      </c>
+      <c r="R272" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R276"/>
+  <dimension ref="A1:R280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17133,7 +17133,7 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K233" t="n">
         <v>13500</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K234" t="n">
         <v>11500</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K235" t="n">
         <v>9500</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,7 +17349,7 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K236" t="n">
         <v>6500</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K237" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L237" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M237" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="Q237" t="n">
         <v>18</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17496,13 +17496,13 @@
         <v>400</v>
       </c>
       <c r="K238" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L238" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M238" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q238" t="n">
         <v>18</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K239" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L239" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M239" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q239" t="n">
         <v>18</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17640,13 +17640,13 @@
         <v>200</v>
       </c>
       <c r="K240" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L240" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M240" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q240" t="n">
         <v>18</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K241" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L241" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M241" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="Q241" t="n">
         <v>18</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K242" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L242" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M242" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q242" t="n">
         <v>18</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K243" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L243" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M243" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q243" t="n">
         <v>18</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17925,7 +17925,7 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K244" t="n">
         <v>5500</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K245" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L245" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M245" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>486</v>
+        <v>653</v>
       </c>
       <c r="Q245" t="n">
         <v>18</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K246" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L246" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M246" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q246" t="n">
         <v>18</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K247" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L247" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M247" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="Q247" t="n">
         <v>18</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K248" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L248" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M248" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="Q248" t="n">
         <v>18</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K249" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L249" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="M249" t="n">
-        <v>12250</v>
+        <v>8750</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>681</v>
+        <v>486</v>
       </c>
       <c r="Q249" t="n">
         <v>18</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18360,13 +18360,13 @@
         <v>400</v>
       </c>
       <c r="K250" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L250" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="M250" t="n">
-        <v>10250</v>
+        <v>6750</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>569</v>
+        <v>375</v>
       </c>
       <c r="Q250" t="n">
         <v>18</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K251" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L251" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M251" t="n">
-        <v>8250</v>
+        <v>4750</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>458</v>
+        <v>264</v>
       </c>
       <c r="Q251" t="n">
         <v>18</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18504,13 +18504,13 @@
         <v>300</v>
       </c>
       <c r="K252" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L252" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M252" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q252" t="n">
         <v>18</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K253" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L253" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="M253" t="n">
-        <v>9750</v>
+        <v>12250</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>542</v>
+        <v>681</v>
       </c>
       <c r="Q253" t="n">
         <v>18</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18648,13 +18648,13 @@
         <v>400</v>
       </c>
       <c r="K254" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L254" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M254" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="Q254" t="n">
         <v>18</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K255" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L255" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M255" t="n">
-        <v>5750</v>
+        <v>8250</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>319</v>
+        <v>458</v>
       </c>
       <c r="Q255" t="n">
         <v>18</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18792,13 +18792,13 @@
         <v>300</v>
       </c>
       <c r="K256" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L256" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M256" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q256" t="n">
         <v>18</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K257" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L257" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M257" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q257" t="n">
         <v>18</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18936,13 +18936,13 @@
         <v>400</v>
       </c>
       <c r="K258" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L258" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M258" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="Q258" t="n">
         <v>18</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K259" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L259" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M259" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q259" t="n">
         <v>18</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19080,13 +19080,13 @@
         <v>300</v>
       </c>
       <c r="K260" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L260" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M260" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q260" t="n">
         <v>18</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K261" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L261" t="n">
         <v>9000</v>
       </c>
-      <c r="L261" t="n">
-        <v>10000</v>
-      </c>
       <c r="M261" t="n">
-        <v>9500</v>
+        <v>8750</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="Q261" t="n">
         <v>18</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K262" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L262" t="n">
         <v>7000</v>
       </c>
-      <c r="L262" t="n">
-        <v>8000</v>
-      </c>
       <c r="M262" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q262" t="n">
         <v>18</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K263" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L263" t="n">
         <v>5000</v>
       </c>
-      <c r="L263" t="n">
-        <v>6000</v>
-      </c>
       <c r="M263" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q263" t="n">
         <v>18</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K264" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L264" t="n">
         <v>3000</v>
       </c>
-      <c r="L264" t="n">
-        <v>4000</v>
-      </c>
       <c r="M264" t="n">
-        <v>3500</v>
+        <v>2750</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="Q264" t="n">
         <v>18</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K265" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L265" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M265" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>708</v>
+        <v>528</v>
       </c>
       <c r="Q265" t="n">
         <v>18</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K266" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L266" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M266" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>597</v>
+        <v>417</v>
       </c>
       <c r="Q266" t="n">
         <v>18</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K267" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L267" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M267" t="n">
-        <v>8750</v>
+        <v>5500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="Q267" t="n">
         <v>18</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K268" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L268" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M268" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q268" t="n">
         <v>18</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19728,13 +19728,13 @@
         <v>300</v>
       </c>
       <c r="K269" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L269" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M269" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="Q269" t="n">
         <v>18</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19800,13 +19800,13 @@
         <v>400</v>
       </c>
       <c r="K270" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L270" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M270" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q270" t="n">
         <v>18</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K271" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L271" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M271" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q271" t="n">
         <v>18</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K272" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L272" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M272" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q272" t="n">
         <v>18</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K273" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="L273" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M273" t="n">
-        <v>9500</v>
+        <v>13750</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>528</v>
+        <v>764</v>
       </c>
       <c r="Q273" t="n">
         <v>18</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K274" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L274" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M274" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q274" t="n">
         <v>18</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K275" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L275" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M275" t="n">
-        <v>5500</v>
+        <v>9750</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="Q275" t="n">
         <v>18</v>
@@ -20205,58 +20205,346 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E276" t="n">
+        <v>4</v>
+      </c>
+      <c r="F276" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J276" t="n">
+        <v>300</v>
+      </c>
+      <c r="K276" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L276" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M276" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P276" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>18</v>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>2</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D277" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="E276" t="n">
-        <v>4</v>
-      </c>
-      <c r="F276" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>Cultivar IV Región</t>
-        </is>
-      </c>
-      <c r="I276" t="inlineStr">
+      <c r="E277" t="n">
+        <v>4</v>
+      </c>
+      <c r="F277" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J277" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K277" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L277" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M277" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P277" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>18</v>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>2</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E278" t="n">
+        <v>4</v>
+      </c>
+      <c r="F278" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J278" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K278" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L278" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M278" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P278" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>18</v>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D279" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E279" t="n">
+        <v>4</v>
+      </c>
+      <c r="F279" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J279" t="n">
+        <v>800</v>
+      </c>
+      <c r="K279" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L279" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M279" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P279" t="n">
+        <v>306</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>18</v>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>2</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E280" t="n">
+        <v>4</v>
+      </c>
+      <c r="F280" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J276" t="n">
+      <c r="J280" t="n">
         <v>400</v>
       </c>
-      <c r="K276" t="n">
+      <c r="K280" t="n">
         <v>3000</v>
       </c>
-      <c r="L276" t="n">
+      <c r="L280" t="n">
         <v>4000</v>
       </c>
-      <c r="M276" t="n">
+      <c r="M280" t="n">
         <v>3500</v>
       </c>
-      <c r="N276" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O276" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P276" t="n">
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P280" t="n">
         <v>194</v>
       </c>
-      <c r="Q276" t="n">
-        <v>18</v>
-      </c>
-      <c r="R276" t="inlineStr">
+      <c r="Q280" t="n">
+        <v>18</v>
+      </c>
+      <c r="R280" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R280"/>
+  <dimension ref="A1:R284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K95" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L95" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M95" t="n">
-        <v>13250</v>
+        <v>13750</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="Q95" t="n">
         <v>18</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K96" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L96" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="M96" t="n">
-        <v>11250</v>
+        <v>11750</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="Q96" t="n">
         <v>18</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K97" t="n">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="L97" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="M97" t="n">
-        <v>9250</v>
+        <v>9600</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="Q97" t="n">
         <v>18</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K98" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L98" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M98" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="Q98" t="n">
         <v>18</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K99" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L99" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M99" t="n">
-        <v>11750</v>
+        <v>13250</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>653</v>
+        <v>736</v>
       </c>
       <c r="Q99" t="n">
         <v>18</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K100" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L100" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="M100" t="n">
-        <v>9750</v>
+        <v>11250</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>542</v>
+        <v>625</v>
       </c>
       <c r="Q100" t="n">
         <v>18</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K101" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L101" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M101" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="Q101" t="n">
         <v>18</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K102" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L102" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M102" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="Q102" t="n">
         <v>18</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7776,13 +7776,13 @@
         <v>300</v>
       </c>
       <c r="K103" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L103" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M103" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q103" t="n">
         <v>18</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K104" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L104" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M104" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q104" t="n">
         <v>18</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K105" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L105" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M105" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q105" t="n">
         <v>18</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7992,13 +7992,13 @@
         <v>240</v>
       </c>
       <c r="K106" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L106" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M106" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q106" t="n">
         <v>18</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8064,13 +8064,13 @@
         <v>300</v>
       </c>
       <c r="K107" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L107" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M107" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q107" t="n">
         <v>18</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,7 +8205,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K109" t="n">
         <v>4500</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K111" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L111" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M111" t="n">
-        <v>10500</v>
+        <v>8750</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>583</v>
+        <v>486</v>
       </c>
       <c r="Q111" t="n">
         <v>18</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K112" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L112" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M112" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>472</v>
+        <v>375</v>
       </c>
       <c r="Q112" t="n">
         <v>18</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K113" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L113" t="n">
         <v>5000</v>
       </c>
       <c r="M113" t="n">
-        <v>4500</v>
+        <v>4750</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q113" t="n">
         <v>18</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44224</v>
+        <v>44322</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K114" t="n">
-        <v>11500</v>
+        <v>2500</v>
       </c>
       <c r="L114" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="M114" t="n">
-        <v>11750</v>
+        <v>2750</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>653</v>
+        <v>153</v>
       </c>
       <c r="Q114" t="n">
         <v>18</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K115" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L115" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M115" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="Q115" t="n">
         <v>18</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
         <v>240</v>
       </c>
       <c r="K116" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L116" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M116" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q116" t="n">
         <v>18</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44315</v>
+        <v>44265</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K117" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L117" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M117" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>528</v>
+        <v>250</v>
       </c>
       <c r="Q117" t="n">
         <v>18</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K118" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L118" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M118" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q118" t="n">
         <v>18</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K119" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L119" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M119" t="n">
-        <v>5500</v>
+        <v>9750</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="Q119" t="n">
         <v>18</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K120" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="L120" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M120" t="n">
-        <v>3500</v>
+        <v>7750</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>194</v>
+        <v>431</v>
       </c>
       <c r="Q120" t="n">
         <v>18</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K121" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L121" t="n">
         <v>10000</v>
       </c>
       <c r="M121" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Q121" t="n">
         <v>18</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K122" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L122" t="n">
         <v>8000</v>
       </c>
       <c r="M122" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="Q122" t="n">
         <v>18</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K123" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L123" t="n">
         <v>6000</v>
       </c>
       <c r="M123" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q123" t="n">
         <v>18</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K124" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L124" t="n">
         <v>4000</v>
       </c>
       <c r="M124" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="Q124" t="n">
         <v>18</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K125" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L125" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M125" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>639</v>
+        <v>542</v>
       </c>
       <c r="Q125" t="n">
         <v>18</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K126" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L126" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M126" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q126" t="n">
         <v>18</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K127" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L127" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M127" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="Q127" t="n">
         <v>18</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="K128" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L128" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M128" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="Q128" t="n">
         <v>18</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K129" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L129" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M129" t="n">
-        <v>12750</v>
+        <v>11500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>708</v>
+        <v>639</v>
       </c>
       <c r="Q129" t="n">
         <v>18</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K130" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="L130" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M130" t="n">
-        <v>10750</v>
+        <v>9500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="Q130" t="n">
         <v>18</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K131" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L131" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M131" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="Q131" t="n">
         <v>18</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K132" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L132" t="n">
         <v>6000</v>
       </c>
       <c r="M132" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q132" t="n">
         <v>18</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9936,13 +9936,13 @@
         <v>300</v>
       </c>
       <c r="K133" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L133" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M133" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q133" t="n">
         <v>18</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10008,13 +10008,13 @@
         <v>400</v>
       </c>
       <c r="K134" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L134" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M134" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q134" t="n">
         <v>18</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K135" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L135" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M135" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q135" t="n">
         <v>18</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K136" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L136" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M136" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q136" t="n">
         <v>18</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K137" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L137" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="M137" t="n">
-        <v>12250</v>
+        <v>9750</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>681</v>
+        <v>542</v>
       </c>
       <c r="Q137" t="n">
         <v>18</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K138" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L138" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M138" t="n">
-        <v>10250</v>
+        <v>7750</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>569</v>
+        <v>431</v>
       </c>
       <c r="Q138" t="n">
         <v>18</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K139" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L139" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M139" t="n">
-        <v>8250</v>
+        <v>5750</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>458</v>
+        <v>319</v>
       </c>
       <c r="Q139" t="n">
         <v>18</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K140" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L140" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M140" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q140" t="n">
         <v>18</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K141" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L141" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="M141" t="n">
-        <v>13250</v>
+        <v>12250</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>736</v>
+        <v>681</v>
       </c>
       <c r="Q141" t="n">
         <v>18</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K142" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L142" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="M142" t="n">
-        <v>11250</v>
+        <v>10250</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>625</v>
+        <v>569</v>
       </c>
       <c r="Q142" t="n">
         <v>18</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K143" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L143" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="M143" t="n">
-        <v>9250</v>
+        <v>8250</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="Q143" t="n">
         <v>18</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10728,13 +10728,13 @@
         <v>300</v>
       </c>
       <c r="K144" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L144" t="n">
         <v>6000</v>
       </c>
-      <c r="L144" t="n">
-        <v>6500</v>
-      </c>
       <c r="M144" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q144" t="n">
         <v>18</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K145" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L145" t="n">
         <v>13500</v>
       </c>
-      <c r="L145" t="n">
-        <v>14000</v>
-      </c>
       <c r="M145" t="n">
-        <v>13750</v>
+        <v>13250</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="Q145" t="n">
         <v>18</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10872,13 +10872,13 @@
         <v>400</v>
       </c>
       <c r="K146" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L146" t="n">
         <v>11500</v>
       </c>
-      <c r="L146" t="n">
-        <v>12000</v>
-      </c>
       <c r="M146" t="n">
-        <v>11750</v>
+        <v>11250</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="Q146" t="n">
         <v>18</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K147" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L147" t="n">
         <v>9500</v>
       </c>
-      <c r="L147" t="n">
-        <v>10000</v>
-      </c>
       <c r="M147" t="n">
-        <v>9708</v>
+        <v>9250</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="Q147" t="n">
         <v>18</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11016,13 +11016,13 @@
         <v>300</v>
       </c>
       <c r="K148" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L148" t="n">
         <v>6500</v>
       </c>
-      <c r="L148" t="n">
-        <v>7000</v>
-      </c>
       <c r="M148" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q148" t="n">
         <v>18</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11088,13 +11088,13 @@
         <v>360</v>
       </c>
       <c r="K149" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="L149" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M149" t="n">
-        <v>9500</v>
+        <v>13750</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>528</v>
+        <v>764</v>
       </c>
       <c r="Q149" t="n">
         <v>18</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K150" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L150" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M150" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q150" t="n">
         <v>18</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="K151" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L151" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M151" t="n">
-        <v>5500</v>
+        <v>9708</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>306</v>
+        <v>539</v>
       </c>
       <c r="Q151" t="n">
         <v>18</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K152" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L152" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M152" t="n">
-        <v>3500</v>
+        <v>6750</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>194</v>
+        <v>375</v>
       </c>
       <c r="Q152" t="n">
         <v>18</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K153" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="L153" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M153" t="n">
-        <v>13750</v>
+        <v>9500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>764</v>
+        <v>528</v>
       </c>
       <c r="Q153" t="n">
         <v>18</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K154" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L154" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M154" t="n">
-        <v>11750</v>
+        <v>7500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>653</v>
+        <v>417</v>
       </c>
       <c r="Q154" t="n">
         <v>18</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K155" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L155" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M155" t="n">
-        <v>9750</v>
+        <v>5500</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>542</v>
+        <v>306</v>
       </c>
       <c r="Q155" t="n">
         <v>18</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K156" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L156" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M156" t="n">
-        <v>6750</v>
+        <v>3500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>375</v>
+        <v>194</v>
       </c>
       <c r="Q156" t="n">
         <v>18</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11661,7 +11661,7 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K157" t="n">
         <v>13500</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K158" t="n">
         <v>11500</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11805,7 +11805,7 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K159" t="n">
         <v>9500</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11877,7 +11877,7 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K160" t="n">
         <v>6500</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K161" t="n">
         <v>13500</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12093,7 +12093,7 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K163" t="n">
         <v>9500</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12165,7 +12165,7 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K164" t="n">
         <v>6500</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K165" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="L165" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M165" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>819</v>
+        <v>764</v>
       </c>
       <c r="Q165" t="n">
         <v>18</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K166" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L166" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M166" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>708</v>
+        <v>653</v>
       </c>
       <c r="Q166" t="n">
         <v>18</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K167" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L167" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M167" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q167" t="n">
         <v>18</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12456,13 +12456,13 @@
         <v>240</v>
       </c>
       <c r="K168" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L168" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M168" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q168" t="n">
         <v>18</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12525,7 +12525,7 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K169" t="n">
         <v>14500</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K170" t="n">
         <v>12500</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K171" t="n">
         <v>10500</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44280</v>
+        <v>44434</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K172" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L172" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M172" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q172" t="n">
         <v>18</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K173" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="L173" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M173" t="n">
-        <v>6750</v>
+        <v>14750</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>375</v>
+        <v>819</v>
       </c>
       <c r="Q173" t="n">
         <v>18</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K174" t="n">
-        <v>4500</v>
+        <v>12500</v>
       </c>
       <c r="L174" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M174" t="n">
-        <v>4750</v>
+        <v>12750</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>264</v>
+        <v>708</v>
       </c>
       <c r="Q174" t="n">
         <v>18</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K175" t="n">
-        <v>2500</v>
+        <v>10500</v>
       </c>
       <c r="L175" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="M175" t="n">
-        <v>2750</v>
+        <v>10750</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>153</v>
+        <v>597</v>
       </c>
       <c r="Q175" t="n">
         <v>18</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K176" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L176" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M176" t="n">
-        <v>13250</v>
+        <v>8750</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>736</v>
+        <v>486</v>
       </c>
       <c r="Q176" t="n">
         <v>18</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K177" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L177" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="M177" t="n">
-        <v>11250</v>
+        <v>6750</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>625</v>
+        <v>375</v>
       </c>
       <c r="Q177" t="n">
         <v>18</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K178" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L178" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M178" t="n">
-        <v>9250</v>
+        <v>4750</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>514</v>
+        <v>264</v>
       </c>
       <c r="Q178" t="n">
         <v>18</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13248,13 +13248,13 @@
         <v>240</v>
       </c>
       <c r="K179" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L179" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M179" t="n">
-        <v>6250</v>
+        <v>2750</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="Q179" t="n">
         <v>18</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K180" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L180" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M180" t="n">
-        <v>11750</v>
+        <v>13250</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>653</v>
+        <v>736</v>
       </c>
       <c r="Q180" t="n">
         <v>18</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13392,13 +13392,13 @@
         <v>300</v>
       </c>
       <c r="K181" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L181" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="M181" t="n">
-        <v>9750</v>
+        <v>11250</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>542</v>
+        <v>625</v>
       </c>
       <c r="Q181" t="n">
         <v>18</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K182" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L182" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M182" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="Q182" t="n">
         <v>18</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K183" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L183" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M183" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="Q183" t="n">
         <v>18</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13605,7 +13605,7 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K184" t="n">
         <v>11500</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13677,7 +13677,7 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K185" t="n">
         <v>9500</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K186" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L186" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M186" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q186" t="n">
         <v>18</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44258</v>
+        <v>44335</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K187" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="L187" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M187" t="n">
-        <v>9750</v>
+        <v>3750</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>542</v>
+        <v>208</v>
       </c>
       <c r="Q187" t="n">
         <v>18</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K188" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L188" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M188" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q188" t="n">
         <v>18</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K189" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L189" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M189" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q189" t="n">
         <v>18</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K190" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="L190" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M190" t="n">
-        <v>13750</v>
+        <v>7750</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>764</v>
+        <v>431</v>
       </c>
       <c r="Q190" t="n">
         <v>18</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K191" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L191" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M191" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q191" t="n">
         <v>18</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K192" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L192" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M192" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q192" t="n">
         <v>18</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K193" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L193" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M193" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q193" t="n">
         <v>18</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14328,13 +14328,13 @@
         <v>240</v>
       </c>
       <c r="K194" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L194" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M194" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q194" t="n">
         <v>18</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K195" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L195" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M195" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q195" t="n">
         <v>18</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K196" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L196" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M196" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q196" t="n">
         <v>18</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44300</v>
+        <v>44475</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K197" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L197" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M197" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q197" t="n">
         <v>18</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K198" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L198" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M198" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q198" t="n">
         <v>18</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K199" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L199" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M199" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q199" t="n">
         <v>18</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K200" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L200" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M200" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q200" t="n">
         <v>18</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K201" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L201" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M201" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>639</v>
+        <v>542</v>
       </c>
       <c r="Q201" t="n">
         <v>18</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K202" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L202" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M202" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q202" t="n">
         <v>18</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K203" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L203" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M203" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="Q203" t="n">
         <v>18</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K204" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L204" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M204" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="Q204" t="n">
         <v>18</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K205" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L205" t="n">
         <v>12000</v>
       </c>
-      <c r="L205" t="n">
-        <v>12500</v>
-      </c>
       <c r="M205" t="n">
-        <v>12250</v>
+        <v>11500</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>681</v>
+        <v>639</v>
       </c>
       <c r="Q205" t="n">
         <v>18</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K206" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L206" t="n">
         <v>10000</v>
       </c>
-      <c r="L206" t="n">
-        <v>10500</v>
-      </c>
       <c r="M206" t="n">
-        <v>10250</v>
+        <v>9500</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>569</v>
+        <v>528</v>
       </c>
       <c r="Q206" t="n">
         <v>18</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K207" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L207" t="n">
         <v>8000</v>
       </c>
-      <c r="L207" t="n">
-        <v>8500</v>
-      </c>
       <c r="M207" t="n">
-        <v>8250</v>
+        <v>7500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="Q207" t="n">
         <v>18</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15333,7 +15333,7 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K208" t="n">
         <v>5000</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K209" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L209" t="n">
         <v>12500</v>
       </c>
-      <c r="L209" t="n">
-        <v>13000</v>
-      </c>
       <c r="M209" t="n">
-        <v>12750</v>
+        <v>12250</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="Q209" t="n">
         <v>18</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15480,13 +15480,13 @@
         <v>500</v>
       </c>
       <c r="K210" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L210" t="n">
         <v>10500</v>
       </c>
-      <c r="L210" t="n">
-        <v>11000</v>
-      </c>
       <c r="M210" t="n">
-        <v>10750</v>
+        <v>10250</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="Q210" t="n">
         <v>18</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K211" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L211" t="n">
         <v>8500</v>
       </c>
-      <c r="L211" t="n">
-        <v>9000</v>
-      </c>
       <c r="M211" t="n">
-        <v>8750</v>
+        <v>8250</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="Q211" t="n">
         <v>18</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K212" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L212" t="n">
         <v>6000</v>
       </c>
       <c r="M212" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q212" t="n">
         <v>18</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15693,7 +15693,7 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="K213" t="n">
         <v>12500</v>
@@ -15702,7 +15702,7 @@
         <v>13000</v>
       </c>
       <c r="M213" t="n">
-        <v>12742</v>
+        <v>12750</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15765,7 +15765,7 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K214" t="n">
         <v>10500</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15837,7 +15837,7 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K215" t="n">
         <v>8500</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15909,7 +15909,7 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K216" t="n">
         <v>5500</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>900</v>
+        <v>248</v>
       </c>
       <c r="K217" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L217" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M217" t="n">
-        <v>14750</v>
+        <v>12742</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>819</v>
+        <v>708</v>
       </c>
       <c r="Q217" t="n">
         <v>18</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K218" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="L218" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M218" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>708</v>
+        <v>597</v>
       </c>
       <c r="Q218" t="n">
         <v>18</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>760</v>
+        <v>300</v>
       </c>
       <c r="K219" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L219" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M219" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>597</v>
+        <v>486</v>
       </c>
       <c r="Q219" t="n">
         <v>18</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>540</v>
+        <v>200</v>
       </c>
       <c r="K220" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L220" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M220" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q220" t="n">
         <v>18</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K221" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L221" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M221" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="Q221" t="n">
         <v>18</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K222" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L222" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M222" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="Q222" t="n">
         <v>18</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K223" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L223" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M223" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="Q223" t="n">
         <v>18</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="K224" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L224" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M224" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q224" t="n">
         <v>18</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K225" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L225" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M225" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>819</v>
+        <v>708</v>
       </c>
       <c r="Q225" t="n">
         <v>18</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K226" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="L226" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M226" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>708</v>
+        <v>597</v>
       </c>
       <c r="Q226" t="n">
         <v>18</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16704,13 +16704,13 @@
         <v>400</v>
       </c>
       <c r="K227" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L227" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M227" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>597</v>
+        <v>486</v>
       </c>
       <c r="Q227" t="n">
         <v>18</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K228" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L228" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M228" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q228" t="n">
         <v>18</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K229" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="L229" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M229" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>542</v>
+        <v>819</v>
       </c>
       <c r="Q229" t="n">
         <v>18</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K230" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="L230" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M230" t="n">
-        <v>6750</v>
+        <v>12750</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>375</v>
+        <v>708</v>
       </c>
       <c r="Q230" t="n">
         <v>18</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K231" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="L231" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M231" t="n">
-        <v>4750</v>
+        <v>10750</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>264</v>
+        <v>597</v>
       </c>
       <c r="Q231" t="n">
         <v>18</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K232" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="L232" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M232" t="n">
-        <v>2750</v>
+        <v>7750</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>153</v>
+        <v>431</v>
       </c>
       <c r="Q232" t="n">
         <v>18</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17136,13 +17136,13 @@
         <v>300</v>
       </c>
       <c r="K233" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="L233" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M233" t="n">
-        <v>13750</v>
+        <v>9750</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>764</v>
+        <v>542</v>
       </c>
       <c r="Q233" t="n">
         <v>18</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K234" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="L234" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M234" t="n">
-        <v>11750</v>
+        <v>6750</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>653</v>
+        <v>375</v>
       </c>
       <c r="Q234" t="n">
         <v>18</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17280,13 +17280,13 @@
         <v>360</v>
       </c>
       <c r="K235" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="L235" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M235" t="n">
-        <v>9750</v>
+        <v>4750</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>542</v>
+        <v>264</v>
       </c>
       <c r="Q235" t="n">
         <v>18</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K236" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L236" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M236" t="n">
-        <v>6750</v>
+        <v>2750</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>375</v>
+        <v>153</v>
       </c>
       <c r="Q236" t="n">
         <v>18</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K237" t="n">
         <v>13500</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17493,7 +17493,7 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K238" t="n">
         <v>11500</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,7 +17565,7 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K239" t="n">
         <v>9500</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,7 +17637,7 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K240" t="n">
         <v>6500</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K241" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L241" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M241" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="Q241" t="n">
         <v>18</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17784,13 +17784,13 @@
         <v>400</v>
       </c>
       <c r="K242" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L242" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M242" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q242" t="n">
         <v>18</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K243" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L243" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M243" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q243" t="n">
         <v>18</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17928,13 +17928,13 @@
         <v>200</v>
       </c>
       <c r="K244" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L244" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M244" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q244" t="n">
         <v>18</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K245" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L245" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M245" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="Q245" t="n">
         <v>18</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K246" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L246" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M246" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q246" t="n">
         <v>18</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K247" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L247" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M247" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q247" t="n">
         <v>18</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18213,7 +18213,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K248" t="n">
         <v>5500</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K249" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L249" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M249" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>486</v>
+        <v>653</v>
       </c>
       <c r="Q249" t="n">
         <v>18</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K250" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L250" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M250" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q250" t="n">
         <v>18</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K251" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L251" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M251" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="Q251" t="n">
         <v>18</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K252" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L252" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M252" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="Q252" t="n">
         <v>18</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K253" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L253" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="M253" t="n">
-        <v>12250</v>
+        <v>8750</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>681</v>
+        <v>486</v>
       </c>
       <c r="Q253" t="n">
         <v>18</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18648,13 +18648,13 @@
         <v>400</v>
       </c>
       <c r="K254" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L254" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="M254" t="n">
-        <v>10250</v>
+        <v>6750</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>569</v>
+        <v>375</v>
       </c>
       <c r="Q254" t="n">
         <v>18</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K255" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L255" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M255" t="n">
-        <v>8250</v>
+        <v>4750</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>458</v>
+        <v>264</v>
       </c>
       <c r="Q255" t="n">
         <v>18</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18792,13 +18792,13 @@
         <v>300</v>
       </c>
       <c r="K256" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L256" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M256" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q256" t="n">
         <v>18</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K257" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L257" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="M257" t="n">
-        <v>9750</v>
+        <v>12250</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>542</v>
+        <v>681</v>
       </c>
       <c r="Q257" t="n">
         <v>18</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18936,13 +18936,13 @@
         <v>400</v>
       </c>
       <c r="K258" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L258" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M258" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="Q258" t="n">
         <v>18</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K259" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L259" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M259" t="n">
-        <v>5750</v>
+        <v>8250</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>319</v>
+        <v>458</v>
       </c>
       <c r="Q259" t="n">
         <v>18</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19080,13 +19080,13 @@
         <v>300</v>
       </c>
       <c r="K260" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L260" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M260" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q260" t="n">
         <v>18</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K261" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L261" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M261" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q261" t="n">
         <v>18</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19224,13 +19224,13 @@
         <v>400</v>
       </c>
       <c r="K262" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L262" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M262" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="Q262" t="n">
         <v>18</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K263" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L263" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M263" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q263" t="n">
         <v>18</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19368,13 +19368,13 @@
         <v>300</v>
       </c>
       <c r="K264" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L264" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M264" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q264" t="n">
         <v>18</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K265" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L265" t="n">
         <v>9000</v>
       </c>
-      <c r="L265" t="n">
-        <v>10000</v>
-      </c>
       <c r="M265" t="n">
-        <v>9500</v>
+        <v>8750</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="Q265" t="n">
         <v>18</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K266" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L266" t="n">
         <v>7000</v>
       </c>
-      <c r="L266" t="n">
-        <v>8000</v>
-      </c>
       <c r="M266" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q266" t="n">
         <v>18</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K267" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L267" t="n">
         <v>5000</v>
       </c>
-      <c r="L267" t="n">
-        <v>6000</v>
-      </c>
       <c r="M267" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q267" t="n">
         <v>18</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K268" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L268" t="n">
         <v>3000</v>
       </c>
-      <c r="L268" t="n">
-        <v>4000</v>
-      </c>
       <c r="M268" t="n">
-        <v>3500</v>
+        <v>2750</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="Q268" t="n">
         <v>18</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K269" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L269" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M269" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>708</v>
+        <v>528</v>
       </c>
       <c r="Q269" t="n">
         <v>18</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K270" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L270" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M270" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>597</v>
+        <v>417</v>
       </c>
       <c r="Q270" t="n">
         <v>18</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K271" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L271" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M271" t="n">
-        <v>8750</v>
+        <v>5500</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="Q271" t="n">
         <v>18</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K272" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L272" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M272" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q272" t="n">
         <v>18</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20016,13 +20016,13 @@
         <v>300</v>
       </c>
       <c r="K273" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L273" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M273" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="Q273" t="n">
         <v>18</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20088,13 +20088,13 @@
         <v>400</v>
       </c>
       <c r="K274" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L274" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M274" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q274" t="n">
         <v>18</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K275" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L275" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M275" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q275" t="n">
         <v>18</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K276" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L276" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M276" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q276" t="n">
         <v>18</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K277" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="L277" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M277" t="n">
-        <v>9500</v>
+        <v>13750</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>528</v>
+        <v>764</v>
       </c>
       <c r="Q277" t="n">
         <v>18</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K278" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L278" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M278" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q278" t="n">
         <v>18</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K279" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L279" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M279" t="n">
-        <v>5500</v>
+        <v>9750</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="Q279" t="n">
         <v>18</v>
@@ -20493,58 +20493,346 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E280" t="n">
+        <v>4</v>
+      </c>
+      <c r="F280" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J280" t="n">
+        <v>300</v>
+      </c>
+      <c r="K280" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L280" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M280" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P280" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>18</v>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>2</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D281" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="E280" t="n">
-        <v>4</v>
-      </c>
-      <c r="F280" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>Cultivar IV Región</t>
-        </is>
-      </c>
-      <c r="I280" t="inlineStr">
+      <c r="E281" t="n">
+        <v>4</v>
+      </c>
+      <c r="F281" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J281" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K281" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L281" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M281" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P281" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>18</v>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>2</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E282" t="n">
+        <v>4</v>
+      </c>
+      <c r="F282" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J282" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K282" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L282" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M282" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P282" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>18</v>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>2</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D283" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E283" t="n">
+        <v>4</v>
+      </c>
+      <c r="F283" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J283" t="n">
+        <v>800</v>
+      </c>
+      <c r="K283" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L283" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M283" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P283" t="n">
+        <v>306</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>18</v>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>2</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D284" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E284" t="n">
+        <v>4</v>
+      </c>
+      <c r="F284" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J280" t="n">
+      <c r="J284" t="n">
         <v>400</v>
       </c>
-      <c r="K280" t="n">
+      <c r="K284" t="n">
         <v>3000</v>
       </c>
-      <c r="L280" t="n">
+      <c r="L284" t="n">
         <v>4000</v>
       </c>
-      <c r="M280" t="n">
+      <c r="M284" t="n">
         <v>3500</v>
       </c>
-      <c r="N280" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O280" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P280" t="n">
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P284" t="n">
         <v>194</v>
       </c>
-      <c r="Q280" t="n">
-        <v>18</v>
-      </c>
-      <c r="R280" t="inlineStr">
+      <c r="Q284" t="n">
+        <v>18</v>
+      </c>
+      <c r="R284" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R284"/>
+  <dimension ref="A1:R288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8064,13 +8064,13 @@
         <v>300</v>
       </c>
       <c r="K107" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L107" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M107" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q107" t="n">
         <v>18</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8136,13 +8136,13 @@
         <v>400</v>
       </c>
       <c r="K108" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L108" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M108" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>375</v>
+        <v>653</v>
       </c>
       <c r="Q108" t="n">
         <v>18</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8208,13 +8208,13 @@
         <v>300</v>
       </c>
       <c r="K109" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L109" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M109" t="n">
-        <v>4750</v>
+        <v>9750</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>264</v>
+        <v>542</v>
       </c>
       <c r="Q109" t="n">
         <v>18</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8280,13 +8280,13 @@
         <v>240</v>
       </c>
       <c r="K110" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L110" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M110" t="n">
-        <v>2750</v>
+        <v>6750</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="Q110" t="n">
         <v>18</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8352,13 +8352,13 @@
         <v>300</v>
       </c>
       <c r="K111" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L111" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M111" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q111" t="n">
         <v>18</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,7 +8493,7 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K113" t="n">
         <v>4500</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K115" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L115" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M115" t="n">
-        <v>10500</v>
+        <v>8750</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>583</v>
+        <v>486</v>
       </c>
       <c r="Q115" t="n">
         <v>18</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K116" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L116" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M116" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>472</v>
+        <v>375</v>
       </c>
       <c r="Q116" t="n">
         <v>18</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K117" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L117" t="n">
         <v>5000</v>
       </c>
       <c r="M117" t="n">
-        <v>4500</v>
+        <v>4750</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q117" t="n">
         <v>18</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44224</v>
+        <v>44322</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K118" t="n">
-        <v>11500</v>
+        <v>2500</v>
       </c>
       <c r="L118" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="M118" t="n">
-        <v>11750</v>
+        <v>2750</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>653</v>
+        <v>153</v>
       </c>
       <c r="Q118" t="n">
         <v>18</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K119" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L119" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M119" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="Q119" t="n">
         <v>18</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
         <v>240</v>
       </c>
       <c r="K120" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L120" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M120" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q120" t="n">
         <v>18</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44315</v>
+        <v>44265</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K121" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L121" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M121" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>528</v>
+        <v>250</v>
       </c>
       <c r="Q121" t="n">
         <v>18</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K122" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L122" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M122" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q122" t="n">
         <v>18</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K123" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L123" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M123" t="n">
-        <v>5500</v>
+        <v>9750</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="Q123" t="n">
         <v>18</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K124" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="L124" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M124" t="n">
-        <v>3500</v>
+        <v>7750</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>194</v>
+        <v>431</v>
       </c>
       <c r="Q124" t="n">
         <v>18</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K125" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L125" t="n">
         <v>10000</v>
       </c>
       <c r="M125" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Q125" t="n">
         <v>18</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K126" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L126" t="n">
         <v>8000</v>
       </c>
       <c r="M126" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="Q126" t="n">
         <v>18</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K127" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L127" t="n">
         <v>6000</v>
       </c>
       <c r="M127" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q127" t="n">
         <v>18</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K128" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L128" t="n">
         <v>4000</v>
       </c>
       <c r="M128" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="Q128" t="n">
         <v>18</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K129" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L129" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M129" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>639</v>
+        <v>542</v>
       </c>
       <c r="Q129" t="n">
         <v>18</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K130" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L130" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M130" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q130" t="n">
         <v>18</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K131" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L131" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M131" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="Q131" t="n">
         <v>18</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="K132" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L132" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M132" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="Q132" t="n">
         <v>18</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K133" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L133" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M133" t="n">
-        <v>12750</v>
+        <v>11500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>708</v>
+        <v>639</v>
       </c>
       <c r="Q133" t="n">
         <v>18</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K134" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="L134" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M134" t="n">
-        <v>10750</v>
+        <v>9500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="Q134" t="n">
         <v>18</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K135" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L135" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M135" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="Q135" t="n">
         <v>18</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K136" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L136" t="n">
         <v>6000</v>
       </c>
       <c r="M136" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q136" t="n">
         <v>18</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10224,13 +10224,13 @@
         <v>300</v>
       </c>
       <c r="K137" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L137" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M137" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q137" t="n">
         <v>18</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10296,13 +10296,13 @@
         <v>400</v>
       </c>
       <c r="K138" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L138" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M138" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q138" t="n">
         <v>18</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K139" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L139" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M139" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q139" t="n">
         <v>18</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K140" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L140" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M140" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q140" t="n">
         <v>18</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K141" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L141" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="M141" t="n">
-        <v>12250</v>
+        <v>9750</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>681</v>
+        <v>542</v>
       </c>
       <c r="Q141" t="n">
         <v>18</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K142" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L142" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M142" t="n">
-        <v>10250</v>
+        <v>7750</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>569</v>
+        <v>431</v>
       </c>
       <c r="Q142" t="n">
         <v>18</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K143" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L143" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M143" t="n">
-        <v>8250</v>
+        <v>5750</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>458</v>
+        <v>319</v>
       </c>
       <c r="Q143" t="n">
         <v>18</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K144" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L144" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M144" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q144" t="n">
         <v>18</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K145" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L145" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="M145" t="n">
-        <v>13250</v>
+        <v>12250</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>736</v>
+        <v>681</v>
       </c>
       <c r="Q145" t="n">
         <v>18</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K146" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L146" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="M146" t="n">
-        <v>11250</v>
+        <v>10250</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>625</v>
+        <v>569</v>
       </c>
       <c r="Q146" t="n">
         <v>18</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K147" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L147" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="M147" t="n">
-        <v>9250</v>
+        <v>8250</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="Q147" t="n">
         <v>18</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11016,13 +11016,13 @@
         <v>300</v>
       </c>
       <c r="K148" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L148" t="n">
         <v>6000</v>
       </c>
-      <c r="L148" t="n">
-        <v>6500</v>
-      </c>
       <c r="M148" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q148" t="n">
         <v>18</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K149" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L149" t="n">
         <v>13500</v>
       </c>
-      <c r="L149" t="n">
-        <v>14000</v>
-      </c>
       <c r="M149" t="n">
-        <v>13750</v>
+        <v>13250</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="Q149" t="n">
         <v>18</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11160,13 +11160,13 @@
         <v>400</v>
       </c>
       <c r="K150" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L150" t="n">
         <v>11500</v>
       </c>
-      <c r="L150" t="n">
-        <v>12000</v>
-      </c>
       <c r="M150" t="n">
-        <v>11750</v>
+        <v>11250</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="Q150" t="n">
         <v>18</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K151" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L151" t="n">
         <v>9500</v>
       </c>
-      <c r="L151" t="n">
-        <v>10000</v>
-      </c>
       <c r="M151" t="n">
-        <v>9708</v>
+        <v>9250</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="Q151" t="n">
         <v>18</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11304,13 +11304,13 @@
         <v>300</v>
       </c>
       <c r="K152" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L152" t="n">
         <v>6500</v>
       </c>
-      <c r="L152" t="n">
-        <v>7000</v>
-      </c>
       <c r="M152" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q152" t="n">
         <v>18</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11376,13 +11376,13 @@
         <v>360</v>
       </c>
       <c r="K153" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="L153" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M153" t="n">
-        <v>9500</v>
+        <v>13750</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>528</v>
+        <v>764</v>
       </c>
       <c r="Q153" t="n">
         <v>18</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K154" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L154" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M154" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q154" t="n">
         <v>18</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="K155" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L155" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M155" t="n">
-        <v>5500</v>
+        <v>9708</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>306</v>
+        <v>539</v>
       </c>
       <c r="Q155" t="n">
         <v>18</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K156" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L156" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M156" t="n">
-        <v>3500</v>
+        <v>6750</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>194</v>
+        <v>375</v>
       </c>
       <c r="Q156" t="n">
         <v>18</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K157" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="L157" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M157" t="n">
-        <v>13750</v>
+        <v>9500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>764</v>
+        <v>528</v>
       </c>
       <c r="Q157" t="n">
         <v>18</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K158" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L158" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M158" t="n">
-        <v>11750</v>
+        <v>7500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>653</v>
+        <v>417</v>
       </c>
       <c r="Q158" t="n">
         <v>18</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K159" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L159" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M159" t="n">
-        <v>9750</v>
+        <v>5500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>542</v>
+        <v>306</v>
       </c>
       <c r="Q159" t="n">
         <v>18</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K160" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L160" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M160" t="n">
-        <v>6750</v>
+        <v>3500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>375</v>
+        <v>194</v>
       </c>
       <c r="Q160" t="n">
         <v>18</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K161" t="n">
         <v>13500</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K162" t="n">
         <v>11500</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12093,7 +12093,7 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K163" t="n">
         <v>9500</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12165,7 +12165,7 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K164" t="n">
         <v>6500</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12237,7 +12237,7 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K165" t="n">
         <v>13500</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12381,7 +12381,7 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K167" t="n">
         <v>9500</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12453,7 +12453,7 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K168" t="n">
         <v>6500</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K169" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="L169" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M169" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>819</v>
+        <v>764</v>
       </c>
       <c r="Q169" t="n">
         <v>18</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K170" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L170" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M170" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>708</v>
+        <v>653</v>
       </c>
       <c r="Q170" t="n">
         <v>18</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K171" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L171" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M171" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q171" t="n">
         <v>18</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12744,13 +12744,13 @@
         <v>240</v>
       </c>
       <c r="K172" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L172" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M172" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q172" t="n">
         <v>18</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12813,7 +12813,7 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K173" t="n">
         <v>14500</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K174" t="n">
         <v>12500</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12957,7 +12957,7 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K175" t="n">
         <v>10500</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44280</v>
+        <v>44434</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K176" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L176" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M176" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q176" t="n">
         <v>18</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K177" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="L177" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M177" t="n">
-        <v>6750</v>
+        <v>14750</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>375</v>
+        <v>819</v>
       </c>
       <c r="Q177" t="n">
         <v>18</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K178" t="n">
-        <v>4500</v>
+        <v>12500</v>
       </c>
       <c r="L178" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M178" t="n">
-        <v>4750</v>
+        <v>12750</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>264</v>
+        <v>708</v>
       </c>
       <c r="Q178" t="n">
         <v>18</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K179" t="n">
-        <v>2500</v>
+        <v>10500</v>
       </c>
       <c r="L179" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="M179" t="n">
-        <v>2750</v>
+        <v>10750</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>153</v>
+        <v>597</v>
       </c>
       <c r="Q179" t="n">
         <v>18</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K180" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L180" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M180" t="n">
-        <v>13250</v>
+        <v>8750</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>736</v>
+        <v>486</v>
       </c>
       <c r="Q180" t="n">
         <v>18</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K181" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L181" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="M181" t="n">
-        <v>11250</v>
+        <v>6750</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>625</v>
+        <v>375</v>
       </c>
       <c r="Q181" t="n">
         <v>18</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K182" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L182" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M182" t="n">
-        <v>9250</v>
+        <v>4750</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>514</v>
+        <v>264</v>
       </c>
       <c r="Q182" t="n">
         <v>18</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13536,13 +13536,13 @@
         <v>240</v>
       </c>
       <c r="K183" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L183" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M183" t="n">
-        <v>6250</v>
+        <v>2750</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="Q183" t="n">
         <v>18</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K184" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L184" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M184" t="n">
-        <v>11750</v>
+        <v>13250</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>653</v>
+        <v>736</v>
       </c>
       <c r="Q184" t="n">
         <v>18</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13680,13 +13680,13 @@
         <v>300</v>
       </c>
       <c r="K185" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L185" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="M185" t="n">
-        <v>9750</v>
+        <v>11250</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>542</v>
+        <v>625</v>
       </c>
       <c r="Q185" t="n">
         <v>18</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K186" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L186" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M186" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="Q186" t="n">
         <v>18</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K187" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L187" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M187" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="Q187" t="n">
         <v>18</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13893,7 +13893,7 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K188" t="n">
         <v>11500</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K189" t="n">
         <v>9500</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K190" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L190" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M190" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q190" t="n">
         <v>18</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44258</v>
+        <v>44335</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K191" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="L191" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M191" t="n">
-        <v>9750</v>
+        <v>3750</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>542</v>
+        <v>208</v>
       </c>
       <c r="Q191" t="n">
         <v>18</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K192" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L192" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M192" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q192" t="n">
         <v>18</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K193" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L193" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M193" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q193" t="n">
         <v>18</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K194" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="L194" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M194" t="n">
-        <v>13750</v>
+        <v>7750</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>764</v>
+        <v>431</v>
       </c>
       <c r="Q194" t="n">
         <v>18</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K195" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L195" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M195" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q195" t="n">
         <v>18</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K196" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L196" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M196" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q196" t="n">
         <v>18</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K197" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L197" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M197" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q197" t="n">
         <v>18</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14616,13 +14616,13 @@
         <v>240</v>
       </c>
       <c r="K198" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L198" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M198" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q198" t="n">
         <v>18</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K199" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L199" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M199" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q199" t="n">
         <v>18</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K200" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L200" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M200" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q200" t="n">
         <v>18</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44300</v>
+        <v>44475</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K201" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L201" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M201" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q201" t="n">
         <v>18</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K202" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L202" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M202" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q202" t="n">
         <v>18</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K203" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L203" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M203" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q203" t="n">
         <v>18</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K204" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L204" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M204" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q204" t="n">
         <v>18</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K205" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L205" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M205" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>639</v>
+        <v>542</v>
       </c>
       <c r="Q205" t="n">
         <v>18</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K206" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L206" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M206" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q206" t="n">
         <v>18</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K207" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L207" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M207" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="Q207" t="n">
         <v>18</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K208" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L208" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M208" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="Q208" t="n">
         <v>18</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K209" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L209" t="n">
         <v>12000</v>
       </c>
-      <c r="L209" t="n">
-        <v>12500</v>
-      </c>
       <c r="M209" t="n">
-        <v>12250</v>
+        <v>11500</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>681</v>
+        <v>639</v>
       </c>
       <c r="Q209" t="n">
         <v>18</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K210" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L210" t="n">
         <v>10000</v>
       </c>
-      <c r="L210" t="n">
-        <v>10500</v>
-      </c>
       <c r="M210" t="n">
-        <v>10250</v>
+        <v>9500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>569</v>
+        <v>528</v>
       </c>
       <c r="Q210" t="n">
         <v>18</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K211" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L211" t="n">
         <v>8000</v>
       </c>
-      <c r="L211" t="n">
-        <v>8500</v>
-      </c>
       <c r="M211" t="n">
-        <v>8250</v>
+        <v>7500</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="Q211" t="n">
         <v>18</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K212" t="n">
         <v>5000</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K213" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L213" t="n">
         <v>12500</v>
       </c>
-      <c r="L213" t="n">
-        <v>13000</v>
-      </c>
       <c r="M213" t="n">
-        <v>12750</v>
+        <v>12250</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="Q213" t="n">
         <v>18</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15768,13 +15768,13 @@
         <v>500</v>
       </c>
       <c r="K214" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L214" t="n">
         <v>10500</v>
       </c>
-      <c r="L214" t="n">
-        <v>11000</v>
-      </c>
       <c r="M214" t="n">
-        <v>10750</v>
+        <v>10250</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="Q214" t="n">
         <v>18</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K215" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L215" t="n">
         <v>8500</v>
       </c>
-      <c r="L215" t="n">
-        <v>9000</v>
-      </c>
       <c r="M215" t="n">
-        <v>8750</v>
+        <v>8250</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="Q215" t="n">
         <v>18</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K216" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L216" t="n">
         <v>6000</v>
       </c>
       <c r="M216" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q216" t="n">
         <v>18</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15981,7 +15981,7 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="K217" t="n">
         <v>12500</v>
@@ -15990,7 +15990,7 @@
         <v>13000</v>
       </c>
       <c r="M217" t="n">
-        <v>12742</v>
+        <v>12750</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16053,7 +16053,7 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K218" t="n">
         <v>10500</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16125,7 +16125,7 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K219" t="n">
         <v>8500</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16197,7 +16197,7 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K220" t="n">
         <v>5500</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>900</v>
+        <v>248</v>
       </c>
       <c r="K221" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L221" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M221" t="n">
-        <v>14750</v>
+        <v>12742</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>819</v>
+        <v>708</v>
       </c>
       <c r="Q221" t="n">
         <v>18</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K222" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="L222" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M222" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>708</v>
+        <v>597</v>
       </c>
       <c r="Q222" t="n">
         <v>18</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>760</v>
+        <v>300</v>
       </c>
       <c r="K223" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L223" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M223" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>597</v>
+        <v>486</v>
       </c>
       <c r="Q223" t="n">
         <v>18</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>540</v>
+        <v>200</v>
       </c>
       <c r="K224" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L224" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M224" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q224" t="n">
         <v>18</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K225" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L225" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M225" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="Q225" t="n">
         <v>18</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K226" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L226" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M226" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="Q226" t="n">
         <v>18</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K227" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L227" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M227" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="Q227" t="n">
         <v>18</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="K228" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L228" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M228" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q228" t="n">
         <v>18</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K229" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L229" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M229" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>819</v>
+        <v>708</v>
       </c>
       <c r="Q229" t="n">
         <v>18</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K230" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="L230" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M230" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>708</v>
+        <v>597</v>
       </c>
       <c r="Q230" t="n">
         <v>18</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16992,13 +16992,13 @@
         <v>400</v>
       </c>
       <c r="K231" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L231" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M231" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>597</v>
+        <v>486</v>
       </c>
       <c r="Q231" t="n">
         <v>18</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K232" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L232" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M232" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q232" t="n">
         <v>18</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K233" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="L233" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M233" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>542</v>
+        <v>819</v>
       </c>
       <c r="Q233" t="n">
         <v>18</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K234" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="L234" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M234" t="n">
-        <v>6750</v>
+        <v>12750</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>375</v>
+        <v>708</v>
       </c>
       <c r="Q234" t="n">
         <v>18</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K235" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="L235" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M235" t="n">
-        <v>4750</v>
+        <v>10750</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>264</v>
+        <v>597</v>
       </c>
       <c r="Q235" t="n">
         <v>18</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K236" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="L236" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M236" t="n">
-        <v>2750</v>
+        <v>7750</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>153</v>
+        <v>431</v>
       </c>
       <c r="Q236" t="n">
         <v>18</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17424,13 +17424,13 @@
         <v>300</v>
       </c>
       <c r="K237" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="L237" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M237" t="n">
-        <v>13750</v>
+        <v>9750</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>764</v>
+        <v>542</v>
       </c>
       <c r="Q237" t="n">
         <v>18</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K238" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="L238" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M238" t="n">
-        <v>11750</v>
+        <v>6750</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>653</v>
+        <v>375</v>
       </c>
       <c r="Q238" t="n">
         <v>18</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17568,13 +17568,13 @@
         <v>360</v>
       </c>
       <c r="K239" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="L239" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M239" t="n">
-        <v>9750</v>
+        <v>4750</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>542</v>
+        <v>264</v>
       </c>
       <c r="Q239" t="n">
         <v>18</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K240" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L240" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M240" t="n">
-        <v>6750</v>
+        <v>2750</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>375</v>
+        <v>153</v>
       </c>
       <c r="Q240" t="n">
         <v>18</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17709,7 +17709,7 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K241" t="n">
         <v>13500</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17781,7 +17781,7 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K242" t="n">
         <v>11500</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,7 +17853,7 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K243" t="n">
         <v>9500</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17925,7 +17925,7 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K244" t="n">
         <v>6500</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K245" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L245" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M245" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="Q245" t="n">
         <v>18</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18072,13 +18072,13 @@
         <v>400</v>
       </c>
       <c r="K246" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L246" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M246" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q246" t="n">
         <v>18</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K247" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L247" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M247" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q247" t="n">
         <v>18</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18216,13 +18216,13 @@
         <v>200</v>
       </c>
       <c r="K248" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L248" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M248" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q248" t="n">
         <v>18</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K249" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L249" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M249" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="Q249" t="n">
         <v>18</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K250" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L250" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M250" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q250" t="n">
         <v>18</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K251" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L251" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M251" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q251" t="n">
         <v>18</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18501,7 +18501,7 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K252" t="n">
         <v>5500</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K253" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L253" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M253" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>486</v>
+        <v>653</v>
       </c>
       <c r="Q253" t="n">
         <v>18</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K254" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L254" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M254" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q254" t="n">
         <v>18</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K255" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L255" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M255" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="Q255" t="n">
         <v>18</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K256" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L256" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M256" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="Q256" t="n">
         <v>18</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K257" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L257" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="M257" t="n">
-        <v>12250</v>
+        <v>8750</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>681</v>
+        <v>486</v>
       </c>
       <c r="Q257" t="n">
         <v>18</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18936,13 +18936,13 @@
         <v>400</v>
       </c>
       <c r="K258" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L258" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="M258" t="n">
-        <v>10250</v>
+        <v>6750</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>569</v>
+        <v>375</v>
       </c>
       <c r="Q258" t="n">
         <v>18</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K259" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L259" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M259" t="n">
-        <v>8250</v>
+        <v>4750</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>458</v>
+        <v>264</v>
       </c>
       <c r="Q259" t="n">
         <v>18</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19080,13 +19080,13 @@
         <v>300</v>
       </c>
       <c r="K260" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L260" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M260" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q260" t="n">
         <v>18</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K261" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L261" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="M261" t="n">
-        <v>9750</v>
+        <v>12250</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>542</v>
+        <v>681</v>
       </c>
       <c r="Q261" t="n">
         <v>18</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19224,13 +19224,13 @@
         <v>400</v>
       </c>
       <c r="K262" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L262" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M262" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="Q262" t="n">
         <v>18</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K263" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L263" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M263" t="n">
-        <v>5750</v>
+        <v>8250</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>319</v>
+        <v>458</v>
       </c>
       <c r="Q263" t="n">
         <v>18</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19368,13 +19368,13 @@
         <v>300</v>
       </c>
       <c r="K264" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L264" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M264" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q264" t="n">
         <v>18</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K265" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L265" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M265" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q265" t="n">
         <v>18</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19512,13 +19512,13 @@
         <v>400</v>
       </c>
       <c r="K266" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L266" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M266" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="Q266" t="n">
         <v>18</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K267" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L267" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M267" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q267" t="n">
         <v>18</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19656,13 +19656,13 @@
         <v>300</v>
       </c>
       <c r="K268" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L268" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M268" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q268" t="n">
         <v>18</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K269" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L269" t="n">
         <v>9000</v>
       </c>
-      <c r="L269" t="n">
-        <v>10000</v>
-      </c>
       <c r="M269" t="n">
-        <v>9500</v>
+        <v>8750</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="Q269" t="n">
         <v>18</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K270" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L270" t="n">
         <v>7000</v>
       </c>
-      <c r="L270" t="n">
-        <v>8000</v>
-      </c>
       <c r="M270" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q270" t="n">
         <v>18</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K271" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L271" t="n">
         <v>5000</v>
       </c>
-      <c r="L271" t="n">
-        <v>6000</v>
-      </c>
       <c r="M271" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q271" t="n">
         <v>18</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K272" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L272" t="n">
         <v>3000</v>
       </c>
-      <c r="L272" t="n">
-        <v>4000</v>
-      </c>
       <c r="M272" t="n">
-        <v>3500</v>
+        <v>2750</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="Q272" t="n">
         <v>18</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K273" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L273" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M273" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>708</v>
+        <v>528</v>
       </c>
       <c r="Q273" t="n">
         <v>18</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K274" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L274" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M274" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>597</v>
+        <v>417</v>
       </c>
       <c r="Q274" t="n">
         <v>18</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K275" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L275" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M275" t="n">
-        <v>8750</v>
+        <v>5500</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="Q275" t="n">
         <v>18</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K276" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L276" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M276" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q276" t="n">
         <v>18</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20304,13 +20304,13 @@
         <v>300</v>
       </c>
       <c r="K277" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L277" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M277" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="Q277" t="n">
         <v>18</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20376,13 +20376,13 @@
         <v>400</v>
       </c>
       <c r="K278" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L278" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M278" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q278" t="n">
         <v>18</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K279" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L279" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M279" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q279" t="n">
         <v>18</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K280" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L280" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M280" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q280" t="n">
         <v>18</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K281" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="L281" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M281" t="n">
-        <v>9500</v>
+        <v>13750</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>528</v>
+        <v>764</v>
       </c>
       <c r="Q281" t="n">
         <v>18</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K282" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L282" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M282" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q282" t="n">
         <v>18</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K283" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L283" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M283" t="n">
-        <v>5500</v>
+        <v>9750</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="Q283" t="n">
         <v>18</v>
@@ -20781,58 +20781,346 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E284" t="n">
+        <v>4</v>
+      </c>
+      <c r="F284" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J284" t="n">
+        <v>300</v>
+      </c>
+      <c r="K284" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L284" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M284" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P284" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>18</v>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>2</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D285" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="E284" t="n">
-        <v>4</v>
-      </c>
-      <c r="F284" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>Cultivar IV Región</t>
-        </is>
-      </c>
-      <c r="I284" t="inlineStr">
+      <c r="E285" t="n">
+        <v>4</v>
+      </c>
+      <c r="F285" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J285" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K285" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L285" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M285" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P285" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>18</v>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>2</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D286" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E286" t="n">
+        <v>4</v>
+      </c>
+      <c r="F286" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J286" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K286" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L286" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M286" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P286" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>18</v>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>2</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E287" t="n">
+        <v>4</v>
+      </c>
+      <c r="F287" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J287" t="n">
+        <v>800</v>
+      </c>
+      <c r="K287" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L287" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M287" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
+        <v>306</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>18</v>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>2</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D288" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E288" t="n">
+        <v>4</v>
+      </c>
+      <c r="F288" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J284" t="n">
+      <c r="J288" t="n">
         <v>400</v>
       </c>
-      <c r="K284" t="n">
+      <c r="K288" t="n">
         <v>3000</v>
       </c>
-      <c r="L284" t="n">
+      <c r="L288" t="n">
         <v>4000</v>
       </c>
-      <c r="M284" t="n">
+      <c r="M288" t="n">
         <v>3500</v>
       </c>
-      <c r="N284" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O284" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P284" t="n">
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P288" t="n">
         <v>194</v>
       </c>
-      <c r="Q284" t="n">
-        <v>18</v>
-      </c>
-      <c r="R284" t="inlineStr">
+      <c r="Q288" t="n">
+        <v>18</v>
+      </c>
+      <c r="R288" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R288"/>
+  <dimension ref="A1:R292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13608,13 +13608,13 @@
         <v>240</v>
       </c>
       <c r="K184" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L184" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M184" t="n">
-        <v>13250</v>
+        <v>13750</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="Q184" t="n">
         <v>18</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K185" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L185" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="M185" t="n">
-        <v>11250</v>
+        <v>11750</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="Q185" t="n">
         <v>18</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K186" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L186" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="M186" t="n">
-        <v>9250</v>
+        <v>9750</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="Q186" t="n">
         <v>18</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K187" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L187" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M187" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="Q187" t="n">
         <v>18</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K188" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L188" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M188" t="n">
-        <v>11750</v>
+        <v>13250</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>653</v>
+        <v>736</v>
       </c>
       <c r="Q188" t="n">
         <v>18</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13968,13 +13968,13 @@
         <v>300</v>
       </c>
       <c r="K189" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L189" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="M189" t="n">
-        <v>9750</v>
+        <v>11250</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>542</v>
+        <v>625</v>
       </c>
       <c r="Q189" t="n">
         <v>18</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K190" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L190" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M190" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="Q190" t="n">
         <v>18</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K191" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L191" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M191" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="Q191" t="n">
         <v>18</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14181,7 +14181,7 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K192" t="n">
         <v>11500</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14253,7 +14253,7 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K193" t="n">
         <v>9500</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K194" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L194" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M194" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q194" t="n">
         <v>18</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44258</v>
+        <v>44335</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K195" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="L195" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M195" t="n">
-        <v>9750</v>
+        <v>3750</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>542</v>
+        <v>208</v>
       </c>
       <c r="Q195" t="n">
         <v>18</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K196" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L196" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M196" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q196" t="n">
         <v>18</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K197" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L197" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M197" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q197" t="n">
         <v>18</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K198" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="L198" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M198" t="n">
-        <v>13750</v>
+        <v>7750</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>764</v>
+        <v>431</v>
       </c>
       <c r="Q198" t="n">
         <v>18</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K199" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L199" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M199" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q199" t="n">
         <v>18</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K200" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L200" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M200" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q200" t="n">
         <v>18</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K201" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L201" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M201" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q201" t="n">
         <v>18</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14904,13 +14904,13 @@
         <v>240</v>
       </c>
       <c r="K202" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L202" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M202" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q202" t="n">
         <v>18</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K203" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L203" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M203" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q203" t="n">
         <v>18</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K204" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L204" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M204" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q204" t="n">
         <v>18</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44300</v>
+        <v>44475</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K205" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L205" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M205" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q205" t="n">
         <v>18</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K206" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L206" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M206" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q206" t="n">
         <v>18</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K207" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L207" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M207" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q207" t="n">
         <v>18</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K208" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L208" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M208" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q208" t="n">
         <v>18</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K209" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L209" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M209" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>639</v>
+        <v>542</v>
       </c>
       <c r="Q209" t="n">
         <v>18</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K210" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L210" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M210" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q210" t="n">
         <v>18</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K211" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L211" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M211" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="Q211" t="n">
         <v>18</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K212" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L212" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M212" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="Q212" t="n">
         <v>18</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K213" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L213" t="n">
         <v>12000</v>
       </c>
-      <c r="L213" t="n">
-        <v>12500</v>
-      </c>
       <c r="M213" t="n">
-        <v>12250</v>
+        <v>11500</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>681</v>
+        <v>639</v>
       </c>
       <c r="Q213" t="n">
         <v>18</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K214" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L214" t="n">
         <v>10000</v>
       </c>
-      <c r="L214" t="n">
-        <v>10500</v>
-      </c>
       <c r="M214" t="n">
-        <v>10250</v>
+        <v>9500</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>569</v>
+        <v>528</v>
       </c>
       <c r="Q214" t="n">
         <v>18</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K215" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L215" t="n">
         <v>8000</v>
       </c>
-      <c r="L215" t="n">
-        <v>8500</v>
-      </c>
       <c r="M215" t="n">
-        <v>8250</v>
+        <v>7500</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="Q215" t="n">
         <v>18</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15909,7 +15909,7 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K216" t="n">
         <v>5000</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K217" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L217" t="n">
         <v>12500</v>
       </c>
-      <c r="L217" t="n">
-        <v>13000</v>
-      </c>
       <c r="M217" t="n">
-        <v>12750</v>
+        <v>12250</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="Q217" t="n">
         <v>18</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16056,13 +16056,13 @@
         <v>500</v>
       </c>
       <c r="K218" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L218" t="n">
         <v>10500</v>
       </c>
-      <c r="L218" t="n">
-        <v>11000</v>
-      </c>
       <c r="M218" t="n">
-        <v>10750</v>
+        <v>10250</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="Q218" t="n">
         <v>18</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K219" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L219" t="n">
         <v>8500</v>
       </c>
-      <c r="L219" t="n">
-        <v>9000</v>
-      </c>
       <c r="M219" t="n">
-        <v>8750</v>
+        <v>8250</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="Q219" t="n">
         <v>18</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K220" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L220" t="n">
         <v>6000</v>
       </c>
       <c r="M220" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q220" t="n">
         <v>18</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16269,7 +16269,7 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="K221" t="n">
         <v>12500</v>
@@ -16278,7 +16278,7 @@
         <v>13000</v>
       </c>
       <c r="M221" t="n">
-        <v>12742</v>
+        <v>12750</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K222" t="n">
         <v>10500</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,7 +16413,7 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K223" t="n">
         <v>8500</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16485,7 +16485,7 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K224" t="n">
         <v>5500</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>900</v>
+        <v>248</v>
       </c>
       <c r="K225" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L225" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M225" t="n">
-        <v>14750</v>
+        <v>12742</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>819</v>
+        <v>708</v>
       </c>
       <c r="Q225" t="n">
         <v>18</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K226" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="L226" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M226" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>708</v>
+        <v>597</v>
       </c>
       <c r="Q226" t="n">
         <v>18</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>760</v>
+        <v>300</v>
       </c>
       <c r="K227" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L227" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M227" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>597</v>
+        <v>486</v>
       </c>
       <c r="Q227" t="n">
         <v>18</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>540</v>
+        <v>200</v>
       </c>
       <c r="K228" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L228" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M228" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q228" t="n">
         <v>18</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K229" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L229" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M229" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="Q229" t="n">
         <v>18</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K230" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L230" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M230" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="Q230" t="n">
         <v>18</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K231" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L231" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M231" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="Q231" t="n">
         <v>18</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="K232" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L232" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M232" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q232" t="n">
         <v>18</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K233" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L233" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M233" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>819</v>
+        <v>708</v>
       </c>
       <c r="Q233" t="n">
         <v>18</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K234" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="L234" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M234" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>708</v>
+        <v>597</v>
       </c>
       <c r="Q234" t="n">
         <v>18</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17280,13 +17280,13 @@
         <v>400</v>
       </c>
       <c r="K235" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L235" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M235" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>597</v>
+        <v>486</v>
       </c>
       <c r="Q235" t="n">
         <v>18</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K236" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L236" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M236" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q236" t="n">
         <v>18</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K237" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="L237" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M237" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>542</v>
+        <v>819</v>
       </c>
       <c r="Q237" t="n">
         <v>18</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K238" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="L238" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M238" t="n">
-        <v>6750</v>
+        <v>12750</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>375</v>
+        <v>708</v>
       </c>
       <c r="Q238" t="n">
         <v>18</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K239" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="L239" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M239" t="n">
-        <v>4750</v>
+        <v>10750</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>264</v>
+        <v>597</v>
       </c>
       <c r="Q239" t="n">
         <v>18</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K240" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="L240" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M240" t="n">
-        <v>2750</v>
+        <v>7750</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>153</v>
+        <v>431</v>
       </c>
       <c r="Q240" t="n">
         <v>18</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17712,13 +17712,13 @@
         <v>300</v>
       </c>
       <c r="K241" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="L241" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M241" t="n">
-        <v>13750</v>
+        <v>9750</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>764</v>
+        <v>542</v>
       </c>
       <c r="Q241" t="n">
         <v>18</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K242" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="L242" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M242" t="n">
-        <v>11750</v>
+        <v>6750</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>653</v>
+        <v>375</v>
       </c>
       <c r="Q242" t="n">
         <v>18</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17856,13 +17856,13 @@
         <v>360</v>
       </c>
       <c r="K243" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="L243" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M243" t="n">
-        <v>9750</v>
+        <v>4750</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>542</v>
+        <v>264</v>
       </c>
       <c r="Q243" t="n">
         <v>18</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K244" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L244" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M244" t="n">
-        <v>6750</v>
+        <v>2750</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>375</v>
+        <v>153</v>
       </c>
       <c r="Q244" t="n">
         <v>18</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,7 +17997,7 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K245" t="n">
         <v>13500</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,7 +18069,7 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K246" t="n">
         <v>11500</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,7 +18141,7 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K247" t="n">
         <v>9500</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18213,7 +18213,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K248" t="n">
         <v>6500</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K249" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L249" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M249" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="Q249" t="n">
         <v>18</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18360,13 +18360,13 @@
         <v>400</v>
       </c>
       <c r="K250" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L250" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M250" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q250" t="n">
         <v>18</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K251" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L251" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M251" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q251" t="n">
         <v>18</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18504,13 +18504,13 @@
         <v>200</v>
       </c>
       <c r="K252" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L252" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M252" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q252" t="n">
         <v>18</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K253" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L253" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M253" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="Q253" t="n">
         <v>18</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K254" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L254" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M254" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q254" t="n">
         <v>18</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K255" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L255" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M255" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q255" t="n">
         <v>18</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18789,7 +18789,7 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K256" t="n">
         <v>5500</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K257" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L257" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M257" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>486</v>
+        <v>653</v>
       </c>
       <c r="Q257" t="n">
         <v>18</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K258" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L258" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M258" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q258" t="n">
         <v>18</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K259" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L259" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M259" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="Q259" t="n">
         <v>18</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K260" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L260" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M260" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="Q260" t="n">
         <v>18</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K261" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L261" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="M261" t="n">
-        <v>12250</v>
+        <v>8750</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>681</v>
+        <v>486</v>
       </c>
       <c r="Q261" t="n">
         <v>18</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19224,13 +19224,13 @@
         <v>400</v>
       </c>
       <c r="K262" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L262" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="M262" t="n">
-        <v>10250</v>
+        <v>6750</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>569</v>
+        <v>375</v>
       </c>
       <c r="Q262" t="n">
         <v>18</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K263" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L263" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M263" t="n">
-        <v>8250</v>
+        <v>4750</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>458</v>
+        <v>264</v>
       </c>
       <c r="Q263" t="n">
         <v>18</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19368,13 +19368,13 @@
         <v>300</v>
       </c>
       <c r="K264" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L264" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M264" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q264" t="n">
         <v>18</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K265" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L265" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="M265" t="n">
-        <v>9750</v>
+        <v>12250</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>542</v>
+        <v>681</v>
       </c>
       <c r="Q265" t="n">
         <v>18</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19512,13 +19512,13 @@
         <v>400</v>
       </c>
       <c r="K266" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L266" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M266" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="Q266" t="n">
         <v>18</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K267" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L267" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M267" t="n">
-        <v>5750</v>
+        <v>8250</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>319</v>
+        <v>458</v>
       </c>
       <c r="Q267" t="n">
         <v>18</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19656,13 +19656,13 @@
         <v>300</v>
       </c>
       <c r="K268" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L268" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M268" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q268" t="n">
         <v>18</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K269" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L269" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M269" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q269" t="n">
         <v>18</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19800,13 +19800,13 @@
         <v>400</v>
       </c>
       <c r="K270" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L270" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M270" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="Q270" t="n">
         <v>18</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K271" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L271" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M271" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q271" t="n">
         <v>18</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19944,13 +19944,13 @@
         <v>300</v>
       </c>
       <c r="K272" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L272" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M272" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q272" t="n">
         <v>18</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K273" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L273" t="n">
         <v>9000</v>
       </c>
-      <c r="L273" t="n">
-        <v>10000</v>
-      </c>
       <c r="M273" t="n">
-        <v>9500</v>
+        <v>8750</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="Q273" t="n">
         <v>18</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K274" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L274" t="n">
         <v>7000</v>
       </c>
-      <c r="L274" t="n">
-        <v>8000</v>
-      </c>
       <c r="M274" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q274" t="n">
         <v>18</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K275" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L275" t="n">
         <v>5000</v>
       </c>
-      <c r="L275" t="n">
-        <v>6000</v>
-      </c>
       <c r="M275" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q275" t="n">
         <v>18</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K276" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L276" t="n">
         <v>3000</v>
       </c>
-      <c r="L276" t="n">
-        <v>4000</v>
-      </c>
       <c r="M276" t="n">
-        <v>3500</v>
+        <v>2750</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="Q276" t="n">
         <v>18</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K277" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L277" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M277" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>708</v>
+        <v>528</v>
       </c>
       <c r="Q277" t="n">
         <v>18</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K278" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L278" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M278" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>597</v>
+        <v>417</v>
       </c>
       <c r="Q278" t="n">
         <v>18</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K279" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L279" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M279" t="n">
-        <v>8750</v>
+        <v>5500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="Q279" t="n">
         <v>18</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K280" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L280" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M280" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q280" t="n">
         <v>18</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20592,13 +20592,13 @@
         <v>300</v>
       </c>
       <c r="K281" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L281" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M281" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="Q281" t="n">
         <v>18</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20664,13 +20664,13 @@
         <v>400</v>
       </c>
       <c r="K282" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L282" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M282" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q282" t="n">
         <v>18</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K283" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L283" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M283" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q283" t="n">
         <v>18</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K284" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L284" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M284" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q284" t="n">
         <v>18</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K285" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="L285" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M285" t="n">
-        <v>9500</v>
+        <v>13750</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>528</v>
+        <v>764</v>
       </c>
       <c r="Q285" t="n">
         <v>18</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K286" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L286" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M286" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q286" t="n">
         <v>18</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K287" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L287" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M287" t="n">
-        <v>5500</v>
+        <v>9750</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="Q287" t="n">
         <v>18</v>
@@ -21069,58 +21069,346 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E288" t="n">
+        <v>4</v>
+      </c>
+      <c r="F288" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J288" t="n">
+        <v>300</v>
+      </c>
+      <c r="K288" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L288" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M288" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P288" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>18</v>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>2</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D289" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="E288" t="n">
-        <v>4</v>
-      </c>
-      <c r="F288" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>Cultivar IV Región</t>
-        </is>
-      </c>
-      <c r="I288" t="inlineStr">
+      <c r="E289" t="n">
+        <v>4</v>
+      </c>
+      <c r="F289" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J289" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K289" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L289" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M289" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P289" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>18</v>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>2</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E290" t="n">
+        <v>4</v>
+      </c>
+      <c r="F290" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J290" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K290" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L290" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M290" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P290" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>18</v>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>2</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D291" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E291" t="n">
+        <v>4</v>
+      </c>
+      <c r="F291" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J291" t="n">
+        <v>800</v>
+      </c>
+      <c r="K291" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L291" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M291" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P291" t="n">
+        <v>306</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>18</v>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>2</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E292" t="n">
+        <v>4</v>
+      </c>
+      <c r="F292" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J288" t="n">
+      <c r="J292" t="n">
         <v>400</v>
       </c>
-      <c r="K288" t="n">
+      <c r="K292" t="n">
         <v>3000</v>
       </c>
-      <c r="L288" t="n">
+      <c r="L292" t="n">
         <v>4000</v>
       </c>
-      <c r="M288" t="n">
+      <c r="M292" t="n">
         <v>3500</v>
       </c>
-      <c r="N288" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O288" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P288" t="n">
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P292" t="n">
         <v>194</v>
       </c>
-      <c r="Q288" t="n">
-        <v>18</v>
-      </c>
-      <c r="R288" t="inlineStr">
+      <c r="Q292" t="n">
+        <v>18</v>
+      </c>
+      <c r="R292" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R292"/>
+  <dimension ref="A1:R296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44237</v>
+        <v>44490</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K27" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="L27" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>10500</v>
+        <v>14750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>583</v>
+        <v>819</v>
       </c>
       <c r="Q27" t="n">
         <v>18</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44237</v>
+        <v>44490</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K28" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="L28" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M28" t="n">
-        <v>8500</v>
+        <v>12750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>472</v>
+        <v>708</v>
       </c>
       <c r="Q28" t="n">
         <v>18</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44237</v>
+        <v>44490</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K29" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="L29" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M29" t="n">
-        <v>6500</v>
+        <v>10750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>361</v>
+        <v>597</v>
       </c>
       <c r="Q29" t="n">
         <v>18</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44398</v>
+        <v>44490</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K30" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="L30" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M30" t="n">
-        <v>12750</v>
+        <v>7750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>708</v>
+        <v>431</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44398</v>
+        <v>44237</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K31" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="L31" t="n">
         <v>11000</v>
       </c>
       <c r="M31" t="n">
-        <v>10750</v>
+        <v>10500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="Q31" t="n">
         <v>18</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44398</v>
+        <v>44237</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
         <v>400</v>
       </c>
       <c r="K32" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L32" t="n">
         <v>9000</v>
       </c>
       <c r="M32" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="Q32" t="n">
         <v>18</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44398</v>
+        <v>44237</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K33" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L33" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M33" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="Q33" t="n">
         <v>18</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44441</v>
+        <v>44398</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K34" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L34" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M34" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="Q34" t="n">
         <v>18</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44441</v>
+        <v>44398</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K35" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L35" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M35" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q35" t="n">
         <v>18</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44441</v>
+        <v>44398</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2952,13 +2952,13 @@
         <v>400</v>
       </c>
       <c r="K36" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L36" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M36" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q36" t="n">
         <v>18</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44441</v>
+        <v>44398</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3024,13 +3024,13 @@
         <v>200</v>
       </c>
       <c r="K37" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L37" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M37" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q37" t="n">
         <v>18</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44420</v>
+        <v>44441</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44420</v>
+        <v>44441</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K39" t="n">
         <v>11500</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44420</v>
+        <v>44441</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K40" t="n">
         <v>9500</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44420</v>
+        <v>44441</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K41" t="n">
         <v>6500</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44462</v>
+        <v>44420</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K42" t="n">
         <v>13500</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44462</v>
+        <v>44420</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44462</v>
+        <v>44420</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44462</v>
+        <v>44420</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K45" t="n">
         <v>6500</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44371</v>
+        <v>44462</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K46" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L46" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M46" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="Q46" t="n">
         <v>18</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44371</v>
+        <v>44462</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K47" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L47" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M47" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q47" t="n">
         <v>18</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44371</v>
+        <v>44462</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K48" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L48" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M48" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q48" t="n">
         <v>18</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44371</v>
+        <v>44462</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K49" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L49" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M49" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q49" t="n">
         <v>18</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44217</v>
+        <v>44371</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K50" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L50" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M50" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q50" t="n">
         <v>18</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44217</v>
+        <v>44371</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K51" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L51" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M51" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q51" t="n">
         <v>18</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44217</v>
+        <v>44371</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K52" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L52" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M52" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q52" t="n">
         <v>18</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K53" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L53" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M53" t="n">
-        <v>10500</v>
+        <v>5750</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>583</v>
+        <v>319</v>
       </c>
       <c r="Q53" t="n">
         <v>18</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44238</v>
+        <v>44217</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K54" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L54" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M54" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="Q54" t="n">
         <v>18</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44238</v>
+        <v>44217</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K55" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L55" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M55" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>361</v>
+        <v>431</v>
       </c>
       <c r="Q55" t="n">
         <v>18</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44405</v>
+        <v>44217</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K56" t="n">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="L56" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M56" t="n">
-        <v>12750</v>
+        <v>5750</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>708</v>
+        <v>319</v>
       </c>
       <c r="Q56" t="n">
         <v>18</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44405</v>
+        <v>44238</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K57" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="L57" t="n">
         <v>11000</v>
       </c>
       <c r="M57" t="n">
-        <v>10750</v>
+        <v>10500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="Q57" t="n">
         <v>18</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44405</v>
+        <v>44238</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K58" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L58" t="n">
         <v>9000</v>
       </c>
       <c r="M58" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="Q58" t="n">
         <v>18</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44405</v>
+        <v>44238</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K59" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L59" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M59" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="Q59" t="n">
         <v>18</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44272</v>
+        <v>44405</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4680,13 +4680,13 @@
         <v>300</v>
       </c>
       <c r="K60" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="L60" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M60" t="n">
-        <v>9500</v>
+        <v>12750</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>528</v>
+        <v>708</v>
       </c>
       <c r="Q60" t="n">
         <v>18</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44272</v>
+        <v>44405</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4752,13 +4752,13 @@
         <v>400</v>
       </c>
       <c r="K61" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="L61" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M61" t="n">
-        <v>7500</v>
+        <v>10750</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>417</v>
+        <v>597</v>
       </c>
       <c r="Q61" t="n">
         <v>18</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44272</v>
+        <v>44405</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K62" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L62" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M62" t="n">
-        <v>5500</v>
+        <v>8750</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>306</v>
+        <v>486</v>
       </c>
       <c r="Q62" t="n">
         <v>18</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44272</v>
+        <v>44405</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K63" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L63" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M63" t="n">
-        <v>3500</v>
+        <v>5750</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="Q63" t="n">
         <v>18</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44210</v>
+        <v>44272</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K64" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L64" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M64" t="n">
-        <v>11750</v>
+        <v>9500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>653</v>
+        <v>528</v>
       </c>
       <c r="Q64" t="n">
         <v>18</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44210</v>
+        <v>44272</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K65" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L65" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M65" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>542</v>
+        <v>417</v>
       </c>
       <c r="Q65" t="n">
         <v>18</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44210</v>
+        <v>44272</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K66" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L66" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M66" t="n">
-        <v>7750</v>
+        <v>5500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>431</v>
+        <v>306</v>
       </c>
       <c r="Q66" t="n">
         <v>18</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44399</v>
+        <v>44272</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K67" t="n">
-        <v>12500</v>
+        <v>3000</v>
       </c>
       <c r="L67" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M67" t="n">
-        <v>12750</v>
+        <v>3500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>708</v>
+        <v>194</v>
       </c>
       <c r="Q67" t="n">
         <v>18</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44399</v>
+        <v>44210</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K68" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L68" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M68" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q68" t="n">
         <v>18</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44399</v>
+        <v>44210</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K69" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L69" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M69" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q69" t="n">
         <v>18</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44399</v>
+        <v>44210</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K70" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L70" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M70" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q70" t="n">
         <v>18</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K71" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L71" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M71" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="Q71" t="n">
         <v>18</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K72" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L72" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M72" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q72" t="n">
         <v>18</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K73" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L73" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M73" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q73" t="n">
         <v>18</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K74" t="n">
         <v>5500</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44419</v>
+        <v>44364</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K75" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="L75" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M75" t="n">
-        <v>13750</v>
+        <v>11750</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>764</v>
+        <v>653</v>
       </c>
       <c r="Q75" t="n">
         <v>18</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44419</v>
+        <v>44364</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K76" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L76" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M76" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q76" t="n">
         <v>18</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44419</v>
+        <v>44364</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K77" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L77" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M77" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q77" t="n">
         <v>18</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44419</v>
+        <v>44364</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5976,13 +5976,13 @@
         <v>300</v>
       </c>
       <c r="K78" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L78" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M78" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q78" t="n">
         <v>18</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6048,13 +6048,13 @@
         <v>200</v>
       </c>
       <c r="K79" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L79" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M79" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q79" t="n">
         <v>18</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K80" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L80" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M80" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q80" t="n">
         <v>18</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K81" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L81" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M81" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q81" t="n">
         <v>18</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44230</v>
+        <v>44419</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K82" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="L82" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M82" t="n">
-        <v>11750</v>
+        <v>6750</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>653</v>
+        <v>375</v>
       </c>
       <c r="Q82" t="n">
         <v>18</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6329,11 +6329,11 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K83" t="n">
         <v>9500</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J85" t="n">
         <v>240</v>
       </c>
       <c r="K85" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L85" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M85" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q85" t="n">
         <v>18</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J86" t="n">
         <v>400</v>
       </c>
       <c r="K86" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L86" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M86" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q86" t="n">
         <v>18</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K87" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L87" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M87" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q87" t="n">
         <v>18</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44370</v>
+        <v>44230</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="K88" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="L88" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M88" t="n">
-        <v>12736</v>
+        <v>7750</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>708</v>
+        <v>431</v>
       </c>
       <c r="Q88" t="n">
         <v>18</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44370</v>
+        <v>44216</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K89" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L89" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M89" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q89" t="n">
         <v>18</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44370</v>
+        <v>44216</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6840,13 +6840,13 @@
         <v>400</v>
       </c>
       <c r="K90" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L90" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M90" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q90" t="n">
         <v>18</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44370</v>
+        <v>44216</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,7 +6909,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K91" t="n">
         <v>5500</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44244</v>
+        <v>44370</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="K92" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L92" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M92" t="n">
-        <v>9750</v>
+        <v>12736</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q92" t="n">
         <v>18</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44244</v>
+        <v>44370</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K93" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L93" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M93" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q93" t="n">
         <v>18</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44244</v>
+        <v>44370</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K94" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L94" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M94" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q94" t="n">
         <v>18</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44482</v>
+        <v>44370</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K95" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="L95" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M95" t="n">
-        <v>13750</v>
+        <v>5750</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>764</v>
+        <v>319</v>
       </c>
       <c r="Q95" t="n">
         <v>18</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44482</v>
+        <v>44244</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K96" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L96" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M96" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q96" t="n">
         <v>18</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44482</v>
+        <v>44244</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="K97" t="n">
-        <v>9200</v>
+        <v>7500</v>
       </c>
       <c r="L97" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M97" t="n">
-        <v>9600</v>
+        <v>7750</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>533</v>
+        <v>431</v>
       </c>
       <c r="Q97" t="n">
         <v>18</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44482</v>
+        <v>44244</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J98" t="n">
         <v>200</v>
       </c>
       <c r="K98" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L98" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M98" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q98" t="n">
         <v>18</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K99" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L99" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M99" t="n">
-        <v>13250</v>
+        <v>13750</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="Q99" t="n">
         <v>18</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K100" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L100" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="M100" t="n">
-        <v>11250</v>
+        <v>11750</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="Q100" t="n">
         <v>18</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K101" t="n">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="L101" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="M101" t="n">
-        <v>9250</v>
+        <v>9600</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="Q101" t="n">
         <v>18</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K102" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L102" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M102" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="Q102" t="n">
         <v>18</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K103" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L103" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M103" t="n">
-        <v>11750</v>
+        <v>13250</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>653</v>
+        <v>736</v>
       </c>
       <c r="Q103" t="n">
         <v>18</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K104" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L104" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="M104" t="n">
-        <v>9750</v>
+        <v>11250</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>542</v>
+        <v>625</v>
       </c>
       <c r="Q104" t="n">
         <v>18</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K105" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L105" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M105" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="Q105" t="n">
         <v>18</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K106" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L106" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M106" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="Q106" t="n">
         <v>18</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44483</v>
+        <v>44336</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8064,13 +8064,13 @@
         <v>300</v>
       </c>
       <c r="K107" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="L107" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M107" t="n">
-        <v>13750</v>
+        <v>11750</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>764</v>
+        <v>653</v>
       </c>
       <c r="Q107" t="n">
         <v>18</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44483</v>
+        <v>44336</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K108" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L108" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M108" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q108" t="n">
         <v>18</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44483</v>
+        <v>44336</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K109" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L109" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M109" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q109" t="n">
         <v>18</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44483</v>
+        <v>44336</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8280,13 +8280,13 @@
         <v>240</v>
       </c>
       <c r="K110" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L110" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M110" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="Q110" t="n">
         <v>18</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8352,13 +8352,13 @@
         <v>300</v>
       </c>
       <c r="K111" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L111" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M111" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q111" t="n">
         <v>18</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8424,13 +8424,13 @@
         <v>400</v>
       </c>
       <c r="K112" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L112" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M112" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>375</v>
+        <v>653</v>
       </c>
       <c r="Q112" t="n">
         <v>18</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8496,13 +8496,13 @@
         <v>300</v>
       </c>
       <c r="K113" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L113" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M113" t="n">
-        <v>4750</v>
+        <v>9750</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>264</v>
+        <v>542</v>
       </c>
       <c r="Q113" t="n">
         <v>18</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8568,13 +8568,13 @@
         <v>240</v>
       </c>
       <c r="K114" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L114" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M114" t="n">
-        <v>2750</v>
+        <v>6750</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="Q114" t="n">
         <v>18</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8640,13 +8640,13 @@
         <v>300</v>
       </c>
       <c r="K115" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L115" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M115" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q115" t="n">
         <v>18</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,7 +8781,7 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K117" t="n">
         <v>4500</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K119" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L119" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M119" t="n">
-        <v>10500</v>
+        <v>8750</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>583</v>
+        <v>486</v>
       </c>
       <c r="Q119" t="n">
         <v>18</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K120" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L120" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M120" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>472</v>
+        <v>375</v>
       </c>
       <c r="Q120" t="n">
         <v>18</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K121" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L121" t="n">
         <v>5000</v>
       </c>
       <c r="M121" t="n">
-        <v>4500</v>
+        <v>4750</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q121" t="n">
         <v>18</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44224</v>
+        <v>44322</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K122" t="n">
-        <v>11500</v>
+        <v>2500</v>
       </c>
       <c r="L122" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="M122" t="n">
-        <v>11750</v>
+        <v>2750</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>653</v>
+        <v>153</v>
       </c>
       <c r="Q122" t="n">
         <v>18</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K123" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L123" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M123" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="Q123" t="n">
         <v>18</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
         <v>240</v>
       </c>
       <c r="K124" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L124" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M124" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q124" t="n">
         <v>18</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44315</v>
+        <v>44265</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K125" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L125" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M125" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>528</v>
+        <v>250</v>
       </c>
       <c r="Q125" t="n">
         <v>18</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K126" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L126" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M126" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q126" t="n">
         <v>18</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K127" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L127" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M127" t="n">
-        <v>5500</v>
+        <v>9750</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="Q127" t="n">
         <v>18</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K128" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="L128" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M128" t="n">
-        <v>3500</v>
+        <v>7750</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>194</v>
+        <v>431</v>
       </c>
       <c r="Q128" t="n">
         <v>18</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K129" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L129" t="n">
         <v>10000</v>
       </c>
       <c r="M129" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Q129" t="n">
         <v>18</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K130" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L130" t="n">
         <v>8000</v>
       </c>
       <c r="M130" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="Q130" t="n">
         <v>18</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K131" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L131" t="n">
         <v>6000</v>
       </c>
       <c r="M131" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q131" t="n">
         <v>18</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K132" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L132" t="n">
         <v>4000</v>
       </c>
       <c r="M132" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="Q132" t="n">
         <v>18</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K133" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L133" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M133" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>639</v>
+        <v>542</v>
       </c>
       <c r="Q133" t="n">
         <v>18</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K134" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L134" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M134" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q134" t="n">
         <v>18</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K135" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L135" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M135" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="Q135" t="n">
         <v>18</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="K136" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L136" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M136" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="Q136" t="n">
         <v>18</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K137" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L137" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M137" t="n">
-        <v>12750</v>
+        <v>11500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>708</v>
+        <v>639</v>
       </c>
       <c r="Q137" t="n">
         <v>18</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K138" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="L138" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M138" t="n">
-        <v>10750</v>
+        <v>9500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="Q138" t="n">
         <v>18</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K139" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L139" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M139" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="Q139" t="n">
         <v>18</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K140" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L140" t="n">
         <v>6000</v>
       </c>
       <c r="M140" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q140" t="n">
         <v>18</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10512,13 +10512,13 @@
         <v>300</v>
       </c>
       <c r="K141" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L141" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M141" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q141" t="n">
         <v>18</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10584,13 +10584,13 @@
         <v>400</v>
       </c>
       <c r="K142" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L142" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M142" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q142" t="n">
         <v>18</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K143" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L143" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M143" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q143" t="n">
         <v>18</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K144" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L144" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M144" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q144" t="n">
         <v>18</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K145" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L145" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="M145" t="n">
-        <v>12250</v>
+        <v>9750</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>681</v>
+        <v>542</v>
       </c>
       <c r="Q145" t="n">
         <v>18</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K146" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L146" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M146" t="n">
-        <v>10250</v>
+        <v>7750</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>569</v>
+        <v>431</v>
       </c>
       <c r="Q146" t="n">
         <v>18</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K147" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L147" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M147" t="n">
-        <v>8250</v>
+        <v>5750</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>458</v>
+        <v>319</v>
       </c>
       <c r="Q147" t="n">
         <v>18</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K148" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L148" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M148" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q148" t="n">
         <v>18</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K149" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L149" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="M149" t="n">
-        <v>13250</v>
+        <v>12250</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>736</v>
+        <v>681</v>
       </c>
       <c r="Q149" t="n">
         <v>18</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K150" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L150" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="M150" t="n">
-        <v>11250</v>
+        <v>10250</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>625</v>
+        <v>569</v>
       </c>
       <c r="Q150" t="n">
         <v>18</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K151" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L151" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="M151" t="n">
-        <v>9250</v>
+        <v>8250</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="Q151" t="n">
         <v>18</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11304,13 +11304,13 @@
         <v>300</v>
       </c>
       <c r="K152" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L152" t="n">
         <v>6000</v>
       </c>
-      <c r="L152" t="n">
-        <v>6500</v>
-      </c>
       <c r="M152" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q152" t="n">
         <v>18</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K153" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L153" t="n">
         <v>13500</v>
       </c>
-      <c r="L153" t="n">
-        <v>14000</v>
-      </c>
       <c r="M153" t="n">
-        <v>13750</v>
+        <v>13250</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="Q153" t="n">
         <v>18</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11448,13 +11448,13 @@
         <v>400</v>
       </c>
       <c r="K154" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L154" t="n">
         <v>11500</v>
       </c>
-      <c r="L154" t="n">
-        <v>12000</v>
-      </c>
       <c r="M154" t="n">
-        <v>11750</v>
+        <v>11250</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="Q154" t="n">
         <v>18</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K155" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L155" t="n">
         <v>9500</v>
       </c>
-      <c r="L155" t="n">
-        <v>10000</v>
-      </c>
       <c r="M155" t="n">
-        <v>9708</v>
+        <v>9250</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="Q155" t="n">
         <v>18</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11592,13 +11592,13 @@
         <v>300</v>
       </c>
       <c r="K156" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L156" t="n">
         <v>6500</v>
       </c>
-      <c r="L156" t="n">
-        <v>7000</v>
-      </c>
       <c r="M156" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q156" t="n">
         <v>18</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11664,13 +11664,13 @@
         <v>360</v>
       </c>
       <c r="K157" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="L157" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M157" t="n">
-        <v>9500</v>
+        <v>13750</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>528</v>
+        <v>764</v>
       </c>
       <c r="Q157" t="n">
         <v>18</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K158" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L158" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M158" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q158" t="n">
         <v>18</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="K159" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L159" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M159" t="n">
-        <v>5500</v>
+        <v>9708</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>306</v>
+        <v>539</v>
       </c>
       <c r="Q159" t="n">
         <v>18</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K160" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L160" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M160" t="n">
-        <v>3500</v>
+        <v>6750</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>194</v>
+        <v>375</v>
       </c>
       <c r="Q160" t="n">
         <v>18</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K161" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="L161" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M161" t="n">
-        <v>13750</v>
+        <v>9500</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>764</v>
+        <v>528</v>
       </c>
       <c r="Q161" t="n">
         <v>18</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K162" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L162" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M162" t="n">
-        <v>11750</v>
+        <v>7500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>653</v>
+        <v>417</v>
       </c>
       <c r="Q162" t="n">
         <v>18</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K163" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L163" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M163" t="n">
-        <v>9750</v>
+        <v>5500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>542</v>
+        <v>306</v>
       </c>
       <c r="Q163" t="n">
         <v>18</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K164" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L164" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M164" t="n">
-        <v>6750</v>
+        <v>3500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>375</v>
+        <v>194</v>
       </c>
       <c r="Q164" t="n">
         <v>18</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12237,7 +12237,7 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K165" t="n">
         <v>13500</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12309,7 +12309,7 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K166" t="n">
         <v>11500</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12381,7 +12381,7 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K167" t="n">
         <v>9500</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12453,7 +12453,7 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K168" t="n">
         <v>6500</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12525,7 +12525,7 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K169" t="n">
         <v>13500</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K171" t="n">
         <v>9500</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12741,7 +12741,7 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K172" t="n">
         <v>6500</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K173" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="L173" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M173" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>819</v>
+        <v>764</v>
       </c>
       <c r="Q173" t="n">
         <v>18</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K174" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L174" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M174" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>708</v>
+        <v>653</v>
       </c>
       <c r="Q174" t="n">
         <v>18</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K175" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L175" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M175" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q175" t="n">
         <v>18</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13032,13 +13032,13 @@
         <v>240</v>
       </c>
       <c r="K176" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L176" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M176" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q176" t="n">
         <v>18</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13101,7 +13101,7 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K177" t="n">
         <v>14500</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13173,7 +13173,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K178" t="n">
         <v>12500</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13245,7 +13245,7 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K179" t="n">
         <v>10500</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44280</v>
+        <v>44434</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K180" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L180" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M180" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q180" t="n">
         <v>18</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K181" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="L181" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M181" t="n">
-        <v>6750</v>
+        <v>14750</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>375</v>
+        <v>819</v>
       </c>
       <c r="Q181" t="n">
         <v>18</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K182" t="n">
-        <v>4500</v>
+        <v>12500</v>
       </c>
       <c r="L182" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M182" t="n">
-        <v>4750</v>
+        <v>12750</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>264</v>
+        <v>708</v>
       </c>
       <c r="Q182" t="n">
         <v>18</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K183" t="n">
-        <v>2500</v>
+        <v>10500</v>
       </c>
       <c r="L183" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="M183" t="n">
-        <v>2750</v>
+        <v>10750</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>153</v>
+        <v>597</v>
       </c>
       <c r="Q183" t="n">
         <v>18</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44489</v>
+        <v>44280</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K184" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="L184" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M184" t="n">
-        <v>13750</v>
+        <v>8750</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>764</v>
+        <v>486</v>
       </c>
       <c r="Q184" t="n">
         <v>18</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44489</v>
+        <v>44280</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13680,13 +13680,13 @@
         <v>400</v>
       </c>
       <c r="K185" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="L185" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M185" t="n">
-        <v>11750</v>
+        <v>6750</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>653</v>
+        <v>375</v>
       </c>
       <c r="Q185" t="n">
         <v>18</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44489</v>
+        <v>44280</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K186" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="L186" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M186" t="n">
-        <v>9750</v>
+        <v>4750</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>542</v>
+        <v>264</v>
       </c>
       <c r="Q186" t="n">
         <v>18</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44489</v>
+        <v>44280</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K187" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L187" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M187" t="n">
-        <v>6750</v>
+        <v>2750</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>375</v>
+        <v>153</v>
       </c>
       <c r="Q187" t="n">
         <v>18</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13896,13 +13896,13 @@
         <v>240</v>
       </c>
       <c r="K188" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L188" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M188" t="n">
-        <v>13250</v>
+        <v>13750</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="Q188" t="n">
         <v>18</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K189" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L189" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="M189" t="n">
-        <v>11250</v>
+        <v>11750</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="Q189" t="n">
         <v>18</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K190" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L190" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="M190" t="n">
-        <v>9250</v>
+        <v>9750</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="Q190" t="n">
         <v>18</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K191" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L191" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M191" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="Q191" t="n">
         <v>18</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K192" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L192" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M192" t="n">
-        <v>11750</v>
+        <v>13250</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>653</v>
+        <v>736</v>
       </c>
       <c r="Q192" t="n">
         <v>18</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14256,13 +14256,13 @@
         <v>300</v>
       </c>
       <c r="K193" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L193" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="M193" t="n">
-        <v>9750</v>
+        <v>11250</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>542</v>
+        <v>625</v>
       </c>
       <c r="Q193" t="n">
         <v>18</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K194" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L194" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M194" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="Q194" t="n">
         <v>18</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K195" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L195" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M195" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="Q195" t="n">
         <v>18</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14469,7 +14469,7 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K196" t="n">
         <v>11500</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14541,7 +14541,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K197" t="n">
         <v>9500</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K198" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L198" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M198" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q198" t="n">
         <v>18</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44258</v>
+        <v>44335</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K199" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="L199" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M199" t="n">
-        <v>9750</v>
+        <v>3750</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>542</v>
+        <v>208</v>
       </c>
       <c r="Q199" t="n">
         <v>18</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K200" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L200" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M200" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q200" t="n">
         <v>18</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K201" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L201" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M201" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q201" t="n">
         <v>18</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K202" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="L202" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M202" t="n">
-        <v>13750</v>
+        <v>7750</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>764</v>
+        <v>431</v>
       </c>
       <c r="Q202" t="n">
         <v>18</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K203" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L203" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M203" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q203" t="n">
         <v>18</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K204" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L204" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M204" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q204" t="n">
         <v>18</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K205" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L205" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M205" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q205" t="n">
         <v>18</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15192,13 +15192,13 @@
         <v>240</v>
       </c>
       <c r="K206" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L206" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M206" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q206" t="n">
         <v>18</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K207" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L207" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M207" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q207" t="n">
         <v>18</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K208" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L208" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M208" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q208" t="n">
         <v>18</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44300</v>
+        <v>44475</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K209" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L209" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M209" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q209" t="n">
         <v>18</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K210" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L210" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M210" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q210" t="n">
         <v>18</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15545,20 +15545,20 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K211" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L211" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M211" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q211" t="n">
         <v>18</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K212" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L212" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M212" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q212" t="n">
         <v>18</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K213" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L213" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M213" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>639</v>
+        <v>542</v>
       </c>
       <c r="Q213" t="n">
         <v>18</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K214" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L214" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M214" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q214" t="n">
         <v>18</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K215" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L215" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M215" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="Q215" t="n">
         <v>18</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K216" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L216" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M216" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="Q216" t="n">
         <v>18</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K217" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L217" t="n">
         <v>12000</v>
       </c>
-      <c r="L217" t="n">
-        <v>12500</v>
-      </c>
       <c r="M217" t="n">
-        <v>12250</v>
+        <v>11500</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>681</v>
+        <v>639</v>
       </c>
       <c r="Q217" t="n">
         <v>18</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K218" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L218" t="n">
         <v>10000</v>
       </c>
-      <c r="L218" t="n">
-        <v>10500</v>
-      </c>
       <c r="M218" t="n">
-        <v>10250</v>
+        <v>9500</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>569</v>
+        <v>528</v>
       </c>
       <c r="Q218" t="n">
         <v>18</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K219" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L219" t="n">
         <v>8000</v>
       </c>
-      <c r="L219" t="n">
-        <v>8500</v>
-      </c>
       <c r="M219" t="n">
-        <v>8250</v>
+        <v>7500</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="Q219" t="n">
         <v>18</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16197,7 +16197,7 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K220" t="n">
         <v>5000</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K221" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L221" t="n">
         <v>12500</v>
       </c>
-      <c r="L221" t="n">
-        <v>13000</v>
-      </c>
       <c r="M221" t="n">
-        <v>12750</v>
+        <v>12250</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="Q221" t="n">
         <v>18</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16344,13 +16344,13 @@
         <v>500</v>
       </c>
       <c r="K222" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L222" t="n">
         <v>10500</v>
       </c>
-      <c r="L222" t="n">
-        <v>11000</v>
-      </c>
       <c r="M222" t="n">
-        <v>10750</v>
+        <v>10250</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="Q222" t="n">
         <v>18</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K223" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L223" t="n">
         <v>8500</v>
       </c>
-      <c r="L223" t="n">
-        <v>9000</v>
-      </c>
       <c r="M223" t="n">
-        <v>8750</v>
+        <v>8250</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="Q223" t="n">
         <v>18</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K224" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L224" t="n">
         <v>6000</v>
       </c>
       <c r="M224" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q224" t="n">
         <v>18</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="K225" t="n">
         <v>12500</v>
@@ -16566,7 +16566,7 @@
         <v>13000</v>
       </c>
       <c r="M225" t="n">
-        <v>12742</v>
+        <v>12750</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,7 +16629,7 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K226" t="n">
         <v>10500</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16701,7 +16701,7 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K227" t="n">
         <v>8500</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,7 +16773,7 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K228" t="n">
         <v>5500</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>900</v>
+        <v>248</v>
       </c>
       <c r="K229" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L229" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M229" t="n">
-        <v>14750</v>
+        <v>12742</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>819</v>
+        <v>708</v>
       </c>
       <c r="Q229" t="n">
         <v>18</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K230" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="L230" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M230" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>708</v>
+        <v>597</v>
       </c>
       <c r="Q230" t="n">
         <v>18</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>760</v>
+        <v>300</v>
       </c>
       <c r="K231" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L231" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M231" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>597</v>
+        <v>486</v>
       </c>
       <c r="Q231" t="n">
         <v>18</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>540</v>
+        <v>200</v>
       </c>
       <c r="K232" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L232" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M232" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q232" t="n">
         <v>18</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K233" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L233" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M233" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="Q233" t="n">
         <v>18</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K234" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L234" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M234" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="Q234" t="n">
         <v>18</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K235" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="L235" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M235" t="n">
-        <v>8750</v>
+        <v>10750</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="Q235" t="n">
         <v>18</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="K236" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L236" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M236" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q236" t="n">
         <v>18</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K237" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L237" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M237" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>819</v>
+        <v>708</v>
       </c>
       <c r="Q237" t="n">
         <v>18</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K238" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="L238" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M238" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>708</v>
+        <v>597</v>
       </c>
       <c r="Q238" t="n">
         <v>18</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17568,13 +17568,13 @@
         <v>400</v>
       </c>
       <c r="K239" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L239" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M239" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>597</v>
+        <v>486</v>
       </c>
       <c r="Q239" t="n">
         <v>18</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K240" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L240" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M240" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q240" t="n">
         <v>18</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K241" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="L241" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M241" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>542</v>
+        <v>819</v>
       </c>
       <c r="Q241" t="n">
         <v>18</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K242" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="L242" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M242" t="n">
-        <v>6750</v>
+        <v>12750</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>375</v>
+        <v>708</v>
       </c>
       <c r="Q242" t="n">
         <v>18</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K243" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="L243" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M243" t="n">
-        <v>4750</v>
+        <v>10750</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>264</v>
+        <v>597</v>
       </c>
       <c r="Q243" t="n">
         <v>18</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K244" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="L244" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M244" t="n">
-        <v>2750</v>
+        <v>7750</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>153</v>
+        <v>431</v>
       </c>
       <c r="Q244" t="n">
         <v>18</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -18000,13 +18000,13 @@
         <v>300</v>
       </c>
       <c r="K245" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="L245" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M245" t="n">
-        <v>13750</v>
+        <v>9750</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>764</v>
+        <v>542</v>
       </c>
       <c r="Q245" t="n">
         <v>18</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K246" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="L246" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M246" t="n">
-        <v>11750</v>
+        <v>6750</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>653</v>
+        <v>375</v>
       </c>
       <c r="Q246" t="n">
         <v>18</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18144,13 +18144,13 @@
         <v>360</v>
       </c>
       <c r="K247" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="L247" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M247" t="n">
-        <v>9750</v>
+        <v>4750</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>542</v>
+        <v>264</v>
       </c>
       <c r="Q247" t="n">
         <v>18</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K248" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L248" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M248" t="n">
-        <v>6750</v>
+        <v>2750</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>375</v>
+        <v>153</v>
       </c>
       <c r="Q248" t="n">
         <v>18</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,7 +18285,7 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K249" t="n">
         <v>13500</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K250" t="n">
         <v>11500</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,7 +18429,7 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K251" t="n">
         <v>9500</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18501,7 +18501,7 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K252" t="n">
         <v>6500</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K253" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L253" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M253" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="Q253" t="n">
         <v>18</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18648,13 +18648,13 @@
         <v>400</v>
       </c>
       <c r="K254" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L254" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M254" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q254" t="n">
         <v>18</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K255" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L255" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M255" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q255" t="n">
         <v>18</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18792,13 +18792,13 @@
         <v>200</v>
       </c>
       <c r="K256" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L256" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M256" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q256" t="n">
         <v>18</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K257" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L257" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M257" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="Q257" t="n">
         <v>18</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K258" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L258" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M258" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q258" t="n">
         <v>18</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K259" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L259" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M259" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q259" t="n">
         <v>18</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K260" t="n">
         <v>5500</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K261" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L261" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M261" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>486</v>
+        <v>653</v>
       </c>
       <c r="Q261" t="n">
         <v>18</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K262" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L262" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M262" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q262" t="n">
         <v>18</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K263" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L263" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M263" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="Q263" t="n">
         <v>18</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K264" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L264" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M264" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="Q264" t="n">
         <v>18</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K265" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L265" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="M265" t="n">
-        <v>12250</v>
+        <v>8750</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>681</v>
+        <v>486</v>
       </c>
       <c r="Q265" t="n">
         <v>18</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19512,13 +19512,13 @@
         <v>400</v>
       </c>
       <c r="K266" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L266" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="M266" t="n">
-        <v>10250</v>
+        <v>6750</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>569</v>
+        <v>375</v>
       </c>
       <c r="Q266" t="n">
         <v>18</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K267" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L267" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M267" t="n">
-        <v>8250</v>
+        <v>4750</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>458</v>
+        <v>264</v>
       </c>
       <c r="Q267" t="n">
         <v>18</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19656,13 +19656,13 @@
         <v>300</v>
       </c>
       <c r="K268" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L268" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M268" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q268" t="n">
         <v>18</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K269" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L269" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="M269" t="n">
-        <v>9750</v>
+        <v>12250</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>542</v>
+        <v>681</v>
       </c>
       <c r="Q269" t="n">
         <v>18</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19800,13 +19800,13 @@
         <v>400</v>
       </c>
       <c r="K270" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L270" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M270" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="Q270" t="n">
         <v>18</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K271" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L271" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M271" t="n">
-        <v>5750</v>
+        <v>8250</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>319</v>
+        <v>458</v>
       </c>
       <c r="Q271" t="n">
         <v>18</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19944,13 +19944,13 @@
         <v>300</v>
       </c>
       <c r="K272" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L272" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M272" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q272" t="n">
         <v>18</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K273" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L273" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M273" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q273" t="n">
         <v>18</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20088,13 +20088,13 @@
         <v>400</v>
       </c>
       <c r="K274" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L274" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M274" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="Q274" t="n">
         <v>18</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K275" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L275" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M275" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q275" t="n">
         <v>18</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20232,13 +20232,13 @@
         <v>300</v>
       </c>
       <c r="K276" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L276" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M276" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q276" t="n">
         <v>18</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K277" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L277" t="n">
         <v>9000</v>
       </c>
-      <c r="L277" t="n">
-        <v>10000</v>
-      </c>
       <c r="M277" t="n">
-        <v>9500</v>
+        <v>8750</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="Q277" t="n">
         <v>18</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K278" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L278" t="n">
         <v>7000</v>
       </c>
-      <c r="L278" t="n">
-        <v>8000</v>
-      </c>
       <c r="M278" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q278" t="n">
         <v>18</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K279" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L279" t="n">
         <v>5000</v>
       </c>
-      <c r="L279" t="n">
-        <v>6000</v>
-      </c>
       <c r="M279" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q279" t="n">
         <v>18</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K280" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L280" t="n">
         <v>3000</v>
       </c>
-      <c r="L280" t="n">
-        <v>4000</v>
-      </c>
       <c r="M280" t="n">
-        <v>3500</v>
+        <v>2750</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="Q280" t="n">
         <v>18</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K281" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L281" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M281" t="n">
-        <v>12750</v>
+        <v>9500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>708</v>
+        <v>528</v>
       </c>
       <c r="Q281" t="n">
         <v>18</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K282" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L282" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M282" t="n">
-        <v>10750</v>
+        <v>7500</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>597</v>
+        <v>417</v>
       </c>
       <c r="Q282" t="n">
         <v>18</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K283" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L283" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M283" t="n">
-        <v>8750</v>
+        <v>5500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="Q283" t="n">
         <v>18</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K284" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L284" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M284" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q284" t="n">
         <v>18</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -20880,13 +20880,13 @@
         <v>300</v>
       </c>
       <c r="K285" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L285" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M285" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="Q285" t="n">
         <v>18</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -20952,13 +20952,13 @@
         <v>400</v>
       </c>
       <c r="K286" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L286" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M286" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q286" t="n">
         <v>18</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K287" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L287" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M287" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q287" t="n">
         <v>18</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K288" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L288" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M288" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q288" t="n">
         <v>18</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K289" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="L289" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M289" t="n">
-        <v>9500</v>
+        <v>13750</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>528</v>
+        <v>764</v>
       </c>
       <c r="Q289" t="n">
         <v>18</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K290" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L290" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M290" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q290" t="n">
         <v>18</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K291" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L291" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M291" t="n">
-        <v>5500</v>
+        <v>9750</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="Q291" t="n">
         <v>18</v>
@@ -21357,58 +21357,346 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E292" t="n">
+        <v>4</v>
+      </c>
+      <c r="F292" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J292" t="n">
+        <v>300</v>
+      </c>
+      <c r="K292" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L292" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M292" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P292" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>18</v>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>2</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D293" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="E292" t="n">
-        <v>4</v>
-      </c>
-      <c r="F292" t="n">
-        <v>100112043</v>
-      </c>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>Pepino dulce</t>
-        </is>
-      </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>Cultivar IV Región</t>
-        </is>
-      </c>
-      <c r="I292" t="inlineStr">
+      <c r="E293" t="n">
+        <v>4</v>
+      </c>
+      <c r="F293" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="J293" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K293" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L293" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M293" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P293" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>18</v>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>2</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E294" t="n">
+        <v>4</v>
+      </c>
+      <c r="F294" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J294" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K294" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L294" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M294" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P294" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>18</v>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>2</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D295" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E295" t="n">
+        <v>4</v>
+      </c>
+      <c r="F295" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J295" t="n">
+        <v>800</v>
+      </c>
+      <c r="K295" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L295" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M295" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P295" t="n">
+        <v>306</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>18</v>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>2</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E296" t="n">
+        <v>4</v>
+      </c>
+      <c r="F296" t="n">
+        <v>100112043</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Pepino dulce</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J292" t="n">
+      <c r="J296" t="n">
         <v>400</v>
       </c>
-      <c r="K292" t="n">
+      <c r="K296" t="n">
         <v>3000</v>
       </c>
-      <c r="L292" t="n">
+      <c r="L296" t="n">
         <v>4000</v>
       </c>
-      <c r="M292" t="n">
+      <c r="M296" t="n">
         <v>3500</v>
       </c>
-      <c r="N292" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O292" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P292" t="n">
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P296" t="n">
         <v>194</v>
       </c>
-      <c r="Q292" t="n">
-        <v>18</v>
-      </c>
-      <c r="R292" t="inlineStr">
+      <c r="Q296" t="n">
+        <v>18</v>
+      </c>
+      <c r="R296" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pepino dulce.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R296"/>
+  <dimension ref="A1:R299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44405</v>
+        <v>44497</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
         <v>300</v>
       </c>
       <c r="K60" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="L60" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M60" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="Q60" t="n">
         <v>18</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44405</v>
+        <v>44497</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K61" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L61" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M61" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q61" t="n">
         <v>18</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44405</v>
+        <v>44497</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4817,11 +4817,11 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K62" t="n">
         <v>8500</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K63" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="L63" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M63" t="n">
-        <v>5750</v>
+        <v>12750</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>319</v>
+        <v>708</v>
       </c>
       <c r="Q63" t="n">
         <v>18</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44272</v>
+        <v>44405</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K64" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="L64" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M64" t="n">
-        <v>9500</v>
+        <v>10750</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="Q64" t="n">
         <v>18</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44272</v>
+        <v>44405</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J65" t="n">
         <v>400</v>
       </c>
       <c r="K65" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L65" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M65" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="Q65" t="n">
         <v>18</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44272</v>
+        <v>44405</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K66" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L66" t="n">
         <v>6000</v>
       </c>
       <c r="M66" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q66" t="n">
         <v>18</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K67" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="L67" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M67" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>194</v>
+        <v>528</v>
       </c>
       <c r="Q67" t="n">
         <v>18</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44210</v>
+        <v>44272</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K68" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L68" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M68" t="n">
-        <v>11750</v>
+        <v>7500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>653</v>
+        <v>417</v>
       </c>
       <c r="Q68" t="n">
         <v>18</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44210</v>
+        <v>44272</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5328,13 +5328,13 @@
         <v>300</v>
       </c>
       <c r="K69" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L69" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M69" t="n">
-        <v>9750</v>
+        <v>5500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>542</v>
+        <v>306</v>
       </c>
       <c r="Q69" t="n">
         <v>18</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44210</v>
+        <v>44272</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K70" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L70" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M70" t="n">
-        <v>7750</v>
+        <v>3500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>431</v>
+        <v>194</v>
       </c>
       <c r="Q70" t="n">
         <v>18</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44399</v>
+        <v>44210</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K71" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="L71" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M71" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>708</v>
+        <v>653</v>
       </c>
       <c r="Q71" t="n">
         <v>18</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44399</v>
+        <v>44210</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K72" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L72" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M72" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q72" t="n">
         <v>18</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44399</v>
+        <v>44210</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K73" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L73" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M73" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q73" t="n">
         <v>18</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K74" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="L74" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M74" t="n">
-        <v>5750</v>
+        <v>12750</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>319</v>
+        <v>708</v>
       </c>
       <c r="Q74" t="n">
         <v>18</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
         <v>400</v>
       </c>
       <c r="K75" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L75" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M75" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="Q75" t="n">
         <v>18</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K76" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L76" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M76" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q76" t="n">
         <v>18</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K77" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L77" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M77" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q77" t="n">
         <v>18</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K78" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="L78" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M78" t="n">
-        <v>5750</v>
+        <v>11750</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>319</v>
+        <v>653</v>
       </c>
       <c r="Q78" t="n">
         <v>18</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44419</v>
+        <v>44364</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K79" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="L79" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M79" t="n">
-        <v>13750</v>
+        <v>9750</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>764</v>
+        <v>542</v>
       </c>
       <c r="Q79" t="n">
         <v>18</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44419</v>
+        <v>44364</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
         <v>500</v>
       </c>
       <c r="K80" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L80" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M80" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q80" t="n">
         <v>18</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44419</v>
+        <v>44364</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K81" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L81" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M81" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q81" t="n">
         <v>18</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K82" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="L82" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M82" t="n">
-        <v>6750</v>
+        <v>13750</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>375</v>
+        <v>764</v>
       </c>
       <c r="Q82" t="n">
         <v>18</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K83" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L83" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M83" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q83" t="n">
         <v>18</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K84" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L84" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M84" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q84" t="n">
         <v>18</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K85" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L85" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M85" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q85" t="n">
         <v>18</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K86" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L86" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M86" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q86" t="n">
         <v>18</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K87" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L87" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M87" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q87" t="n">
         <v>18</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K88" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L88" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M88" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q88" t="n">
         <v>18</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K89" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L89" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M89" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q89" t="n">
         <v>18</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
         <v>400</v>
       </c>
       <c r="K90" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L90" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M90" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q90" t="n">
         <v>18</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K91" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L91" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M91" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q91" t="n">
         <v>18</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44370</v>
+        <v>44216</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="K92" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L92" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M92" t="n">
-        <v>12736</v>
+        <v>9750</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="Q92" t="n">
         <v>18</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44370</v>
+        <v>44216</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K93" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L93" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M93" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q93" t="n">
         <v>18</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44370</v>
+        <v>44216</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K94" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L94" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M94" t="n">
-        <v>8750</v>
+        <v>5750</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="Q94" t="n">
         <v>18</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="K95" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="L95" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M95" t="n">
-        <v>5750</v>
+        <v>12736</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>319</v>
+        <v>708</v>
       </c>
       <c r="Q95" t="n">
         <v>18</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44244</v>
+        <v>44370</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K96" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L96" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M96" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q96" t="n">
         <v>18</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44244</v>
+        <v>44370</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K97" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L97" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M97" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q97" t="n">
         <v>18</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44244</v>
+        <v>44370</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7409,11 +7409,11 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K98" t="n">
         <v>5500</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44482</v>
+        <v>44244</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7488,13 +7488,13 @@
         <v>240</v>
       </c>
       <c r="K99" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="L99" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M99" t="n">
-        <v>13750</v>
+        <v>9750</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>764</v>
+        <v>542</v>
       </c>
       <c r="Q99" t="n">
         <v>18</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44482</v>
+        <v>44244</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K100" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L100" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M100" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q100" t="n">
         <v>18</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44482</v>
+        <v>44244</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K101" t="n">
-        <v>9200</v>
+        <v>5500</v>
       </c>
       <c r="L101" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M101" t="n">
-        <v>9600</v>
+        <v>5750</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>533</v>
+        <v>319</v>
       </c>
       <c r="Q101" t="n">
         <v>18</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K102" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="L102" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M102" t="n">
-        <v>6750</v>
+        <v>13750</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>375</v>
+        <v>764</v>
       </c>
       <c r="Q102" t="n">
         <v>18</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K103" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L103" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="M103" t="n">
-        <v>13250</v>
+        <v>11750</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>736</v>
+        <v>653</v>
       </c>
       <c r="Q103" t="n">
         <v>18</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K104" t="n">
-        <v>11000</v>
+        <v>9200</v>
       </c>
       <c r="L104" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="M104" t="n">
-        <v>11250</v>
+        <v>9600</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>625</v>
+        <v>533</v>
       </c>
       <c r="Q104" t="n">
         <v>18</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K105" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L105" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M105" t="n">
-        <v>9250</v>
+        <v>6750</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>514</v>
+        <v>375</v>
       </c>
       <c r="Q105" t="n">
         <v>18</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K106" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L106" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="M106" t="n">
-        <v>6250</v>
+        <v>13250</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>347</v>
+        <v>736</v>
       </c>
       <c r="Q106" t="n">
         <v>18</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K107" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L107" t="n">
         <v>11500</v>
       </c>
-      <c r="L107" t="n">
-        <v>12000</v>
-      </c>
       <c r="M107" t="n">
-        <v>11750</v>
+        <v>11250</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="Q107" t="n">
         <v>18</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K108" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L108" t="n">
         <v>9500</v>
       </c>
-      <c r="L108" t="n">
-        <v>10000</v>
-      </c>
       <c r="M108" t="n">
-        <v>9750</v>
+        <v>9250</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="Q108" t="n">
         <v>18</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K109" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L109" t="n">
         <v>6500</v>
       </c>
-      <c r="L109" t="n">
-        <v>7000</v>
-      </c>
       <c r="M109" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q109" t="n">
         <v>18</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K110" t="n">
-        <v>3500</v>
+        <v>11500</v>
       </c>
       <c r="L110" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M110" t="n">
-        <v>3750</v>
+        <v>11750</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>208</v>
+        <v>653</v>
       </c>
       <c r="Q110" t="n">
         <v>18</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44483</v>
+        <v>44336</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
         <v>300</v>
       </c>
       <c r="K111" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="L111" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M111" t="n">
-        <v>13750</v>
+        <v>9750</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>764</v>
+        <v>542</v>
       </c>
       <c r="Q111" t="n">
         <v>18</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44483</v>
+        <v>44336</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K112" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="L112" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M112" t="n">
-        <v>11750</v>
+        <v>6750</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>653</v>
+        <v>375</v>
       </c>
       <c r="Q112" t="n">
         <v>18</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44483</v>
+        <v>44336</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K113" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="L113" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M113" t="n">
-        <v>9750</v>
+        <v>3750</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>542</v>
+        <v>208</v>
       </c>
       <c r="Q113" t="n">
         <v>18</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K114" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="L114" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M114" t="n">
-        <v>6750</v>
+        <v>13750</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>375</v>
+        <v>764</v>
       </c>
       <c r="Q114" t="n">
         <v>18</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K115" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L115" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M115" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q115" t="n">
         <v>18</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K116" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L116" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M116" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q116" t="n">
         <v>18</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K117" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L117" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M117" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q117" t="n">
         <v>18</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K118" t="n">
-        <v>2500</v>
+        <v>9500</v>
       </c>
       <c r="L118" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="M118" t="n">
-        <v>2750</v>
+        <v>9750</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>153</v>
+        <v>542</v>
       </c>
       <c r="Q118" t="n">
         <v>18</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K119" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L119" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M119" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>486</v>
+        <v>375</v>
       </c>
       <c r="Q119" t="n">
         <v>18</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K120" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L120" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M120" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="Q120" t="n">
         <v>18</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K121" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L121" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M121" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q121" t="n">
         <v>18</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K122" t="n">
-        <v>2500</v>
+        <v>8500</v>
       </c>
       <c r="L122" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="M122" t="n">
-        <v>2750</v>
+        <v>8750</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>153</v>
+        <v>486</v>
       </c>
       <c r="Q122" t="n">
         <v>18</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K123" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L123" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M123" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>583</v>
+        <v>375</v>
       </c>
       <c r="Q123" t="n">
         <v>18</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K124" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L124" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M124" t="n">
-        <v>8500</v>
+        <v>4750</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>472</v>
+        <v>264</v>
       </c>
       <c r="Q124" t="n">
         <v>18</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K125" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L125" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M125" t="n">
-        <v>4500</v>
+        <v>2750</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="Q125" t="n">
         <v>18</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J126" t="n">
         <v>200</v>
       </c>
       <c r="K126" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L126" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M126" t="n">
-        <v>11750</v>
+        <v>10500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>653</v>
+        <v>583</v>
       </c>
       <c r="Q126" t="n">
         <v>18</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
         <v>240</v>
       </c>
       <c r="K127" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L127" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M127" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>542</v>
+        <v>472</v>
       </c>
       <c r="Q127" t="n">
         <v>18</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K128" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L128" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M128" t="n">
-        <v>7750</v>
+        <v>4500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>431</v>
+        <v>250</v>
       </c>
       <c r="Q128" t="n">
         <v>18</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K129" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L129" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M129" t="n">
-        <v>9500</v>
+        <v>11750</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>528</v>
+        <v>653</v>
       </c>
       <c r="Q129" t="n">
         <v>18</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K130" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L130" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M130" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>417</v>
+        <v>542</v>
       </c>
       <c r="Q130" t="n">
         <v>18</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K131" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L131" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M131" t="n">
-        <v>5500</v>
+        <v>7750</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="Q131" t="n">
         <v>18</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K132" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="L132" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M132" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>194</v>
+        <v>528</v>
       </c>
       <c r="Q132" t="n">
         <v>18</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J133" t="n">
         <v>500</v>
       </c>
       <c r="K133" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L133" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M133" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>542</v>
+        <v>417</v>
       </c>
       <c r="Q133" t="n">
         <v>18</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K134" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L134" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M134" t="n">
-        <v>7750</v>
+        <v>5500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>431</v>
+        <v>306</v>
       </c>
       <c r="Q134" t="n">
         <v>18</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K135" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L135" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M135" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q135" t="n">
         <v>18</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K136" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="L136" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M136" t="n">
-        <v>3750</v>
+        <v>9750</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>208</v>
+        <v>542</v>
       </c>
       <c r="Q136" t="n">
         <v>18</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K137" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L137" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M137" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>639</v>
+        <v>431</v>
       </c>
       <c r="Q137" t="n">
         <v>18</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K138" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L138" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M138" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>528</v>
+        <v>319</v>
       </c>
       <c r="Q138" t="n">
         <v>18</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K139" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L139" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M139" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>417</v>
+        <v>208</v>
       </c>
       <c r="Q139" t="n">
         <v>18</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K140" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L140" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M140" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>306</v>
+        <v>639</v>
       </c>
       <c r="Q140" t="n">
         <v>18</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K141" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L141" t="n">
-   